--- a/01_Dataset_Cleaned/MultiTaskModel_NiCrCoVFe_KW99_wt_pct_processed.xlsx
+++ b/01_Dataset_Cleaned/MultiTaskModel_NiCrCoVFe_KW99_wt_pct_processed.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M70"/>
+  <dimension ref="A1:AB70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Ni</t>
+          <t>Fe</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -446,55 +446,130 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Co</t>
+          <t>Ni</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Mo</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Nb</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Mn</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Cu</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Al</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>V</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Fe</t>
+          <t>Ta</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Ti</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Co</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Mg</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Zr</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Hf</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>delta_a</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Tm</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>sigma_Tm</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Hmix</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>sigma_Hmix</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>sigma_elec_nega</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>VEC</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>sigma_VEC</t>
         </is>
@@ -502,2830 +577,5935 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>51.98555612171399</v>
+        <v>10.27148578895017</v>
       </c>
       <c r="B2" t="n">
         <v>31.29049408631733</v>
       </c>
       <c r="C2" t="n">
+        <v>51.98555612171399</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.601017748048015</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>4.851446254970497</v>
       </c>
-      <c r="D2" t="n">
-        <v>1.601017748048015</v>
-      </c>
-      <c r="E2" t="n">
-        <v>10.27148578895017</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
         <v>0.007567560866934837</v>
       </c>
-      <c r="G2" t="n">
+      <c r="V2" t="n">
         <v>1898.775788633536</v>
       </c>
-      <c r="H2" t="n">
+      <c r="W2" t="n">
         <v>210.08295698605</v>
       </c>
-      <c r="I2" t="n">
+      <c r="X2" t="n">
         <v>-6.271298853023574</v>
       </c>
-      <c r="J2" t="n">
-        <v>2.111357319910796</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="Y2" t="n">
+        <v>2.111357319910797</v>
+      </c>
+      <c r="Z2" t="n">
         <v>0.1156826189583638</v>
       </c>
-      <c r="L2" t="n">
+      <c r="AA2" t="n">
         <v>8.311398201392562</v>
       </c>
-      <c r="M2" t="n">
+      <c r="AB2" t="n">
         <v>1.854883648133144</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>47.58971794791144</v>
+        <v>10.49540628405087</v>
       </c>
       <c r="B3" t="n">
         <v>32.94577234077189</v>
       </c>
       <c r="C3" t="n">
+        <v>47.58971794791144</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2.334196184849361</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>6.634907242416435</v>
       </c>
-      <c r="D3" t="n">
-        <v>2.334196184849361</v>
-      </c>
-      <c r="E3" t="n">
-        <v>10.49540628405087</v>
-      </c>
-      <c r="F3" t="n">
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
         <v>0.008981693372021508</v>
       </c>
-      <c r="G3" t="n">
+      <c r="V3" t="n">
         <v>1910.795152973678</v>
       </c>
-      <c r="H3" t="n">
+      <c r="W3" t="n">
         <v>212.1178454432332</v>
       </c>
-      <c r="I3" t="n">
+      <c r="X3" t="n">
         <v>-6.468448355120914</v>
       </c>
-      <c r="J3" t="n">
+      <c r="Y3" t="n">
         <v>2.332729780166001</v>
       </c>
-      <c r="K3" t="n">
+      <c r="Z3" t="n">
         <v>0.1167603319357038</v>
       </c>
-      <c r="L3" t="n">
+      <c r="AA3" t="n">
         <v>8.184012913062192</v>
       </c>
-      <c r="M3" t="n">
+      <c r="AB3" t="n">
         <v>1.86699756583838</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>43.56230343162476</v>
+        <v>11.11292799977388</v>
       </c>
       <c r="B4" t="n">
         <v>32.81214789008236</v>
       </c>
       <c r="C4" t="n">
+        <v>43.56230343162476</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3.278592219785826</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
         <v>9.234028458733178</v>
       </c>
-      <c r="D4" t="n">
-        <v>3.278592219785826</v>
-      </c>
-      <c r="E4" t="n">
-        <v>11.11292799977388</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.01049891504989096</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.01049891504989097</v>
+      </c>
+      <c r="V4" t="n">
         <v>1916.090626733144</v>
       </c>
-      <c r="H4" t="n">
+      <c r="W4" t="n">
         <v>211.7767346850572</v>
       </c>
-      <c r="I4" t="n">
+      <c r="X4" t="n">
         <v>-6.589870748179617</v>
       </c>
-      <c r="J4" t="n">
+      <c r="Y4" t="n">
         <v>2.581555258790369</v>
       </c>
-      <c r="K4" t="n">
+      <c r="Z4" t="n">
         <v>0.1166235588699299</v>
       </c>
-      <c r="L4" t="n">
+      <c r="AA4" t="n">
         <v>8.103673917714687</v>
       </c>
-      <c r="M4" t="n">
-        <v>1.860835719820995</v>
+      <c r="AB4" t="n">
+        <v>1.860835719820994</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>39.22125295817604</v>
+        <v>11.33579528302992</v>
       </c>
       <c r="B5" t="n">
         <v>32.22397566351926</v>
       </c>
       <c r="C5" t="n">
+        <v>39.22125295817604</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4.621174438767964</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
         <v>12.59780165650682</v>
       </c>
-      <c r="D5" t="n">
-        <v>4.621174438767964</v>
-      </c>
-      <c r="E5" t="n">
-        <v>11.33579528302992</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
         <v>0.01226566696882826</v>
       </c>
-      <c r="G5" t="n">
+      <c r="V5" t="n">
         <v>1921.152628589558</v>
       </c>
-      <c r="H5" t="n">
+      <c r="W5" t="n">
         <v>211.2849915172502</v>
       </c>
-      <c r="I5" t="n">
+      <c r="X5" t="n">
         <v>-6.791480312375179</v>
       </c>
-      <c r="J5" t="n">
+      <c r="Y5" t="n">
         <v>2.858632230826806</v>
       </c>
-      <c r="K5" t="n">
+      <c r="Z5" t="n">
         <v>0.1165478370541643</v>
       </c>
-      <c r="L5" t="n">
-        <v>8.021515930217276</v>
-      </c>
-      <c r="M5" t="n">
+      <c r="AA5" t="n">
+        <v>8.021515930217278</v>
+      </c>
+      <c r="AB5" t="n">
         <v>1.855466976740344</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>34.88574415625551</v>
+        <v>11.53221857575777</v>
       </c>
       <c r="B6" t="n">
         <v>30.53157810614559</v>
       </c>
       <c r="C6" t="n">
+        <v>34.88574415625551</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>6.330070586728944</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>16.72038857511217</v>
       </c>
-      <c r="D6" t="n">
-        <v>6.330070586728944</v>
-      </c>
-      <c r="E6" t="n">
-        <v>11.53221857575777</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
         <v>0.01411476619079386</v>
       </c>
-      <c r="G6" t="n">
+      <c r="V6" t="n">
         <v>1923.115521791667</v>
       </c>
-      <c r="H6" t="n">
+      <c r="W6" t="n">
         <v>209.9806668056275</v>
       </c>
-      <c r="I6" t="n">
+      <c r="X6" t="n">
         <v>-7.047384736419096</v>
       </c>
-      <c r="J6" t="n">
-        <v>3.152087504220491</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="Y6" t="n">
+        <v>3.152087504220492</v>
+      </c>
+      <c r="Z6" t="n">
         <v>0.1161926678246368</v>
       </c>
-      <c r="L6" t="n">
-        <v>7.958413700411958</v>
-      </c>
-      <c r="M6" t="n">
+      <c r="AA6" t="n">
+        <v>7.958413700411956</v>
+      </c>
+      <c r="AB6" t="n">
         <v>1.846723059137253</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>61.37440160498019</v>
+        <v>11.73836346032553</v>
       </c>
       <c r="B7" t="n">
         <v>22.86895992276621</v>
       </c>
       <c r="C7" t="n">
+        <v>61.37440160498019</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.259725905661516</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
         <v>2.758549106266543</v>
       </c>
-      <c r="D7" t="n">
-        <v>1.259725905661516</v>
-      </c>
-      <c r="E7" t="n">
-        <v>11.73836346032553</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.006842825225855351</v>
-      </c>
-      <c r="G7" t="n">
-        <v>1857.789691124598</v>
-      </c>
-      <c r="H7" t="n">
-        <v>194.3177838840968</v>
-      </c>
-      <c r="I7" t="n">
-        <v>-5.614142960297699</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1.937899557480048</v>
-      </c>
-      <c r="K7" t="n">
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.006842825225855346</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1857.789691124599</v>
+      </c>
+      <c r="W7" t="n">
+        <v>194.3177838840969</v>
+      </c>
+      <c r="X7" t="n">
+        <v>-5.614142960297702</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>1.937899557480049</v>
+      </c>
+      <c r="Z7" t="n">
         <v>0.107669417748325</v>
       </c>
-      <c r="L7" t="n">
-        <v>8.67016950614164</v>
-      </c>
-      <c r="M7" t="n">
+      <c r="AA7" t="n">
+        <v>8.670169506141644</v>
+      </c>
+      <c r="AB7" t="n">
         <v>1.750890315651342</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>56.71556632861048</v>
+        <v>12.47588443056982</v>
       </c>
       <c r="B8" t="n">
         <v>24.98368892830287</v>
       </c>
       <c r="C8" t="n">
+        <v>56.71556632861048</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.634808196102548</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
         <v>4.190052116414273</v>
       </c>
-      <c r="D8" t="n">
-        <v>1.634808196102548</v>
-      </c>
-      <c r="E8" t="n">
-        <v>12.47588443056982</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.007710236189675353</v>
-      </c>
-      <c r="G8" t="n">
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.007710236189675343</v>
+      </c>
+      <c r="V8" t="n">
         <v>1870.760523351667</v>
       </c>
-      <c r="H8" t="n">
+      <c r="W8" t="n">
         <v>199.1305171658607</v>
       </c>
-      <c r="I8" t="n">
-        <v>-5.867117265857989</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2.123633445264107</v>
-      </c>
-      <c r="K8" t="n">
+      <c r="X8" t="n">
+        <v>-5.867117265857988</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>2.123633445264106</v>
+      </c>
+      <c r="Z8" t="n">
         <v>0.1101136944012719</v>
       </c>
-      <c r="L8" t="n">
+      <c r="AA8" t="n">
         <v>8.533698013821583</v>
       </c>
-      <c r="M8" t="n">
+      <c r="AB8" t="n">
         <v>1.783668816170993</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>52.00259710594798</v>
+        <v>13.31360035996819</v>
       </c>
       <c r="B9" t="n">
         <v>26.54966770489246</v>
       </c>
       <c r="C9" t="n">
+        <v>52.00259710594798</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2.419855387591513</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
         <v>5.714279441599858</v>
       </c>
-      <c r="D9" t="n">
-        <v>2.419855387591513</v>
-      </c>
-      <c r="E9" t="n">
-        <v>13.31360035996819</v>
-      </c>
-      <c r="F9" t="n">
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
         <v>0.009226486237911845</v>
       </c>
-      <c r="G9" t="n">
+      <c r="V9" t="n">
         <v>1883.143030122693</v>
       </c>
-      <c r="H9" t="n">
+      <c r="W9" t="n">
         <v>202.7080861624065</v>
       </c>
-      <c r="I9" t="n">
+      <c r="X9" t="n">
         <v>-6.166938979389202</v>
       </c>
-      <c r="J9" t="n">
+      <c r="Y9" t="n">
         <v>2.381082478348045</v>
       </c>
-      <c r="K9" t="n">
+      <c r="Z9" t="n">
         <v>0.1120245704843556</v>
       </c>
-      <c r="L9" t="n">
-        <v>8.396325744972186</v>
-      </c>
-      <c r="M9" t="n">
+      <c r="AA9" t="n">
+        <v>8.396325744972188</v>
+      </c>
+      <c r="AB9" t="n">
         <v>1.810259609945069</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>46.90426102417226</v>
+        <v>14.04586286313179</v>
       </c>
       <c r="B10" t="n">
         <v>26.99036608992429</v>
       </c>
       <c r="C10" t="n">
+        <v>46.90426102417226</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3.607507573809785</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
         <v>8.452002448961867</v>
       </c>
-      <c r="D10" t="n">
-        <v>3.607507573809785</v>
-      </c>
-      <c r="E10" t="n">
-        <v>14.04586286313179</v>
-      </c>
-      <c r="F10" t="n">
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
         <v>0.01107494595998307</v>
       </c>
-      <c r="G10" t="n">
+      <c r="V10" t="n">
         <v>1892.497595706803</v>
       </c>
-      <c r="H10" t="n">
+      <c r="W10" t="n">
         <v>204.2175852139688</v>
       </c>
-      <c r="I10" t="n">
-        <v>-6.446623242846038</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2.695215082590742</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="X10" t="n">
+        <v>-6.446623242846035</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>2.695215082590741</v>
+      </c>
+      <c r="Z10" t="n">
         <v>0.1129461844622978</v>
       </c>
-      <c r="L10" t="n">
-        <v>8.275277740967285</v>
-      </c>
-      <c r="M10" t="n">
+      <c r="AA10" t="n">
+        <v>8.275277740967283</v>
+      </c>
+      <c r="AB10" t="n">
         <v>1.821423299585024</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>42.00036448179262</v>
+        <v>14.78596965177877</v>
       </c>
       <c r="B11" t="n">
         <v>27.06870998804106</v>
       </c>
       <c r="C11" t="n">
+        <v>42.00036448179262</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5.28571231605495</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
         <v>10.8592435623326</v>
       </c>
-      <c r="D11" t="n">
-        <v>5.28571231605495</v>
-      </c>
-      <c r="E11" t="n">
-        <v>14.78596965177877</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.01316040153308274</v>
-      </c>
-      <c r="G11" t="n">
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.01316040153308272</v>
+      </c>
+      <c r="V11" t="n">
         <v>1902.325520402011</v>
       </c>
-      <c r="H11" t="n">
+      <c r="W11" t="n">
         <v>205.5594757974689</v>
       </c>
-      <c r="I11" t="n">
+      <c r="X11" t="n">
         <v>-6.825920157494785</v>
       </c>
-      <c r="J11" t="n">
+      <c r="Y11" t="n">
         <v>3.019598288428964</v>
       </c>
-      <c r="K11" t="n">
+      <c r="Z11" t="n">
         <v>0.1139088323443737</v>
       </c>
-      <c r="L11" t="n">
+      <c r="AA11" t="n">
         <v>8.147005641274992</v>
       </c>
-      <c r="M11" t="n">
+      <c r="AB11" t="n">
         <v>1.835044455810978</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>37.75047907645035</v>
+        <v>14.60750023008277</v>
       </c>
       <c r="B12" t="n">
         <v>25.99044553565464</v>
       </c>
       <c r="C12" t="n">
+        <v>37.75047907645035</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>7.292177963267194</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>14.35939719454503</v>
       </c>
-      <c r="D12" t="n">
-        <v>7.292177963267194</v>
-      </c>
-      <c r="E12" t="n">
-        <v>14.60750023008277</v>
-      </c>
-      <c r="F12" t="n">
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
         <v>0.01515838317678847</v>
       </c>
-      <c r="G12" t="n">
+      <c r="V12" t="n">
         <v>1908.03799361034</v>
       </c>
-      <c r="H12" t="n">
-        <v>205.8132368935489</v>
-      </c>
-      <c r="I12" t="n">
-        <v>-7.253456385052128</v>
-      </c>
-      <c r="J12" t="n">
+      <c r="W12" t="n">
+        <v>205.813236893549</v>
+      </c>
+      <c r="X12" t="n">
+        <v>-7.253456385052127</v>
+      </c>
+      <c r="Y12" t="n">
         <v>3.349368283476078</v>
       </c>
-      <c r="K12" t="n">
+      <c r="Z12" t="n">
         <v>0.1145428712332797</v>
       </c>
-      <c r="L12" t="n">
+      <c r="AA12" t="n">
         <v>8.056311680113808</v>
       </c>
-      <c r="M12" t="n">
-        <v>1.845065614118695</v>
+      <c r="AB12" t="n">
+        <v>1.845065614118694</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>32.8770530221699</v>
+        <v>13.93632017907879</v>
       </c>
       <c r="B13" t="n">
         <v>24.36465676002593</v>
       </c>
       <c r="C13" t="n">
+        <v>32.8770530221699</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>10.51764696301523</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
         <v>18.30432307571014</v>
       </c>
-      <c r="D13" t="n">
-        <v>10.51764696301523</v>
-      </c>
-      <c r="E13" t="n">
-        <v>13.93632017907879</v>
-      </c>
-      <c r="F13" t="n">
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
         <v>0.01768471927353749</v>
       </c>
-      <c r="G13" t="n">
+      <c r="V13" t="n">
         <v>1916.753430268094</v>
       </c>
-      <c r="H13" t="n">
+      <c r="W13" t="n">
         <v>206.7304620179058</v>
       </c>
-      <c r="I13" t="n">
-        <v>-7.975947063315022</v>
-      </c>
-      <c r="J13" t="n">
+      <c r="X13" t="n">
+        <v>-7.97594706331502</v>
+      </c>
+      <c r="Y13" t="n">
         <v>3.758173114708101</v>
       </c>
-      <c r="K13" t="n">
+      <c r="Z13" t="n">
         <v>0.1158984378599376</v>
       </c>
-      <c r="L13" t="n">
-        <v>7.930006739875209</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.869517598110251</v>
+      <c r="AA13" t="n">
+        <v>7.930006739875208</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>1.86951759811025</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>69.29549240142492</v>
+        <v>13.2060787967079</v>
       </c>
       <c r="B14" t="n">
         <v>15.02832349645654</v>
       </c>
       <c r="C14" t="n">
+        <v>69.29549240142492</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.7977467951202381</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
         <v>1.672358510290382</v>
       </c>
-      <c r="D14" t="n">
-        <v>0.7977467951202381</v>
-      </c>
-      <c r="E14" t="n">
-        <v>13.2060787967079</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.005606114639837776</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1818.578263959325</v>
-      </c>
-      <c r="H14" t="n">
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.005606114639837781</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1818.578263959326</v>
+      </c>
+      <c r="W14" t="n">
         <v>168.3561060540251</v>
       </c>
-      <c r="I14" t="n">
+      <c r="X14" t="n">
         <v>-4.477646392720541</v>
       </c>
-      <c r="J14" t="n">
+      <c r="Y14" t="n">
         <v>1.708256677610854</v>
       </c>
-      <c r="K14" t="n">
+      <c r="Z14" t="n">
         <v>0.09416825360061813</v>
       </c>
-      <c r="L14" t="n">
+      <c r="AA14" t="n">
         <v>9.008251048490905</v>
       </c>
-      <c r="M14" t="n">
+      <c r="AB14" t="n">
         <v>1.561750253790709</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>64.41049102823393</v>
+        <v>14.43724685121477</v>
       </c>
       <c r="B15" t="n">
         <v>17.46573593468872</v>
       </c>
       <c r="C15" t="n">
+        <v>64.41049102823393</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.20945092086888</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>2.47707526499368</v>
       </c>
-      <c r="D15" t="n">
-        <v>1.20945092086888</v>
-      </c>
-      <c r="E15" t="n">
-        <v>14.43724685121477</v>
-      </c>
-      <c r="F15" t="n">
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
         <v>0.006775170565409099</v>
       </c>
-      <c r="G15" t="n">
+      <c r="V15" t="n">
         <v>1833.694548174602</v>
       </c>
-      <c r="H15" t="n">
+      <c r="W15" t="n">
         <v>178.1069290323834</v>
       </c>
-      <c r="I15" t="n">
-        <v>-4.97712392795148</v>
-      </c>
-      <c r="J15" t="n">
+      <c r="X15" t="n">
+        <v>-4.977123927951482</v>
+      </c>
+      <c r="Y15" t="n">
         <v>1.914281381179299</v>
       </c>
-      <c r="K15" t="n">
-        <v>0.09932146237195351</v>
-      </c>
-      <c r="L15" t="n">
-        <v>8.849914302729818</v>
-      </c>
-      <c r="M15" t="n">
+      <c r="Z15" t="n">
+        <v>0.09932146237195352</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>8.84991430272982</v>
+      </c>
+      <c r="AB15" t="n">
         <v>1.638625076837699</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>59.47972292144197</v>
+        <v>15.77509757365795</v>
       </c>
       <c r="B16" t="n">
         <v>19.46141471946138</v>
       </c>
       <c r="C16" t="n">
+        <v>59.47972292144197</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.735788529393408</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
         <v>3.547976256045292</v>
       </c>
-      <c r="D16" t="n">
-        <v>1.735788529393408</v>
-      </c>
-      <c r="E16" t="n">
-        <v>15.77509757365795</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.007998684130288676</v>
-      </c>
-      <c r="G16" t="n">
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.007998684130288678</v>
+      </c>
+      <c r="V16" t="n">
         <v>1847.320697703437</v>
       </c>
-      <c r="H16" t="n">
+      <c r="W16" t="n">
         <v>185.0846877967935</v>
       </c>
-      <c r="I16" t="n">
-        <v>-5.375273100435932</v>
-      </c>
-      <c r="J16" t="n">
+      <c r="X16" t="n">
+        <v>-5.375273100435933</v>
+      </c>
+      <c r="Y16" t="n">
         <v>2.139010897796586</v>
       </c>
-      <c r="K16" t="n">
+      <c r="Z16" t="n">
         <v>0.1029770967576714</v>
       </c>
-      <c r="L16" t="n">
+      <c r="AA16" t="n">
         <v>8.700625057938989</v>
       </c>
-      <c r="M16" t="n">
+      <c r="AB16" t="n">
         <v>1.692022026540553</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>53.96503504675589</v>
+        <v>17.01643502058164</v>
       </c>
       <c r="B17" t="n">
         <v>21.27838133381189</v>
       </c>
       <c r="C17" t="n">
+        <v>53.96503504675589</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2.770549678121697</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
         <v>4.96959892072887</v>
       </c>
-      <c r="D17" t="n">
-        <v>2.770549678121697</v>
-      </c>
-      <c r="E17" t="n">
-        <v>17.01643502058164</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.00991035522452558</v>
-      </c>
-      <c r="G17" t="n">
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.009910355224525562</v>
+      </c>
+      <c r="V17" t="n">
         <v>1862.519712760652</v>
       </c>
-      <c r="H17" t="n">
+      <c r="W17" t="n">
         <v>191.5692950747122</v>
       </c>
-      <c r="I17" t="n">
-        <v>-5.868722452599632</v>
-      </c>
-      <c r="J17" t="n">
+      <c r="X17" t="n">
+        <v>-5.868722452599634</v>
+      </c>
+      <c r="Y17" t="n">
         <v>2.462800168495763</v>
       </c>
-      <c r="K17" t="n">
+      <c r="Z17" t="n">
         <v>0.1064838084249622</v>
       </c>
-      <c r="L17" t="n">
+      <c r="AA17" t="n">
         <v>8.53134573047033</v>
       </c>
-      <c r="M17" t="n">
-        <v>1.743724699764246</v>
+      <c r="AB17" t="n">
+        <v>1.743724699764247</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>50.2956906832617</v>
+        <v>17.57324774662381</v>
       </c>
       <c r="B18" t="n">
         <v>21.9085475462501</v>
       </c>
       <c r="C18" t="n">
+        <v>50.2956906832617</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3.69510141148884</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
         <v>6.527412612375554</v>
       </c>
-      <c r="D18" t="n">
-        <v>3.69510141148884</v>
-      </c>
-      <c r="E18" t="n">
-        <v>17.57324774662381</v>
-      </c>
-      <c r="F18" t="n">
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
         <v>0.01130136048272857</v>
       </c>
-      <c r="G18" t="n">
+      <c r="V18" t="n">
         <v>1870.999245485742</v>
       </c>
-      <c r="H18" t="n">
+      <c r="W18" t="n">
         <v>194.3943070618537</v>
       </c>
-      <c r="I18" t="n">
-        <v>-6.178137385674441</v>
-      </c>
-      <c r="J18" t="n">
+      <c r="X18" t="n">
+        <v>-6.178137385674443</v>
+      </c>
+      <c r="Y18" t="n">
         <v>2.700707230990515</v>
       </c>
-      <c r="K18" t="n">
+      <c r="Z18" t="n">
         <v>0.1081036941567561</v>
       </c>
-      <c r="L18" t="n">
-        <v>8.43029268567312</v>
-      </c>
-      <c r="M18" t="n">
+      <c r="AA18" t="n">
+        <v>8.430292685673122</v>
+      </c>
+      <c r="AB18" t="n">
         <v>1.76729345111992</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>44.49254902780563</v>
+        <v>18.2282289394109</v>
       </c>
       <c r="B19" t="n">
         <v>22.25825438399324</v>
       </c>
       <c r="C19" t="n">
+        <v>44.49254902780563</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5.896923790443918</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
         <v>9.124043858346317</v>
       </c>
-      <c r="D19" t="n">
-        <v>5.896923790443918</v>
-      </c>
-      <c r="E19" t="n">
-        <v>18.2282289394109</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.01394268369701948</v>
-      </c>
-      <c r="G19" t="n">
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.01394268369701949</v>
+      </c>
+      <c r="V19" t="n">
         <v>1884.717007471835</v>
       </c>
-      <c r="H19" t="n">
+      <c r="W19" t="n">
         <v>198.3108264298762</v>
       </c>
-      <c r="I19" t="n">
+      <c r="X19" t="n">
         <v>-6.813358329002254</v>
       </c>
-      <c r="J19" t="n">
+      <c r="Y19" t="n">
         <v>3.132689075639008</v>
       </c>
-      <c r="K19" t="n">
+      <c r="Z19" t="n">
         <v>0.1106082616356001</v>
       </c>
-      <c r="L19" t="n">
-        <v>8.262184722714835</v>
-      </c>
-      <c r="M19" t="n">
+      <c r="AA19" t="n">
+        <v>8.262184722714837</v>
+      </c>
+      <c r="AB19" t="n">
         <v>1.806421150658787</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>40.14606294301679</v>
+        <v>18.05168677518481</v>
       </c>
       <c r="B20" t="n">
         <v>21.54337168332784</v>
       </c>
       <c r="C20" t="n">
+        <v>40.14606294301679</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>8.2606171846714</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
         <v>11.99826141379916</v>
       </c>
-      <c r="D20" t="n">
-        <v>8.2606171846714</v>
-      </c>
-      <c r="E20" t="n">
-        <v>18.05168677518481</v>
-      </c>
-      <c r="F20" t="n">
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
         <v>0.01614337594564339</v>
       </c>
-      <c r="G20" t="n">
+      <c r="V20" t="n">
         <v>1893.627935215775</v>
       </c>
-      <c r="H20" t="n">
+      <c r="W20" t="n">
         <v>200.3466927595986</v>
       </c>
-      <c r="I20" t="n">
-        <v>-7.416595367999556</v>
-      </c>
-      <c r="J20" t="n">
-        <v>3.504752859306901</v>
-      </c>
-      <c r="K20" t="n">
+      <c r="X20" t="n">
+        <v>-7.416595367999558</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>3.504752859306902</v>
+      </c>
+      <c r="Z20" t="n">
         <v>0.1122998910665736</v>
       </c>
-      <c r="L20" t="n">
+      <c r="AA20" t="n">
         <v>8.143491897434147</v>
       </c>
-      <c r="M20" t="n">
+      <c r="AB20" t="n">
         <v>1.835182866771414</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>35.00489144090659</v>
+        <v>17.30316829702608</v>
       </c>
       <c r="B21" t="n">
         <v>20.30123682150807</v>
       </c>
       <c r="C21" t="n">
+        <v>35.00489144090659</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>11.76946366999297</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
         <v>15.62123977056628</v>
       </c>
-      <c r="D21" t="n">
-        <v>11.76946366999297</v>
-      </c>
-      <c r="E21" t="n">
-        <v>17.30316829702608</v>
-      </c>
-      <c r="F21" t="n">
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
         <v>0.01868295615421885</v>
       </c>
-      <c r="G21" t="n">
+      <c r="V21" t="n">
         <v>1905.332029117198</v>
       </c>
-      <c r="H21" t="n">
+      <c r="W21" t="n">
         <v>202.8634158510409</v>
       </c>
-      <c r="I21" t="n">
-        <v>-8.258354018609532</v>
-      </c>
-      <c r="J21" t="n">
+      <c r="X21" t="n">
+        <v>-8.258354018609531</v>
+      </c>
+      <c r="Y21" t="n">
         <v>3.932584226342296</v>
       </c>
-      <c r="K21" t="n">
-        <v>0.1145360131513713</v>
-      </c>
-      <c r="L21" t="n">
+      <c r="Z21" t="n">
+        <v>0.1145360131513712</v>
+      </c>
+      <c r="AA21" t="n">
         <v>7.991016495067599</v>
       </c>
-      <c r="M21" t="n">
+      <c r="AB21" t="n">
         <v>1.87334037985938</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>30.19464676324015</v>
+        <v>15.87142913305469</v>
       </c>
       <c r="B22" t="n">
         <v>18.70576258983613</v>
       </c>
       <c r="C22" t="n">
+        <v>30.19464676324015</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>16.67699386151701</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
         <v>18.55116765235202</v>
       </c>
-      <c r="D22" t="n">
-        <v>16.67699386151701</v>
-      </c>
-      <c r="E22" t="n">
-        <v>15.87142913305469</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.02132280954649756</v>
-      </c>
-      <c r="G22" t="n">
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.02132280954649748</v>
+      </c>
+      <c r="V22" t="n">
         <v>1921.130125222988</v>
       </c>
-      <c r="H22" t="n">
+      <c r="W22" t="n">
         <v>206.2241599538678</v>
       </c>
-      <c r="I22" t="n">
-        <v>-9.36903711750807</v>
-      </c>
-      <c r="J22" t="n">
-        <v>4.357480023472857</v>
-      </c>
-      <c r="K22" t="n">
+      <c r="X22" t="n">
+        <v>-9.369037117508064</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>4.357480023472855</v>
+      </c>
+      <c r="Z22" t="n">
         <v>0.1175264069897883</v>
       </c>
-      <c r="L22" t="n">
-        <v>7.801207389430619</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.927101311134162</v>
+      <c r="AA22" t="n">
+        <v>7.801207389430617</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>1.927101311134161</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>69.68900737564974</v>
+        <v>16.2842163689804</v>
       </c>
       <c r="B23" t="n">
         <v>11.62108928220617</v>
       </c>
       <c r="C23" t="n">
+        <v>69.68900737564974</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.8209931388708622</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
         <v>1.584693834292852</v>
       </c>
-      <c r="D23" t="n">
-        <v>0.8209931388708622</v>
-      </c>
-      <c r="E23" t="n">
-        <v>16.2842163689804</v>
-      </c>
-      <c r="F23" t="n">
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
         <v>0.005723659448972996</v>
       </c>
-      <c r="G23" t="n">
+      <c r="V23" t="n">
         <v>1804.560680786897</v>
       </c>
-      <c r="H23" t="n">
+      <c r="W23" t="n">
         <v>152.9249193397706</v>
       </c>
-      <c r="I23" t="n">
+      <c r="X23" t="n">
         <v>-3.988340565739932</v>
       </c>
-      <c r="J23" t="n">
+      <c r="Y23" t="n">
         <v>1.698850637275885</v>
       </c>
-      <c r="K23" t="n">
+      <c r="Z23" t="n">
         <v>0.08640015880863641</v>
       </c>
-      <c r="L23" t="n">
+      <c r="AA23" t="n">
         <v>9.092117900529091</v>
       </c>
-      <c r="M23" t="n">
+      <c r="AB23" t="n">
         <v>1.462526570850697</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>65.18010332095461</v>
+        <v>17.99859633271077</v>
       </c>
       <c r="B24" t="n">
         <v>13.66150507969354</v>
       </c>
       <c r="C24" t="n">
+        <v>65.18010332095461</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.177828825037154</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
         <v>1.981966441603931</v>
       </c>
-      <c r="D24" t="n">
-        <v>1.177828825037154</v>
-      </c>
-      <c r="E24" t="n">
-        <v>17.99859633271077</v>
-      </c>
-      <c r="F24" t="n">
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
         <v>0.006749019107849593</v>
       </c>
-      <c r="G24" t="n">
+      <c r="V24" t="n">
         <v>1817.809745225328</v>
       </c>
-      <c r="H24" t="n">
+      <c r="W24" t="n">
         <v>163.0853992397982</v>
       </c>
-      <c r="I24" t="n">
-        <v>-4.463667374112368</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1.87557423175787</v>
-      </c>
-      <c r="K24" t="n">
+      <c r="X24" t="n">
+        <v>-4.463667374112369</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>1.875574231757871</v>
+      </c>
+      <c r="Z24" t="n">
         <v>0.09171317174128543</v>
       </c>
-      <c r="L24" t="n">
-        <v>8.947225319860513</v>
-      </c>
-      <c r="M24" t="n">
+      <c r="AA24" t="n">
+        <v>8.947225319860511</v>
+      </c>
+      <c r="AB24" t="n">
         <v>1.541251999619234</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>60.56757689120469</v>
+        <v>19.53665474474453</v>
       </c>
       <c r="B25" t="n">
         <v>15.08229893964224</v>
       </c>
       <c r="C25" t="n">
+        <v>60.56757689120469</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.808989009252903</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
         <v>3.004480415155629</v>
       </c>
-      <c r="D25" t="n">
-        <v>1.808989009252903</v>
-      </c>
-      <c r="E25" t="n">
-        <v>19.53665474474453</v>
-      </c>
-      <c r="F25" t="n">
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
         <v>0.00821773094061517</v>
       </c>
-      <c r="G25" t="n">
+      <c r="V25" t="n">
         <v>1829.427349919213</v>
       </c>
-      <c r="H25" t="n">
+      <c r="W25" t="n">
         <v>170.3345833808895</v>
       </c>
-      <c r="I25" t="n">
+      <c r="X25" t="n">
         <v>-4.901209198758062</v>
       </c>
-      <c r="J25" t="n">
+      <c r="Y25" t="n">
         <v>2.130049961671903</v>
       </c>
-      <c r="K25" t="n">
-        <v>0.095591127436886</v>
-      </c>
-      <c r="L25" t="n">
+      <c r="Z25" t="n">
+        <v>0.09559112743688601</v>
+      </c>
+      <c r="AA25" t="n">
         <v>8.812242166582951</v>
       </c>
-      <c r="M25" t="n">
+      <c r="AB25" t="n">
         <v>1.599506567855235</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>55.49755604733809</v>
+        <v>21.18080958029204</v>
       </c>
       <c r="B26" t="n">
         <v>16.41888276730987</v>
       </c>
       <c r="C26" t="n">
+        <v>55.49755604733809</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>2.78582109936913</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
         <v>4.116930505690866</v>
       </c>
-      <c r="D26" t="n">
-        <v>2.78582109936913</v>
-      </c>
-      <c r="E26" t="n">
-        <v>21.18080958029204</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.01002327231053389</v>
-      </c>
-      <c r="G26" t="n">
-        <v>1842.372971012489</v>
-      </c>
-      <c r="H26" t="n">
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0.01002327231053391</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1842.372971012488</v>
+      </c>
+      <c r="W26" t="n">
         <v>177.2699889808056</v>
       </c>
-      <c r="I26" t="n">
-        <v>-5.399374730227286</v>
-      </c>
-      <c r="J26" t="n">
+      <c r="X26" t="n">
+        <v>-5.399374730227284</v>
+      </c>
+      <c r="Y26" t="n">
         <v>2.433698483509787</v>
       </c>
-      <c r="K26" t="n">
-        <v>0.09934216885025567</v>
-      </c>
-      <c r="L26" t="n">
-        <v>8.660208966637221</v>
-      </c>
-      <c r="M26" t="n">
+      <c r="Z26" t="n">
+        <v>0.09934216885025565</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>8.660208966637217</v>
+      </c>
+      <c r="AB26" t="n">
         <v>1.655542093125456</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>50.01949321582786</v>
+        <v>22.36133238808863</v>
       </c>
       <c r="B27" t="n">
         <v>17.68792718760798</v>
       </c>
       <c r="C27" t="n">
+        <v>50.01949321582786</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4.251063367731021</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
         <v>5.680183840744505</v>
       </c>
-      <c r="D27" t="n">
-        <v>4.251063367731021</v>
-      </c>
-      <c r="E27" t="n">
-        <v>22.36133238808863</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0.0121507430509626</v>
-      </c>
-      <c r="G27" t="n">
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0.01215074305096257</v>
+      </c>
+      <c r="V27" t="n">
         <v>1857.083503674675</v>
       </c>
-      <c r="H27" t="n">
+      <c r="W27" t="n">
         <v>184.2095798401118</v>
       </c>
-      <c r="I27" t="n">
+      <c r="X27" t="n">
         <v>-5.984408774734399</v>
       </c>
-      <c r="J27" t="n">
+      <c r="Y27" t="n">
         <v>2.786560182923776</v>
       </c>
-      <c r="K27" t="n">
+      <c r="Z27" t="n">
         <v>0.1031558043979282</v>
       </c>
-      <c r="L27" t="n">
-        <v>8.490860210984829</v>
-      </c>
-      <c r="M27" t="n">
+      <c r="AA27" t="n">
+        <v>8.490860210984831</v>
+      </c>
+      <c r="AB27" t="n">
         <v>1.711073414995902</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>45.94547501288871</v>
+        <v>22.25528267810615</v>
       </c>
       <c r="B28" t="n">
         <v>18.13124569257213</v>
       </c>
       <c r="C28" t="n">
+        <v>45.94547501288871</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>6.108469737958585</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
         <v>7.55952687847443</v>
       </c>
-      <c r="D28" t="n">
-        <v>6.108469737958585</v>
-      </c>
-      <c r="E28" t="n">
-        <v>22.25528267810615</v>
-      </c>
-      <c r="F28" t="n">
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
         <v>0.01427997797680656</v>
       </c>
-      <c r="G28" t="n">
+      <c r="V28" t="n">
         <v>1868.804889673751</v>
       </c>
-      <c r="H28" t="n">
+      <c r="W28" t="n">
         <v>189.3599180710088</v>
       </c>
-      <c r="I28" t="n">
-        <v>-6.611892994554885</v>
-      </c>
-      <c r="J28" t="n">
-        <v>3.144570772142394</v>
-      </c>
-      <c r="K28" t="n">
+      <c r="X28" t="n">
+        <v>-6.611892994554888</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>3.144570772142395</v>
+      </c>
+      <c r="Z28" t="n">
         <v>0.1062935803509471</v>
       </c>
-      <c r="L28" t="n">
-        <v>8.35808529879486</v>
-      </c>
-      <c r="M28" t="n">
+      <c r="AA28" t="n">
+        <v>8.358085298794862</v>
+      </c>
+      <c r="AB28" t="n">
         <v>1.75956979738066</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>41.15294747467846</v>
+        <v>22.11853696692908</v>
       </c>
       <c r="B29" t="n">
         <v>17.71834953868881</v>
       </c>
       <c r="C29" t="n">
+        <v>41.15294747467846</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>9.179356354015789</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
         <v>9.830809665687847</v>
       </c>
-      <c r="D29" t="n">
-        <v>9.179356354015789</v>
-      </c>
-      <c r="E29" t="n">
-        <v>22.11853696692908</v>
-      </c>
-      <c r="F29" t="n">
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
         <v>0.01702922256247048</v>
       </c>
-      <c r="G29" t="n">
+      <c r="V29" t="n">
         <v>1882.375210236956</v>
       </c>
-      <c r="H29" t="n">
+      <c r="W29" t="n">
         <v>194.2879178623252</v>
       </c>
-      <c r="I29" t="n">
-        <v>-7.499450700016689</v>
-      </c>
-      <c r="J29" t="n">
-        <v>3.600336999345562</v>
-      </c>
-      <c r="K29" t="n">
+      <c r="X29" t="n">
+        <v>-7.499450700016688</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>3.600336999345563</v>
+      </c>
+      <c r="Z29" t="n">
         <v>0.1096762510355988</v>
       </c>
-      <c r="L29" t="n">
-        <v>8.194409991601908</v>
-      </c>
-      <c r="M29" t="n">
+      <c r="AA29" t="n">
+        <v>8.194409991601907</v>
+      </c>
+      <c r="AB29" t="n">
         <v>1.816323965305568</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>36.11077555188695</v>
+        <v>21.13587239531939</v>
       </c>
       <c r="B30" t="n">
         <v>17.34750983028886</v>
       </c>
       <c r="C30" t="n">
+        <v>36.11077555188695</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>13.24930686414909</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
         <v>12.15653535835572</v>
       </c>
-      <c r="D30" t="n">
-        <v>13.24930686414909</v>
-      </c>
-      <c r="E30" t="n">
-        <v>21.13587239531939</v>
-      </c>
-      <c r="F30" t="n">
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" t="n">
         <v>0.01975233339717399</v>
       </c>
-      <c r="G30" t="n">
+      <c r="V30" t="n">
         <v>1900.159295131961</v>
       </c>
-      <c r="H30" t="n">
+      <c r="W30" t="n">
         <v>200.0440324943598</v>
       </c>
-      <c r="I30" t="n">
-        <v>-8.548720746551371</v>
-      </c>
-      <c r="J30" t="n">
+      <c r="X30" t="n">
+        <v>-8.548720746551373</v>
+      </c>
+      <c r="Y30" t="n">
         <v>4.045895082346354</v>
       </c>
-      <c r="K30" t="n">
+      <c r="Z30" t="n">
         <v>0.1136031273724941</v>
       </c>
-      <c r="L30" t="n">
-        <v>7.994008236918265</v>
-      </c>
-      <c r="M30" t="n">
+      <c r="AA30" t="n">
+        <v>7.994008236918264</v>
+      </c>
+      <c r="AB30" t="n">
         <v>1.880414202539238</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>31.05738066946694</v>
+        <v>19.80061812897557</v>
       </c>
       <c r="B31" t="n">
         <v>15.3476838701526</v>
       </c>
       <c r="C31" t="n">
+        <v>31.05738066946694</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>18.52044105582995</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
         <v>15.27387627557495</v>
       </c>
-      <c r="D31" t="n">
-        <v>18.52044105582995</v>
-      </c>
-      <c r="E31" t="n">
-        <v>19.80061812897557</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0.02234030920231087</v>
-      </c>
-      <c r="G31" t="n">
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0.02234030920231088</v>
+      </c>
+      <c r="V31" t="n">
         <v>1915.960217012119</v>
       </c>
-      <c r="H31" t="n">
+      <c r="W31" t="n">
         <v>203.730676930795</v>
       </c>
-      <c r="I31" t="n">
+      <c r="X31" t="n">
         <v>-9.698632590650735</v>
       </c>
-      <c r="J31" t="n">
+      <c r="Y31" t="n">
         <v>4.468587469008692</v>
       </c>
-      <c r="K31" t="n">
+      <c r="Z31" t="n">
         <v>0.1167826777879098</v>
       </c>
-      <c r="L31" t="n">
+      <c r="AA31" t="n">
         <v>7.798211181117483</v>
       </c>
-      <c r="M31" t="n">
+      <c r="AB31" t="n">
         <v>1.93635772262265</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>68.38272010981913</v>
+        <v>20.55168297688286</v>
       </c>
       <c r="B32" t="n">
         <v>8.905594154233439</v>
       </c>
       <c r="C32" t="n">
+        <v>68.38272010981913</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.8751622996720143</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
         <v>1.284840459392553</v>
       </c>
-      <c r="D32" t="n">
-        <v>0.8751622996720143</v>
-      </c>
-      <c r="E32" t="n">
-        <v>20.55168297688286</v>
-      </c>
-      <c r="F32" t="n">
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
         <v>0.005939052764408702</v>
       </c>
-      <c r="G32" t="n">
+      <c r="V32" t="n">
         <v>1794.910990541605</v>
       </c>
-      <c r="H32" t="n">
+      <c r="W32" t="n">
         <v>138.2348367575917</v>
       </c>
-      <c r="I32" t="n">
+      <c r="X32" t="n">
         <v>-3.627212047565354</v>
       </c>
-      <c r="J32" t="n">
+      <c r="Y32" t="n">
         <v>1.670883424475983</v>
       </c>
-      <c r="K32" t="n">
+      <c r="Z32" t="n">
         <v>0.07929342216726326</v>
       </c>
-      <c r="L32" t="n">
-        <v>9.123059177693214</v>
-      </c>
-      <c r="M32" t="n">
+      <c r="AA32" t="n">
+        <v>9.123059177693213</v>
+      </c>
+      <c r="AB32" t="n">
         <v>1.380621884400646</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>63.38271594806355</v>
+        <v>22.96934284445093</v>
       </c>
       <c r="B33" t="n">
         <v>10.46562148344112</v>
       </c>
       <c r="C33" t="n">
+        <v>63.38271594806355</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.346310053130341</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
         <v>1.836009670914067</v>
       </c>
-      <c r="D33" t="n">
-        <v>1.346310053130341</v>
-      </c>
-      <c r="E33" t="n">
-        <v>22.96934284445093</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0.007232515461184555</v>
-      </c>
-      <c r="G33" t="n">
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0.007232515461184539</v>
+      </c>
+      <c r="V33" t="n">
         <v>1807.075101769982</v>
       </c>
-      <c r="H33" t="n">
+      <c r="W33" t="n">
         <v>148.3855837262215</v>
       </c>
-      <c r="I33" t="n">
-        <v>-4.104196058986291</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1.893721657192219</v>
-      </c>
-      <c r="K33" t="n">
+      <c r="X33" t="n">
+        <v>-4.104196058986292</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>1.89372165719222</v>
+      </c>
+      <c r="Z33" t="n">
         <v>0.08458864201437863</v>
       </c>
-      <c r="L33" t="n">
-        <v>8.976601894533289</v>
-      </c>
-      <c r="M33" t="n">
+      <c r="AA33" t="n">
+        <v>8.976601894533291</v>
+      </c>
+      <c r="AB33" t="n">
         <v>1.458855759405878</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>59.44757449331301</v>
+        <v>24.40915250803127</v>
       </c>
       <c r="B34" t="n">
         <v>11.68287684138104</v>
       </c>
       <c r="C34" t="n">
+        <v>59.44757449331301</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.967267730406504</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
         <v>2.493128426868182</v>
       </c>
-      <c r="D34" t="n">
-        <v>1.967267730406504</v>
-      </c>
-      <c r="E34" t="n">
-        <v>24.40915250803127</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0.008605828672474735</v>
-      </c>
-      <c r="G34" t="n">
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0.008605828672474754</v>
+      </c>
+      <c r="V34" t="n">
         <v>1817.487709649119</v>
       </c>
-      <c r="H34" t="n">
+      <c r="W34" t="n">
         <v>156.3584478113895</v>
       </c>
-      <c r="I34" t="n">
-        <v>-4.536849753213491</v>
-      </c>
-      <c r="J34" t="n">
+      <c r="X34" t="n">
+        <v>-4.536849753213489</v>
+      </c>
+      <c r="Y34" t="n">
         <v>2.128933800335837</v>
       </c>
-      <c r="K34" t="n">
+      <c r="Z34" t="n">
         <v>0.08877970234386724</v>
       </c>
-      <c r="L34" t="n">
-        <v>8.856019026166466</v>
-      </c>
-      <c r="M34" t="n">
-        <v>1.51954926352038</v>
+      <c r="AA34" t="n">
+        <v>8.856019026166464</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>1.519549263520379</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>54.71950275831595</v>
+        <v>26.0811880993595</v>
       </c>
       <c r="B35" t="n">
         <v>12.82909461563154</v>
       </c>
       <c r="C35" t="n">
+        <v>54.71950275831595</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>2.890844974398167</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
         <v>3.479369552294848</v>
       </c>
-      <c r="D35" t="n">
-        <v>2.890844974398167</v>
-      </c>
-      <c r="E35" t="n">
-        <v>26.0811880993595</v>
-      </c>
-      <c r="F35" t="n">
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
         <v>0.01027318847935016</v>
       </c>
-      <c r="G35" t="n">
+      <c r="V35" t="n">
         <v>1829.296006250463</v>
       </c>
-      <c r="H35" t="n">
+      <c r="W35" t="n">
         <v>164.0063235286174</v>
       </c>
-      <c r="I35" t="n">
-        <v>-5.018933291525661</v>
-      </c>
-      <c r="J35" t="n">
+      <c r="X35" t="n">
+        <v>-5.018933291525662</v>
+      </c>
+      <c r="Y35" t="n">
         <v>2.407808995713729</v>
       </c>
-      <c r="K35" t="n">
-        <v>0.09282595544178016</v>
-      </c>
-      <c r="L35" t="n">
+      <c r="Z35" t="n">
+        <v>0.09282595544178017</v>
+      </c>
+      <c r="AA35" t="n">
         <v>8.715119611231668</v>
       </c>
-      <c r="M35" t="n">
+      <c r="AB35" t="n">
         <v>1.577594998629744</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>50.26300520655828</v>
+        <v>26.87614780904968</v>
       </c>
       <c r="B36" t="n">
         <v>13.98389582130604</v>
       </c>
       <c r="C36" t="n">
+        <v>50.26300520655828</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4.299361166965641</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
         <v>4.577589996120354</v>
       </c>
-      <c r="D36" t="n">
-        <v>4.299361166965641</v>
-      </c>
-      <c r="E36" t="n">
-        <v>26.87614780904968</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0.01230405370336201</v>
-      </c>
-      <c r="G36" t="n">
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0.012304053703362</v>
+      </c>
+      <c r="V36" t="n">
         <v>1842.784974665828</v>
       </c>
-      <c r="H36" t="n">
+      <c r="W36" t="n">
         <v>172.3796481356425</v>
       </c>
-      <c r="I36" t="n">
-        <v>-5.638283745874879</v>
-      </c>
-      <c r="J36" t="n">
-        <v>2.742104947225995</v>
-      </c>
-      <c r="K36" t="n">
+      <c r="X36" t="n">
+        <v>-5.638283745874877</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>2.742104947225994</v>
+      </c>
+      <c r="Z36" t="n">
         <v>0.09737182311067256</v>
       </c>
-      <c r="L36" t="n">
-        <v>8.565031665175553</v>
-      </c>
-      <c r="M36" t="n">
+      <c r="AA36" t="n">
+        <v>8.565031665175551</v>
+      </c>
+      <c r="AB36" t="n">
         <v>1.642908185162571</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>45.95401605145616</v>
+        <v>27.16629873490772</v>
       </c>
       <c r="B37" t="n">
         <v>14.12400345615574</v>
       </c>
       <c r="C37" t="n">
+        <v>45.95401605145616</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>6.394207957975715</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
         <v>6.361473799504655</v>
       </c>
-      <c r="D37" t="n">
-        <v>6.394207957975715</v>
-      </c>
-      <c r="E37" t="n">
-        <v>27.16629873490772</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0.0146924480854489</v>
-      </c>
-      <c r="G37" t="n">
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0.01469244808544889</v>
+      </c>
+      <c r="V37" t="n">
         <v>1854.561268107208</v>
       </c>
-      <c r="H37" t="n">
+      <c r="W37" t="n">
         <v>178.5666106502817</v>
       </c>
-      <c r="I37" t="n">
-        <v>-6.359945988637913</v>
-      </c>
-      <c r="J37" t="n">
-        <v>3.13729551107906</v>
-      </c>
-      <c r="K37" t="n">
+      <c r="X37" t="n">
+        <v>-6.359945988637914</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>3.137295511079061</v>
+      </c>
+      <c r="Z37" t="n">
         <v>0.1011228801640802</v>
       </c>
-      <c r="L37" t="n">
+      <c r="AA37" t="n">
         <v>8.424918856387032</v>
       </c>
-      <c r="M37" t="n">
+      <c r="AB37" t="n">
         <v>1.701199642985428</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>40.35557986617545</v>
+        <v>27.25598473560972</v>
       </c>
       <c r="B38" t="n">
         <v>14.63372456545034</v>
       </c>
       <c r="C38" t="n">
+        <v>40.35557986617545</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>9.346219422510915</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
         <v>8.408491410253575</v>
       </c>
-      <c r="D38" t="n">
-        <v>9.346219422510915</v>
-      </c>
-      <c r="E38" t="n">
-        <v>27.25598473560972</v>
-      </c>
-      <c r="F38" t="n">
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
         <v>0.01729539590075853</v>
       </c>
-      <c r="G38" t="n">
+      <c r="V38" t="n">
         <v>1872.067925524716</v>
       </c>
-      <c r="H38" t="n">
-        <v>186.5540617936105</v>
-      </c>
-      <c r="I38" t="n">
+      <c r="W38" t="n">
+        <v>186.5540617936104</v>
+      </c>
+      <c r="X38" t="n">
         <v>-7.246248283020125</v>
       </c>
-      <c r="J38" t="n">
+      <c r="Y38" t="n">
         <v>3.551442337604172</v>
       </c>
-      <c r="K38" t="n">
+      <c r="Z38" t="n">
         <v>0.1057665398151225</v>
       </c>
-      <c r="L38" t="n">
-        <v>8.226857706546525</v>
-      </c>
-      <c r="M38" t="n">
+      <c r="AA38" t="n">
+        <v>8.226857706546527</v>
+      </c>
+      <c r="AB38" t="n">
         <v>1.76865331408857</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>36.0083723955829</v>
+        <v>26.04628332899345</v>
       </c>
       <c r="B39" t="n">
         <v>13.61795025241505</v>
       </c>
       <c r="C39" t="n">
+        <v>36.0083723955829</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>14.07280166252771</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
         <v>10.25459236048089</v>
       </c>
-      <c r="D39" t="n">
-        <v>14.07280166252771</v>
-      </c>
-      <c r="E39" t="n">
-        <v>26.04628332899345</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0.0204034169116834</v>
-      </c>
-      <c r="G39" t="n">
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0.02040341691168338</v>
+      </c>
+      <c r="V39" t="n">
         <v>1889.682944261102</v>
       </c>
-      <c r="H39" t="n">
+      <c r="W39" t="n">
         <v>193.8519895500959</v>
       </c>
-      <c r="I39" t="n">
-        <v>-8.535413313873867</v>
-      </c>
-      <c r="J39" t="n">
+      <c r="X39" t="n">
+        <v>-8.535413313873866</v>
+      </c>
+      <c r="Y39" t="n">
         <v>4.057449977785367</v>
       </c>
-      <c r="K39" t="n">
+      <c r="Z39" t="n">
         <v>0.1107897469695056</v>
       </c>
-      <c r="L39" t="n">
-        <v>8.02703564043118</v>
-      </c>
-      <c r="M39" t="n">
+      <c r="AA39" t="n">
+        <v>8.027035640431178</v>
+      </c>
+      <c r="AB39" t="n">
         <v>1.854103709551148</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>31.11999433631694</v>
+        <v>23.96978635149335</v>
       </c>
       <c r="B40" t="n">
         <v>13.40941150587545</v>
       </c>
       <c r="C40" t="n">
+        <v>31.11999433631694</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>19.38461120783668</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
         <v>12.11619659847759</v>
       </c>
-      <c r="D40" t="n">
-        <v>19.38461120783668</v>
-      </c>
-      <c r="E40" t="n">
-        <v>23.96978635149335</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0.02287408820223039</v>
-      </c>
-      <c r="G40" t="n">
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0.0228740882022304</v>
+      </c>
+      <c r="V40" t="n">
         <v>1912.95414360032</v>
       </c>
-      <c r="H40" t="n">
+      <c r="W40" t="n">
         <v>201.2742052269745</v>
       </c>
-      <c r="I40" t="n">
-        <v>-9.703376507882048</v>
-      </c>
-      <c r="J40" t="n">
-        <v>4.432880616201108</v>
-      </c>
-      <c r="K40" t="n">
+      <c r="X40" t="n">
+        <v>-9.70337650788205</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>4.432880616201109</v>
+      </c>
+      <c r="Z40" t="n">
         <v>0.1155367071833451</v>
       </c>
-      <c r="L40" t="n">
-        <v>7.78300971526346</v>
-      </c>
-      <c r="M40" t="n">
-        <v>1.927149426239511</v>
+      <c r="AA40" t="n">
+        <v>7.783009715263461</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>1.92714942623951</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>65.5039258201722</v>
+        <v>25.6116837653232</v>
       </c>
       <c r="B41" t="n">
         <v>6.891003169588367</v>
       </c>
       <c r="C41" t="n">
+        <v>65.5039258201722</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.8732193156344137</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
         <v>1.120167929281824</v>
       </c>
-      <c r="D41" t="n">
-        <v>0.8732193156344137</v>
-      </c>
-      <c r="E41" t="n">
-        <v>25.6116837653232</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0.005985722554952928</v>
-      </c>
-      <c r="G41" t="n">
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0.005985722554952947</v>
+      </c>
+      <c r="V41" t="n">
         <v>1789.105901200297</v>
       </c>
-      <c r="H41" t="n">
+      <c r="W41" t="n">
         <v>125.1504573882852</v>
       </c>
-      <c r="I41" t="n">
+      <c r="X41" t="n">
         <v>-3.352284094386424</v>
       </c>
-      <c r="J41" t="n">
+      <c r="Y41" t="n">
         <v>1.599777915149974</v>
       </c>
-      <c r="K41" t="n">
+      <c r="Z41" t="n">
         <v>0.073180109810408</v>
       </c>
-      <c r="L41" t="n">
+      <c r="AA41" t="n">
         <v>9.10971344775762</v>
       </c>
-      <c r="M41" t="n">
+      <c r="AB41" t="n">
         <v>1.316324609641298</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>60.64305460692668</v>
+        <v>28.41067839248494</v>
       </c>
       <c r="B42" t="n">
         <v>8.044857591939921</v>
       </c>
       <c r="C42" t="n">
+        <v>60.64305460692668</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1.27353852194787</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
         <v>1.627870886700589</v>
       </c>
-      <c r="D42" t="n">
-        <v>1.27353852194787</v>
-      </c>
-      <c r="E42" t="n">
-        <v>28.41067839248494</v>
-      </c>
-      <c r="F42" t="n">
-        <v>0.007110329218215433</v>
-      </c>
-      <c r="G42" t="n">
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0.007110329218215425</v>
+      </c>
+      <c r="V42" t="n">
         <v>1799.250473681775</v>
       </c>
-      <c r="H42" t="n">
+      <c r="W42" t="n">
         <v>134.0924614145673</v>
       </c>
-      <c r="I42" t="n">
-        <v>-3.727425762119624</v>
-      </c>
-      <c r="J42" t="n">
+      <c r="X42" t="n">
+        <v>-3.727425762119625</v>
+      </c>
+      <c r="Y42" t="n">
         <v>1.79411551312567</v>
       </c>
-      <c r="K42" t="n">
+      <c r="Z42" t="n">
         <v>0.07770798014440843</v>
       </c>
-      <c r="L42" t="n">
-        <v>8.977317779911282</v>
-      </c>
-      <c r="M42" t="n">
-        <v>1.380448262440933</v>
+      <c r="AA42" t="n">
+        <v>8.977317779911283</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>1.380448262440932</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>56.45497452822937</v>
+        <v>30.68040031937237</v>
       </c>
       <c r="B43" t="n">
         <v>8.898314990229773</v>
       </c>
       <c r="C43" t="n">
+        <v>56.45497452822937</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1.949218890633843</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
         <v>2.017091271534639</v>
       </c>
-      <c r="D43" t="n">
-        <v>1.949218890633843</v>
-      </c>
-      <c r="E43" t="n">
-        <v>30.68040031937237</v>
-      </c>
-      <c r="F43" t="n">
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
         <v>0.00863808033441326</v>
       </c>
-      <c r="G43" t="n">
+      <c r="V43" t="n">
         <v>1808.76384067771</v>
       </c>
-      <c r="H43" t="n">
+      <c r="W43" t="n">
         <v>141.7838651296247</v>
       </c>
-      <c r="I43" t="n">
-        <v>-4.138784153391219</v>
-      </c>
-      <c r="J43" t="n">
+      <c r="X43" t="n">
+        <v>-4.138784153391218</v>
+      </c>
+      <c r="Y43" t="n">
         <v>2.041999223562375</v>
       </c>
-      <c r="K43" t="n">
+      <c r="Z43" t="n">
         <v>0.08171077151635865</v>
       </c>
-      <c r="L43" t="n">
+      <c r="AA43" t="n">
         <v>8.855275619814973</v>
       </c>
-      <c r="M43" t="n">
+      <c r="AB43" t="n">
         <v>1.437625352181259</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>52.0813212558916</v>
+        <v>32.34762367758118</v>
       </c>
       <c r="B44" t="n">
         <v>9.978366632442803</v>
       </c>
       <c r="C44" t="n">
+        <v>52.0813212558916</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>2.843106837929702</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
         <v>2.749581596154719</v>
       </c>
-      <c r="D44" t="n">
-        <v>2.843106837929702</v>
-      </c>
-      <c r="E44" t="n">
-        <v>32.34762367758118</v>
-      </c>
-      <c r="F44" t="n">
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
         <v>0.01027236935138879</v>
       </c>
-      <c r="G44" t="n">
-        <v>1820.039738440431</v>
-      </c>
-      <c r="H44" t="n">
+      <c r="V44" t="n">
+        <v>1820.039738440432</v>
+      </c>
+      <c r="W44" t="n">
         <v>150.5424983548378</v>
       </c>
-      <c r="I44" t="n">
-        <v>-4.604448383643676</v>
-      </c>
-      <c r="J44" t="n">
+      <c r="X44" t="n">
+        <v>-4.604448383643675</v>
+      </c>
+      <c r="Y44" t="n">
         <v>2.307721894239452</v>
       </c>
-      <c r="K44" t="n">
+      <c r="Z44" t="n">
         <v>0.08618063524205122</v>
       </c>
-      <c r="L44" t="n">
+      <c r="AA44" t="n">
         <v>8.721260727460336</v>
       </c>
-      <c r="M44" t="n">
+      <c r="AB44" t="n">
         <v>1.497675826014134</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>48.0364962515561</v>
+        <v>33.26712421235609</v>
       </c>
       <c r="B45" t="n">
         <v>10.66178261003462</v>
       </c>
       <c r="C45" t="n">
+        <v>48.0364962515561</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4.232243536462632</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
         <v>3.802353389590545</v>
       </c>
-      <c r="D45" t="n">
-        <v>4.232243536462632</v>
-      </c>
-      <c r="E45" t="n">
-        <v>33.26712421235609</v>
-      </c>
-      <c r="F45" t="n">
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0</v>
+      </c>
+      <c r="U45" t="n">
         <v>0.01231428695863964</v>
       </c>
-      <c r="G45" t="n">
+      <c r="V45" t="n">
         <v>1831.299239219373</v>
       </c>
-      <c r="H45" t="n">
+      <c r="W45" t="n">
         <v>158.6078760156398</v>
       </c>
-      <c r="I45" t="n">
-        <v>-5.180514748106643</v>
-      </c>
-      <c r="J45" t="n">
+      <c r="X45" t="n">
+        <v>-5.180514748106642</v>
+      </c>
+      <c r="Y45" t="n">
         <v>2.633986523217033</v>
       </c>
-      <c r="K45" t="n">
+      <c r="Z45" t="n">
         <v>0.09053128741869934</v>
       </c>
-      <c r="L45" t="n">
+      <c r="AA45" t="n">
         <v>8.589800428198293</v>
       </c>
-      <c r="M45" t="n">
+      <c r="AB45" t="n">
         <v>1.558533015770604</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>43.85245562775339</v>
+        <v>33.39925272231932</v>
       </c>
       <c r="B46" t="n">
         <v>11.35006727185082</v>
       </c>
       <c r="C46" t="n">
+        <v>43.85245562775339</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>6.545349612862421</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
         <v>4.85287476521403</v>
       </c>
-      <c r="D46" t="n">
-        <v>6.545349612862421</v>
-      </c>
-      <c r="E46" t="n">
-        <v>33.39925272231932</v>
-      </c>
-      <c r="F46" t="n">
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
         <v>0.01495916889405634</v>
       </c>
-      <c r="G46" t="n">
+      <c r="V46" t="n">
         <v>1846.388177677795</v>
       </c>
-      <c r="H46" t="n">
+      <c r="W46" t="n">
         <v>168.8383196541722</v>
       </c>
-      <c r="I46" t="n">
+      <c r="X46" t="n">
         <v>-6.044121021597624</v>
       </c>
-      <c r="J46" t="n">
+      <c r="Y46" t="n">
         <v>3.049405535777334</v>
       </c>
-      <c r="K46" t="n">
+      <c r="Z46" t="n">
         <v>0.09624216603254504</v>
       </c>
-      <c r="L46" t="n">
-        <v>8.425291436723281</v>
-      </c>
-      <c r="M46" t="n">
+      <c r="AA46" t="n">
+        <v>8.425291436723283</v>
+      </c>
+      <c r="AB46" t="n">
         <v>1.641249905139774</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>39.84170193873135</v>
+        <v>32.83385481517335</v>
       </c>
       <c r="B47" t="n">
         <v>11.48725055530047</v>
       </c>
       <c r="C47" t="n">
+        <v>39.84170193873135</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>9.348298941709157</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0</v>
+      </c>
+      <c r="P47" t="n">
         <v>6.488893749085666</v>
       </c>
-      <c r="D47" t="n">
-        <v>9.348298941709157</v>
-      </c>
-      <c r="E47" t="n">
-        <v>32.83385481517335</v>
-      </c>
-      <c r="F47" t="n">
-        <v>0.01743629115340806</v>
-      </c>
-      <c r="G47" t="n">
+      <c r="Q47" t="n">
+        <v>0</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0</v>
+      </c>
+      <c r="T47" t="n">
+        <v>0</v>
+      </c>
+      <c r="U47" t="n">
+        <v>0.01743629115340805</v>
+      </c>
+      <c r="V47" t="n">
         <v>1860.800965761505</v>
       </c>
-      <c r="H47" t="n">
+      <c r="W47" t="n">
         <v>177.2088662756244</v>
       </c>
-      <c r="I47" t="n">
-        <v>-6.935138924654914</v>
-      </c>
-      <c r="J47" t="n">
-        <v>3.443682539669017</v>
-      </c>
-      <c r="K47" t="n">
+      <c r="X47" t="n">
+        <v>-6.935138924654915</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>3.443682539669018</v>
+      </c>
+      <c r="Z47" t="n">
         <v>0.1011569661869414</v>
       </c>
-      <c r="L47" t="n">
+      <c r="AA47" t="n">
         <v>8.266860634374265</v>
       </c>
-      <c r="M47" t="n">
+      <c r="AB47" t="n">
         <v>1.714113191631074</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>34.92232354679246</v>
+        <v>31.22587875804939</v>
       </c>
       <c r="B48" t="n">
         <v>11.3685841516441</v>
       </c>
       <c r="C48" t="n">
+        <v>34.92232354679246</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>14.42462712929108</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0</v>
+      </c>
+      <c r="P48" t="n">
         <v>8.058586414222969</v>
       </c>
-      <c r="D48" t="n">
-        <v>14.42462712929108</v>
-      </c>
-      <c r="E48" t="n">
-        <v>31.22587875804939</v>
-      </c>
-      <c r="F48" t="n">
-        <v>0.02075494273154534</v>
-      </c>
-      <c r="G48" t="n">
+      <c r="Q48" t="n">
+        <v>0</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0</v>
+      </c>
+      <c r="T48" t="n">
+        <v>0</v>
+      </c>
+      <c r="U48" t="n">
+        <v>0.02075494273154538</v>
+      </c>
+      <c r="V48" t="n">
         <v>1883.934472518733</v>
       </c>
-      <c r="H48" t="n">
+      <c r="W48" t="n">
         <v>188.6070784106394</v>
       </c>
-      <c r="I48" t="n">
+      <c r="X48" t="n">
         <v>-8.340592916218087</v>
       </c>
-      <c r="J48" t="n">
+      <c r="Y48" t="n">
         <v>3.955150496361188</v>
       </c>
-      <c r="K48" t="n">
+      <c r="Z48" t="n">
         <v>0.1080532242687294</v>
       </c>
-      <c r="L48" t="n">
-        <v>8.0223019966172</v>
-      </c>
-      <c r="M48" t="n">
+      <c r="AA48" t="n">
+        <v>8.022301996617198</v>
+      </c>
+      <c r="AB48" t="n">
         <v>1.820110306355468</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>31.12242471676077</v>
+        <v>28.00050845971687</v>
       </c>
       <c r="B49" t="n">
         <v>11.25353181117791</v>
       </c>
       <c r="C49" t="n">
+        <v>31.12242471676077</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>20.12114404994593</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0</v>
+      </c>
+      <c r="P49" t="n">
         <v>9.502390962398529</v>
       </c>
-      <c r="D49" t="n">
-        <v>20.12114404994593</v>
-      </c>
-      <c r="E49" t="n">
-        <v>28.00050845971687</v>
-      </c>
-      <c r="F49" t="n">
+      <c r="Q49" t="n">
+        <v>0</v>
+      </c>
+      <c r="R49" t="n">
+        <v>0</v>
+      </c>
+      <c r="S49" t="n">
+        <v>0</v>
+      </c>
+      <c r="T49" t="n">
+        <v>0</v>
+      </c>
+      <c r="U49" t="n">
         <v>0.02333668515548367</v>
       </c>
-      <c r="G49" t="n">
+      <c r="V49" t="n">
         <v>1908.461926194631</v>
       </c>
-      <c r="H49" t="n">
+      <c r="W49" t="n">
         <v>198.2863400414355</v>
       </c>
-      <c r="I49" t="n">
-        <v>-9.685545383428856</v>
-      </c>
-      <c r="J49" t="n">
-        <v>4.367806736618213</v>
-      </c>
-      <c r="K49" t="n">
+      <c r="X49" t="n">
+        <v>-9.685545383428858</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>4.367806736618214</v>
+      </c>
+      <c r="Z49" t="n">
         <v>0.1140930570564763</v>
       </c>
-      <c r="L49" t="n">
-        <v>7.780497813745045</v>
-      </c>
-      <c r="M49" t="n">
+      <c r="AA49" t="n">
+        <v>7.780497813745046</v>
+      </c>
+      <c r="AB49" t="n">
         <v>1.914868691477184</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>59.73922474830303</v>
+        <v>32.75859992753161</v>
       </c>
       <c r="B50" t="n">
         <v>5.573665496030907</v>
       </c>
       <c r="C50" t="n">
+        <v>59.73922474830303</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.8893515950869282</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0</v>
+      </c>
+      <c r="P50" t="n">
         <v>1.039158233047526</v>
       </c>
-      <c r="D50" t="n">
-        <v>0.8893515950869282</v>
-      </c>
-      <c r="E50" t="n">
-        <v>32.75859992753161</v>
-      </c>
-      <c r="F50" t="n">
+      <c r="Q50" t="n">
+        <v>0</v>
+      </c>
+      <c r="R50" t="n">
+        <v>0</v>
+      </c>
+      <c r="S50" t="n">
+        <v>0</v>
+      </c>
+      <c r="T50" t="n">
+        <v>0</v>
+      </c>
+      <c r="U50" t="n">
         <v>0.006095786288845258</v>
       </c>
-      <c r="G50" t="n">
+      <c r="V50" t="n">
         <v>1788.564284731499</v>
       </c>
-      <c r="H50" t="n">
+      <c r="W50" t="n">
         <v>115.1903414599131</v>
       </c>
-      <c r="I50" t="n">
+      <c r="X50" t="n">
         <v>-3.196618219872452</v>
       </c>
-      <c r="J50" t="n">
+      <c r="Y50" t="n">
         <v>1.520305149933684</v>
       </c>
-      <c r="K50" t="n">
+      <c r="Z50" t="n">
         <v>0.06873545438315187</v>
       </c>
-      <c r="L50" t="n">
+      <c r="AA50" t="n">
         <v>9.022792524285752</v>
       </c>
-      <c r="M50" t="n">
+      <c r="AB50" t="n">
         <v>1.276817161411238</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>55.41123198552285</v>
+        <v>35.60454595063857</v>
       </c>
       <c r="B51" t="n">
         <v>6.384230536662519</v>
       </c>
       <c r="C51" t="n">
+        <v>55.41123198552285</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1.258086825061164</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0</v>
+      </c>
+      <c r="P51" t="n">
         <v>1.341904702114899</v>
       </c>
-      <c r="D51" t="n">
-        <v>1.258086825061164</v>
-      </c>
-      <c r="E51" t="n">
-        <v>35.60454595063857</v>
-      </c>
-      <c r="F51" t="n">
-        <v>0.007128359451633699</v>
-      </c>
-      <c r="G51" t="n">
-        <v>1796.818681683574</v>
-      </c>
-      <c r="H51" t="n">
+      <c r="Q51" t="n">
+        <v>0</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0</v>
+      </c>
+      <c r="T51" t="n">
+        <v>0</v>
+      </c>
+      <c r="U51" t="n">
+        <v>0.007128359451633718</v>
+      </c>
+      <c r="V51" t="n">
+        <v>1796.818681683573</v>
+      </c>
+      <c r="W51" t="n">
         <v>122.5933166383642</v>
       </c>
-      <c r="I51" t="n">
-        <v>-3.47076670610138</v>
-      </c>
-      <c r="J51" t="n">
-        <v>1.689347065641761</v>
-      </c>
-      <c r="K51" t="n">
+      <c r="X51" t="n">
+        <v>-3.470766706101379</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>1.68934706564176</v>
+      </c>
+      <c r="Z51" t="n">
         <v>0.0723061979511995</v>
       </c>
-      <c r="L51" t="n">
-        <v>8.908322494404786</v>
-      </c>
-      <c r="M51" t="n">
+      <c r="AA51" t="n">
+        <v>8.908322494404782</v>
+      </c>
+      <c r="AB51" t="n">
         <v>1.323155177163384</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>51.41799930683538</v>
+        <v>38.13811789539464</v>
       </c>
       <c r="B52" t="n">
         <v>6.901093732753926</v>
       </c>
       <c r="C52" t="n">
+        <v>51.41799930683538</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1.752883934036925</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0</v>
+      </c>
+      <c r="P52" t="n">
         <v>1.78990513097912</v>
       </c>
-      <c r="D52" t="n">
-        <v>1.752883934036925</v>
-      </c>
-      <c r="E52" t="n">
-        <v>38.13811789539464</v>
-      </c>
-      <c r="F52" t="n">
+      <c r="Q52" t="n">
+        <v>0</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0</v>
+      </c>
+      <c r="S52" t="n">
+        <v>0</v>
+      </c>
+      <c r="T52" t="n">
+        <v>0</v>
+      </c>
+      <c r="U52" t="n">
         <v>0.008294079547027725</v>
       </c>
-      <c r="G52" t="n">
+      <c r="V52" t="n">
         <v>1804.029908247308</v>
       </c>
-      <c r="H52" t="n">
+      <c r="W52" t="n">
         <v>128.1360299999582</v>
       </c>
-      <c r="I52" t="n">
+      <c r="X52" t="n">
         <v>-3.719434506810907</v>
       </c>
-      <c r="J52" t="n">
+      <c r="Y52" t="n">
         <v>1.86547272251768</v>
       </c>
-      <c r="K52" t="n">
+      <c r="Z52" t="n">
         <v>0.07501018829817835</v>
       </c>
-      <c r="L52" t="n">
-        <v>8.804901937406054</v>
-      </c>
-      <c r="M52" t="n">
+      <c r="AA52" t="n">
+        <v>8.804901937406056</v>
+      </c>
+      <c r="AB52" t="n">
         <v>1.357568245523672</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>48.26557354651341</v>
+        <v>39.1380055059179</v>
       </c>
       <c r="B53" t="n">
         <v>7.636039101874935</v>
       </c>
       <c r="C53" t="n">
+        <v>48.26557354651341</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>2.646214637996664</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0</v>
+      </c>
+      <c r="P53" t="n">
         <v>2.314167207697084</v>
       </c>
-      <c r="D53" t="n">
-        <v>2.646214637996664</v>
-      </c>
-      <c r="E53" t="n">
-        <v>39.1380055059179</v>
-      </c>
-      <c r="F53" t="n">
+      <c r="Q53" t="n">
+        <v>0</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0</v>
+      </c>
+      <c r="S53" t="n">
+        <v>0</v>
+      </c>
+      <c r="T53" t="n">
+        <v>0</v>
+      </c>
+      <c r="U53" t="n">
         <v>0.01000720715854496</v>
       </c>
-      <c r="G53" t="n">
+      <c r="V53" t="n">
         <v>1813.027975527215</v>
       </c>
-      <c r="H53" t="n">
+      <c r="W53" t="n">
         <v>136.7064244342563</v>
       </c>
-      <c r="I53" t="n">
+      <c r="X53" t="n">
         <v>-4.151003253594608</v>
       </c>
-      <c r="J53" t="n">
+      <c r="Y53" t="n">
         <v>2.141067640128211</v>
       </c>
-      <c r="K53" t="n">
-        <v>0.07934200511986529</v>
-      </c>
-      <c r="L53" t="n">
-        <v>8.700864600145552</v>
-      </c>
-      <c r="M53" t="n">
+      <c r="Z53" t="n">
+        <v>0.07934200511986528</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>8.700864600145554</v>
+      </c>
+      <c r="AB53" t="n">
         <v>1.413398103016241</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>44.39734559290023</v>
+        <v>40.17007780104868</v>
       </c>
       <c r="B54" t="n">
         <v>8.270604400236421</v>
       </c>
       <c r="C54" t="n">
+        <v>44.39734559290023</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4.141460551104069</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0</v>
+      </c>
+      <c r="P54" t="n">
         <v>3.020511654710611</v>
       </c>
-      <c r="D54" t="n">
-        <v>4.141460551104069</v>
-      </c>
-      <c r="E54" t="n">
-        <v>40.17007780104868</v>
-      </c>
-      <c r="F54" t="n">
+      <c r="Q54" t="n">
+        <v>0</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0</v>
+      </c>
+      <c r="S54" t="n">
+        <v>0</v>
+      </c>
+      <c r="T54" t="n">
+        <v>0</v>
+      </c>
+      <c r="U54" t="n">
         <v>0.01227551845386234</v>
       </c>
-      <c r="G54" t="n">
+      <c r="V54" t="n">
         <v>1824.550618061278</v>
       </c>
-      <c r="H54" t="n">
+      <c r="W54" t="n">
         <v>146.4191650147858</v>
       </c>
-      <c r="I54" t="n">
-        <v>-4.757179788436317</v>
-      </c>
-      <c r="J54" t="n">
+      <c r="X54" t="n">
+        <v>-4.757179788436318</v>
+      </c>
+      <c r="Y54" t="n">
         <v>2.485238178044922</v>
       </c>
-      <c r="K54" t="n">
+      <c r="Z54" t="n">
         <v>0.08442431196365888</v>
       </c>
-      <c r="L54" t="n">
+      <c r="AA54" t="n">
         <v>8.567005346020188</v>
       </c>
-      <c r="M54" t="n">
+      <c r="AB54" t="n">
         <v>1.481049154564836</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>40.91661268027966</v>
+        <v>40.31777520333784</v>
       </c>
       <c r="B55" t="n">
         <v>8.64227767036617</v>
       </c>
       <c r="C55" t="n">
+        <v>40.91661268027966</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>6.171777873210093</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0</v>
+      </c>
+      <c r="P55" t="n">
         <v>3.951556572806229</v>
       </c>
-      <c r="D55" t="n">
-        <v>6.171777873210093</v>
-      </c>
-      <c r="E55" t="n">
-        <v>40.31777520333784</v>
-      </c>
-      <c r="F55" t="n">
+      <c r="Q55" t="n">
+        <v>0</v>
+      </c>
+      <c r="R55" t="n">
+        <v>0</v>
+      </c>
+      <c r="S55" t="n">
+        <v>0</v>
+      </c>
+      <c r="T55" t="n">
+        <v>0</v>
+      </c>
+      <c r="U55" t="n">
         <v>0.01468111055202743</v>
       </c>
-      <c r="G55" t="n">
+      <c r="V55" t="n">
         <v>1836.743187122582</v>
       </c>
-      <c r="H55" t="n">
+      <c r="W55" t="n">
         <v>155.9787304874811</v>
       </c>
-      <c r="I55" t="n">
-        <v>-5.490348049078732</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2.84593573590252</v>
-      </c>
-      <c r="K55" t="n">
+      <c r="X55" t="n">
+        <v>-5.49034804907873</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>2.845935735902519</v>
+      </c>
+      <c r="Z55" t="n">
         <v>0.08965051680342165</v>
       </c>
-      <c r="L55" t="n">
+      <c r="AA55" t="n">
         <v>8.431592381459648</v>
       </c>
-      <c r="M55" t="n">
+      <c r="AB55" t="n">
         <v>1.553559684143321</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>37.8452547701464</v>
+        <v>38.89328689858721</v>
       </c>
       <c r="B56" t="n">
         <v>9.076333403675443</v>
       </c>
       <c r="C56" t="n">
+        <v>37.8452547701464</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="n">
+        <v>9.345930521434173</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0</v>
+      </c>
+      <c r="P56" t="n">
         <v>4.839194406156778</v>
       </c>
-      <c r="D56" t="n">
-        <v>9.345930521434173</v>
-      </c>
-      <c r="E56" t="n">
-        <v>38.89328689858721</v>
-      </c>
-      <c r="F56" t="n">
-        <v>0.01755786066840239</v>
-      </c>
-      <c r="G56" t="n">
+      <c r="Q56" t="n">
+        <v>0</v>
+      </c>
+      <c r="R56" t="n">
+        <v>0</v>
+      </c>
+      <c r="S56" t="n">
+        <v>0</v>
+      </c>
+      <c r="T56" t="n">
+        <v>0</v>
+      </c>
+      <c r="U56" t="n">
+        <v>0.01755786066840242</v>
+      </c>
+      <c r="V56" t="n">
         <v>1853.44487441358</v>
       </c>
-      <c r="H56" t="n">
+      <c r="W56" t="n">
         <v>168.4388771926217</v>
       </c>
-      <c r="I56" t="n">
-        <v>-6.580870574065615</v>
-      </c>
-      <c r="J56" t="n">
+      <c r="X56" t="n">
+        <v>-6.580870574065616</v>
+      </c>
+      <c r="Y56" t="n">
         <v>3.290003139873237</v>
       </c>
-      <c r="K56" t="n">
-        <v>0.09668168763662012</v>
-      </c>
-      <c r="L56" t="n">
-        <v>8.265080646042305</v>
-      </c>
-      <c r="M56" t="n">
+      <c r="Z56" t="n">
+        <v>0.09668168763662011</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>8.265080646042307</v>
+      </c>
+      <c r="AB56" t="n">
         <v>1.656063968330844</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>34.0855927676545</v>
+        <v>36.03490394546852</v>
       </c>
       <c r="B57" t="n">
         <v>9.599410586395605</v>
       </c>
       <c r="C57" t="n">
+        <v>34.0855927676545</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>13.87879910761875</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0</v>
+      </c>
+      <c r="P57" t="n">
         <v>6.401293592862622</v>
       </c>
-      <c r="D57" t="n">
-        <v>13.87879910761875</v>
-      </c>
-      <c r="E57" t="n">
-        <v>36.03490394546852</v>
-      </c>
-      <c r="F57" t="n">
+      <c r="Q57" t="n">
+        <v>0</v>
+      </c>
+      <c r="R57" t="n">
+        <v>0</v>
+      </c>
+      <c r="S57" t="n">
+        <v>0</v>
+      </c>
+      <c r="T57" t="n">
+        <v>0</v>
+      </c>
+      <c r="U57" t="n">
         <v>0.02057324753993761</v>
       </c>
-      <c r="G57" t="n">
+      <c r="V57" t="n">
         <v>1876.078506741097</v>
       </c>
-      <c r="H57" t="n">
+      <c r="W57" t="n">
         <v>182.160898661698</v>
       </c>
-      <c r="I57" t="n">
-        <v>-7.928390226228704</v>
-      </c>
-      <c r="J57" t="n">
-        <v>3.77223975743439</v>
-      </c>
-      <c r="K57" t="n">
+      <c r="X57" t="n">
+        <v>-7.928390226228701</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>3.772239757434389</v>
+      </c>
+      <c r="Z57" t="n">
         <v>0.104529959423726</v>
       </c>
-      <c r="L57" t="n">
+      <c r="AA57" t="n">
         <v>8.046627103903885</v>
       </c>
-      <c r="M57" t="n">
+      <c r="AB57" t="n">
         <v>1.770783550118297</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>30.17438283411464</v>
+        <v>33.0417017672229</v>
       </c>
       <c r="B58" t="n">
         <v>9.210570393729387</v>
       </c>
       <c r="C58" t="n">
+        <v>30.17438283411464</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="n">
+        <v>19.9404856197561</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0</v>
+      </c>
+      <c r="P58" t="n">
         <v>7.632859385176974</v>
       </c>
-      <c r="D58" t="n">
-        <v>19.9404856197561</v>
-      </c>
-      <c r="E58" t="n">
-        <v>33.0417017672229</v>
-      </c>
-      <c r="F58" t="n">
+      <c r="Q58" t="n">
+        <v>0</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0</v>
+      </c>
+      <c r="S58" t="n">
+        <v>0</v>
+      </c>
+      <c r="T58" t="n">
+        <v>0</v>
+      </c>
+      <c r="U58" t="n">
         <v>0.02343822468082491</v>
       </c>
-      <c r="G58" t="n">
+      <c r="V58" t="n">
         <v>1901.216516047982</v>
       </c>
-      <c r="H58" t="n">
+      <c r="W58" t="n">
         <v>193.2800712147922</v>
       </c>
-      <c r="I58" t="n">
+      <c r="X58" t="n">
         <v>-9.356054516221842</v>
       </c>
-      <c r="J58" t="n">
+      <c r="Y58" t="n">
         <v>4.19591724725608</v>
       </c>
-      <c r="K58" t="n">
+      <c r="Z58" t="n">
         <v>0.111290116753855</v>
       </c>
-      <c r="L58" t="n">
+      <c r="AA58" t="n">
         <v>7.794409896784925</v>
       </c>
-      <c r="M58" t="n">
+      <c r="AB58" t="n">
         <v>1.874919214437808</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>48.80542061907139</v>
+        <v>43.98768298598323</v>
       </c>
       <c r="B59" t="n">
         <v>4.861815003956776</v>
       </c>
       <c r="C59" t="n">
+        <v>48.80542061907139</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1.197504012874014</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0</v>
+      </c>
+      <c r="P59" t="n">
         <v>1.147577378114605</v>
       </c>
-      <c r="D59" t="n">
-        <v>1.197504012874014</v>
-      </c>
-      <c r="E59" t="n">
-        <v>43.98768298598323</v>
-      </c>
-      <c r="F59" t="n">
+      <c r="Q59" t="n">
+        <v>0</v>
+      </c>
+      <c r="R59" t="n">
+        <v>0</v>
+      </c>
+      <c r="S59" t="n">
+        <v>0</v>
+      </c>
+      <c r="T59" t="n">
+        <v>0</v>
+      </c>
+      <c r="U59" t="n">
         <v>0.007020681420399731</v>
       </c>
-      <c r="G59" t="n">
+      <c r="V59" t="n">
         <v>1795.845093220265</v>
       </c>
-      <c r="H59" t="n">
+      <c r="W59" t="n">
         <v>110.2634744151601</v>
       </c>
-      <c r="I59" t="n">
+      <c r="X59" t="n">
         <v>-3.169877969441686</v>
       </c>
-      <c r="J59" t="n">
+      <c r="Y59" t="n">
         <v>1.533346063754177</v>
       </c>
-      <c r="K59" t="n">
+      <c r="Z59" t="n">
         <v>0.06648338701479102</v>
       </c>
-      <c r="L59" t="n">
+      <c r="AA59" t="n">
         <v>8.811654728110417</v>
       </c>
-      <c r="M59" t="n">
+      <c r="AB59" t="n">
         <v>1.257111884835559</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>45.86244388137209</v>
+        <v>45.7006317110727</v>
       </c>
       <c r="B60" t="n">
         <v>5.261669557711915</v>
       </c>
       <c r="C60" t="n">
+        <v>45.86244388137209</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" t="n">
+        <v>1.775096118004433</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0</v>
+      </c>
+      <c r="P60" t="n">
         <v>1.400158731838864</v>
       </c>
-      <c r="D60" t="n">
-        <v>1.775096118004433</v>
-      </c>
-      <c r="E60" t="n">
-        <v>45.7006317110727</v>
-      </c>
-      <c r="F60" t="n">
-        <v>0.008384986032816937</v>
-      </c>
-      <c r="G60" t="n">
-        <v>1802.148573118087</v>
-      </c>
-      <c r="H60" t="n">
+      <c r="Q60" t="n">
+        <v>0</v>
+      </c>
+      <c r="R60" t="n">
+        <v>0</v>
+      </c>
+      <c r="S60" t="n">
+        <v>0</v>
+      </c>
+      <c r="T60" t="n">
+        <v>0</v>
+      </c>
+      <c r="U60" t="n">
+        <v>0.008384986032816942</v>
+      </c>
+      <c r="V60" t="n">
+        <v>1802.148573118088</v>
+      </c>
+      <c r="W60" t="n">
         <v>116.5216306197396</v>
       </c>
-      <c r="I60" t="n">
+      <c r="X60" t="n">
         <v>-3.427202865796386</v>
       </c>
-      <c r="J60" t="n">
+      <c r="Y60" t="n">
         <v>1.740534888920838</v>
       </c>
-      <c r="K60" t="n">
+      <c r="Z60" t="n">
         <v>0.06946583971910668</v>
       </c>
-      <c r="L60" t="n">
+      <c r="AA60" t="n">
         <v>8.727249723932941</v>
       </c>
-      <c r="M60" t="n">
+      <c r="AB60" t="n">
         <v>1.291995277657361</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>42.95387824215434</v>
+        <v>46.67965674781412</v>
       </c>
       <c r="B61" t="n">
         <v>5.9600395804174</v>
       </c>
       <c r="C61" t="n">
+        <v>42.95387824215434</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="n">
+        <v>2.650078640641265</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0</v>
+      </c>
+      <c r="P61" t="n">
         <v>1.756346788972866</v>
       </c>
-      <c r="D61" t="n">
-        <v>2.650078640641265</v>
-      </c>
-      <c r="E61" t="n">
-        <v>46.67965674781412</v>
-      </c>
-      <c r="F61" t="n">
+      <c r="Q61" t="n">
+        <v>0</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0</v>
+      </c>
+      <c r="S61" t="n">
+        <v>0</v>
+      </c>
+      <c r="T61" t="n">
+        <v>0</v>
+      </c>
+      <c r="U61" t="n">
         <v>0.01006730639377948</v>
       </c>
-      <c r="G61" t="n">
+      <c r="V61" t="n">
         <v>1810.787089402293</v>
       </c>
-      <c r="H61" t="n">
+      <c r="W61" t="n">
         <v>125.7638995629434</v>
       </c>
-      <c r="I61" t="n">
-        <v>-3.815018955229055</v>
-      </c>
-      <c r="J61" t="n">
+      <c r="X61" t="n">
+        <v>-3.815018955229054</v>
+      </c>
+      <c r="Y61" t="n">
         <v>1.99785389706251</v>
       </c>
-      <c r="K61" t="n">
+      <c r="Z61" t="n">
         <v>0.07390825546166216</v>
       </c>
-      <c r="L61" t="n">
+      <c r="AA61" t="n">
         <v>8.628153340593789</v>
       </c>
-      <c r="M61" t="n">
+      <c r="AB61" t="n">
         <v>1.344226957979696</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>39.99189540478646</v>
+        <v>47.53914448671719</v>
       </c>
       <c r="B62" t="n">
         <v>6.459960652427106</v>
       </c>
       <c r="C62" t="n">
+        <v>39.99189540478646</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" t="n">
+        <v>3.714419367589803</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0</v>
+      </c>
+      <c r="O62" t="n">
+        <v>0</v>
+      </c>
+      <c r="P62" t="n">
         <v>2.294580088479436</v>
       </c>
-      <c r="D62" t="n">
-        <v>3.714419367589803</v>
-      </c>
-      <c r="E62" t="n">
-        <v>47.53914448671719</v>
-      </c>
-      <c r="F62" t="n">
-        <v>0.01174873452414175</v>
-      </c>
-      <c r="G62" t="n">
+      <c r="Q62" t="n">
+        <v>0</v>
+      </c>
+      <c r="R62" t="n">
+        <v>0</v>
+      </c>
+      <c r="S62" t="n">
+        <v>0</v>
+      </c>
+      <c r="T62" t="n">
+        <v>0</v>
+      </c>
+      <c r="U62" t="n">
+        <v>0.01174873452414173</v>
+      </c>
+      <c r="V62" t="n">
         <v>1819.333862307396</v>
       </c>
-      <c r="H62" t="n">
+      <c r="W62" t="n">
         <v>133.768939192973</v>
       </c>
-      <c r="I62" t="n">
-        <v>-4.216226695607755</v>
-      </c>
-      <c r="J62" t="n">
+      <c r="X62" t="n">
+        <v>-4.216226695607757</v>
+      </c>
+      <c r="Y62" t="n">
         <v>2.236641780729235</v>
       </c>
-      <c r="K62" t="n">
-        <v>0.07785768910493722</v>
-      </c>
-      <c r="L62" t="n">
-        <v>8.528321940023904</v>
-      </c>
-      <c r="M62" t="n">
+      <c r="Z62" t="n">
+        <v>0.07785768910493723</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>8.528321940023906</v>
+      </c>
+      <c r="AB62" t="n">
         <v>1.39133283844068</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>37.18219308233689</v>
+        <v>47.07121651777462</v>
       </c>
       <c r="B63" t="n">
         <v>6.707840058122374</v>
       </c>
       <c r="C63" t="n">
+        <v>37.18219308233689</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5.911898848075174</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0</v>
+      </c>
+      <c r="O63" t="n">
+        <v>0</v>
+      </c>
+      <c r="P63" t="n">
         <v>3.126851493690946</v>
       </c>
-      <c r="D63" t="n">
-        <v>5.911898848075174</v>
-      </c>
-      <c r="E63" t="n">
-        <v>47.07121651777462</v>
-      </c>
-      <c r="F63" t="n">
+      <c r="Q63" t="n">
+        <v>0</v>
+      </c>
+      <c r="R63" t="n">
+        <v>0</v>
+      </c>
+      <c r="S63" t="n">
+        <v>0</v>
+      </c>
+      <c r="T63" t="n">
+        <v>0</v>
+      </c>
+      <c r="U63" t="n">
         <v>0.0144858494561258</v>
       </c>
-      <c r="G63" t="n">
-        <v>1831.237971787175</v>
-      </c>
-      <c r="H63" t="n">
+      <c r="V63" t="n">
+        <v>1831.237971787176</v>
+      </c>
+      <c r="W63" t="n">
         <v>145.1006768504383</v>
       </c>
-      <c r="I63" t="n">
+      <c r="X63" t="n">
         <v>-5.011414499462786</v>
       </c>
-      <c r="J63" t="n">
+      <c r="Y63" t="n">
         <v>2.637752997236562</v>
       </c>
-      <c r="K63" t="n">
+      <c r="Z63" t="n">
         <v>0.08399553639921081</v>
       </c>
-      <c r="L63" t="n">
+      <c r="AA63" t="n">
         <v>8.402305735263715</v>
       </c>
-      <c r="M63" t="n">
+      <c r="AB63" t="n">
         <v>1.47494070944119</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>34.1968373589592</v>
+        <v>45.67156598130153</v>
       </c>
       <c r="B64" t="n">
         <v>7.420825315198804</v>
       </c>
       <c r="C64" t="n">
+        <v>34.1968373589592</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" t="n">
+        <v>8.668102187239116</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0</v>
+      </c>
+      <c r="O64" t="n">
+        <v>0</v>
+      </c>
+      <c r="P64" t="n">
         <v>4.042669157301349</v>
       </c>
-      <c r="D64" t="n">
-        <v>8.668102187239116</v>
-      </c>
-      <c r="E64" t="n">
-        <v>45.67156598130153</v>
-      </c>
-      <c r="F64" t="n">
+      <c r="Q64" t="n">
+        <v>0</v>
+      </c>
+      <c r="R64" t="n">
+        <v>0</v>
+      </c>
+      <c r="S64" t="n">
+        <v>0</v>
+      </c>
+      <c r="T64" t="n">
+        <v>0</v>
+      </c>
+      <c r="U64" t="n">
         <v>0.0171057748099153</v>
       </c>
-      <c r="G64" t="n">
-        <v>1847.282242523308</v>
-      </c>
-      <c r="H64" t="n">
+      <c r="V64" t="n">
+        <v>1847.282242523307</v>
+      </c>
+      <c r="W64" t="n">
         <v>158.5146067313444</v>
       </c>
-      <c r="I64" t="n">
-        <v>-5.942931048174592</v>
-      </c>
-      <c r="J64" t="n">
-        <v>3.015554825671704</v>
-      </c>
-      <c r="K64" t="n">
+      <c r="X64" t="n">
+        <v>-5.942931048174591</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>3.015554825671705</v>
+      </c>
+      <c r="Z64" t="n">
         <v>0.09111327542057475</v>
       </c>
-      <c r="L64" t="n">
+      <c r="AA64" t="n">
         <v>8.245782027590725</v>
       </c>
-      <c r="M64" t="n">
+      <c r="AB64" t="n">
         <v>1.57026622705338</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>31.85374036730268</v>
+        <v>42.51104340916319</v>
       </c>
       <c r="B65" t="n">
         <v>7.292241982690449</v>
       </c>
       <c r="C65" t="n">
+        <v>31.85374036730268</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" t="n">
+        <v>13.13901354135515</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" t="n">
+        <v>0</v>
+      </c>
+      <c r="P65" t="n">
         <v>5.203960699488528</v>
       </c>
-      <c r="D65" t="n">
-        <v>13.13901354135515</v>
-      </c>
-      <c r="E65" t="n">
-        <v>42.51104340916319</v>
-      </c>
-      <c r="F65" t="n">
-        <v>0.02028029107249053</v>
-      </c>
-      <c r="G65" t="n">
-        <v>1866.213199387028</v>
-      </c>
-      <c r="H65" t="n">
+      <c r="Q65" t="n">
+        <v>0</v>
+      </c>
+      <c r="R65" t="n">
+        <v>0</v>
+      </c>
+      <c r="S65" t="n">
+        <v>0</v>
+      </c>
+      <c r="T65" t="n">
+        <v>0</v>
+      </c>
+      <c r="U65" t="n">
+        <v>0.02028029107249054</v>
+      </c>
+      <c r="V65" t="n">
+        <v>1866.213199387029</v>
+      </c>
+      <c r="W65" t="n">
         <v>172.428688213657</v>
       </c>
-      <c r="I65" t="n">
-        <v>-7.321867963348669</v>
-      </c>
-      <c r="J65" t="n">
-        <v>3.505362499811747</v>
-      </c>
-      <c r="K65" t="n">
+      <c r="X65" t="n">
+        <v>-7.32186796334867</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>3.505362499811748</v>
+      </c>
+      <c r="Z65" t="n">
         <v>0.09925616978069154</v>
       </c>
-      <c r="L65" t="n">
+      <c r="AA65" t="n">
         <v>8.066734709252797</v>
       </c>
-      <c r="M65" t="n">
+      <c r="AB65" t="n">
         <v>1.693277583234823</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>38.51361416459901</v>
+        <v>54.37577254606605</v>
       </c>
       <c r="B66" t="n">
         <v>4.163980532700686</v>
       </c>
       <c r="C66" t="n">
+        <v>38.51361416459901</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" t="n">
+        <v>1.626418744769528</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" t="n">
+        <v>0</v>
+      </c>
+      <c r="P66" t="n">
         <v>1.320214011864745</v>
       </c>
-      <c r="D66" t="n">
-        <v>1.626418744769528</v>
-      </c>
-      <c r="E66" t="n">
-        <v>54.37577254606605</v>
-      </c>
-      <c r="F66" t="n">
+      <c r="Q66" t="n">
+        <v>0</v>
+      </c>
+      <c r="R66" t="n">
+        <v>0</v>
+      </c>
+      <c r="S66" t="n">
+        <v>0</v>
+      </c>
+      <c r="T66" t="n">
+        <v>0</v>
+      </c>
+      <c r="U66" t="n">
         <v>0.008094941929136089</v>
       </c>
-      <c r="G66" t="n">
-        <v>1803.065062095972</v>
-      </c>
-      <c r="H66" t="n">
+      <c r="V66" t="n">
+        <v>1803.065062095973</v>
+      </c>
+      <c r="W66" t="n">
         <v>105.865055616446</v>
       </c>
-      <c r="I66" t="n">
-        <v>-3.035920942155326</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1.534616405860435</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0.06391158313549024</v>
-      </c>
-      <c r="L66" t="n">
+      <c r="X66" t="n">
+        <v>-3.035920942155328</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>1.534616405860436</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>0.06391158313549025</v>
+      </c>
+      <c r="AA66" t="n">
         <v>8.611481637450535</v>
       </c>
-      <c r="M66" t="n">
+      <c r="AB66" t="n">
         <v>1.212817224831085</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>36.40809164276832</v>
+        <v>55.07062752917076</v>
       </c>
       <c r="B67" t="n">
         <v>4.548597416346031</v>
       </c>
       <c r="C67" t="n">
+        <v>36.40809164276832</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" t="n">
+        <v>2.493750665872093</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0</v>
+      </c>
+      <c r="O67" t="n">
+        <v>0</v>
+      </c>
+      <c r="P67" t="n">
         <v>1.478932745842804</v>
       </c>
-      <c r="D67" t="n">
-        <v>2.493750665872093</v>
-      </c>
-      <c r="E67" t="n">
-        <v>55.07062752917076</v>
-      </c>
-      <c r="F67" t="n">
-        <v>0.009835056787021467</v>
-      </c>
-      <c r="G67" t="n">
+      <c r="Q67" t="n">
+        <v>0</v>
+      </c>
+      <c r="R67" t="n">
+        <v>0</v>
+      </c>
+      <c r="S67" t="n">
+        <v>0</v>
+      </c>
+      <c r="T67" t="n">
+        <v>0</v>
+      </c>
+      <c r="U67" t="n">
+        <v>0.009835056787021469</v>
+      </c>
+      <c r="V67" t="n">
         <v>1809.826507441956</v>
       </c>
-      <c r="H67" t="n">
+      <c r="W67" t="n">
         <v>114.0652537013903</v>
       </c>
-      <c r="I67" t="n">
+      <c r="X67" t="n">
         <v>-3.369887366306302</v>
       </c>
-      <c r="J67" t="n">
+      <c r="Y67" t="n">
         <v>1.783872531566455</v>
       </c>
-      <c r="K67" t="n">
+      <c r="Z67" t="n">
         <v>0.06781306660551203</v>
       </c>
-      <c r="L67" t="n">
+      <c r="AA67" t="n">
         <v>8.533890670384872</v>
       </c>
-      <c r="M67" t="n">
+      <c r="AB67" t="n">
         <v>1.256868418005553</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>34.63480630646283</v>
+        <v>54.82432856758766</v>
       </c>
       <c r="B68" t="n">
         <v>4.911082626026415</v>
       </c>
       <c r="C68" t="n">
+        <v>34.63480630646283</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0</v>
+      </c>
+      <c r="M68" t="n">
+        <v>3.655998540179822</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" t="n">
+        <v>0</v>
+      </c>
+      <c r="P68" t="n">
         <v>1.973783959743264</v>
       </c>
-      <c r="D68" t="n">
-        <v>3.655998540179822</v>
-      </c>
-      <c r="E68" t="n">
-        <v>54.82432856758766</v>
-      </c>
-      <c r="F68" t="n">
+      <c r="Q68" t="n">
+        <v>0</v>
+      </c>
+      <c r="R68" t="n">
+        <v>0</v>
+      </c>
+      <c r="S68" t="n">
+        <v>0</v>
+      </c>
+      <c r="T68" t="n">
+        <v>0</v>
+      </c>
+      <c r="U68" t="n">
         <v>0.01171591481623785</v>
       </c>
-      <c r="G68" t="n">
+      <c r="V68" t="n">
         <v>1817.28357425396</v>
       </c>
-      <c r="H68" t="n">
+      <c r="W68" t="n">
         <v>123.1094484623871</v>
       </c>
-      <c r="I68" t="n">
-        <v>-3.810612724260528</v>
-      </c>
-      <c r="J68" t="n">
+      <c r="X68" t="n">
+        <v>-3.81061272426053</v>
+      </c>
+      <c r="Y68" t="n">
         <v>2.055573873248151</v>
       </c>
-      <c r="K68" t="n">
+      <c r="Z68" t="n">
         <v>0.07233037751903099</v>
       </c>
-      <c r="L68" t="n">
+      <c r="AA68" t="n">
         <v>8.456941706699954</v>
       </c>
-      <c r="M68" t="n">
+      <c r="AB68" t="n">
         <v>1.311634526868541</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>32.54375236898584</v>
+        <v>54.18769809434324</v>
       </c>
       <c r="B69" t="n">
         <v>5.396440362725046</v>
       </c>
       <c r="C69" t="n">
+        <v>32.54375236898584</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5.431837183713921</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0</v>
+      </c>
+      <c r="O69" t="n">
+        <v>0</v>
+      </c>
+      <c r="P69" t="n">
         <v>2.440271990231944</v>
       </c>
-      <c r="D69" t="n">
-        <v>5.431837183713921</v>
-      </c>
-      <c r="E69" t="n">
-        <v>54.18769809434324</v>
-      </c>
-      <c r="F69" t="n">
-        <v>0.01401347287902443</v>
-      </c>
-      <c r="G69" t="n">
+      <c r="Q69" t="n">
+        <v>0</v>
+      </c>
+      <c r="R69" t="n">
+        <v>0</v>
+      </c>
+      <c r="S69" t="n">
+        <v>0</v>
+      </c>
+      <c r="T69" t="n">
+        <v>0</v>
+      </c>
+      <c r="U69" t="n">
+        <v>0.01401347287902438</v>
+      </c>
+      <c r="V69" t="n">
         <v>1827.976410804391</v>
       </c>
-      <c r="H69" t="n">
+      <c r="W69" t="n">
         <v>134.7759155198548</v>
       </c>
-      <c r="I69" t="n">
-        <v>-4.447296024796837</v>
-      </c>
-      <c r="J69" t="n">
-        <v>2.370016088240882</v>
-      </c>
-      <c r="K69" t="n">
+      <c r="X69" t="n">
+        <v>-4.447296024796836</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>2.370016088240881</v>
+      </c>
+      <c r="Z69" t="n">
         <v>0.07827521299886665</v>
       </c>
-      <c r="L69" t="n">
-        <v>8.350610399426497</v>
-      </c>
-      <c r="M69" t="n">
+      <c r="AA69" t="n">
+        <v>8.350610399426499</v>
+      </c>
+      <c r="AB69" t="n">
         <v>1.386573576065322</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>31.58485426038688</v>
+        <v>51.347187815424</v>
       </c>
       <c r="B70" t="n">
         <v>5.827792524021215</v>
       </c>
       <c r="C70" t="n">
+        <v>31.58485426038688</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" t="n">
+        <v>8.142295094829825</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0</v>
+      </c>
+      <c r="O70" t="n">
+        <v>0</v>
+      </c>
+      <c r="P70" t="n">
         <v>3.097870305338082</v>
       </c>
-      <c r="D70" t="n">
-        <v>8.142295094829825</v>
-      </c>
-      <c r="E70" t="n">
-        <v>51.347187815424</v>
-      </c>
-      <c r="F70" t="n">
-        <v>0.01673090512309465</v>
-      </c>
-      <c r="G70" t="n">
-        <v>1841.240482974365</v>
-      </c>
-      <c r="H70" t="n">
+      <c r="Q70" t="n">
+        <v>0</v>
+      </c>
+      <c r="R70" t="n">
+        <v>0</v>
+      </c>
+      <c r="S70" t="n">
+        <v>0</v>
+      </c>
+      <c r="T70" t="n">
+        <v>0</v>
+      </c>
+      <c r="U70" t="n">
+        <v>0.01673090512309462</v>
+      </c>
+      <c r="V70" t="n">
+        <v>1841.240482974366</v>
+      </c>
+      <c r="W70" t="n">
         <v>148.9821337428867</v>
       </c>
-      <c r="I70" t="n">
-        <v>-5.437576013614736</v>
-      </c>
-      <c r="J70" t="n">
-        <v>2.78229407838722</v>
-      </c>
-      <c r="K70" t="n">
-        <v>0.08603840074667476</v>
-      </c>
-      <c r="L70" t="n">
-        <v>8.238582347543923</v>
-      </c>
-      <c r="M70" t="n">
+      <c r="X70" t="n">
+        <v>-5.43757601361474</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>2.782294078387221</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>0.08603840074667479</v>
+      </c>
+      <c r="AA70" t="n">
+        <v>8.238582347543927</v>
+      </c>
+      <c r="AB70" t="n">
         <v>1.496411259435297</v>
       </c>
     </row>

--- a/01_Dataset_Cleaned/MultiTaskModel_NiCrCoVFe_KW99_wt_pct_processed.xlsx
+++ b/01_Dataset_Cleaned/MultiTaskModel_NiCrCoVFe_KW99_wt_pct_processed.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB70"/>
+  <dimension ref="A1:AK70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,166 +436,211 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Fe</t>
+          <t>Index</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Ni</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Ni</t>
+          <t>Co</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Fe</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>microstructure_FCC</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Mo</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Nb</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Si</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Mn</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Cu</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Al</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Ta</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Ti</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Co</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Mg</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Zr</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Hf</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>microstructure_BCC</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>microstructure_other</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>delta_a</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Tm</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>sigma_Tm</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Hmix</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>sigma_Hmix</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>ideal_S</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>elec_nega</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>sigma_elec_nega</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>VEC</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>sigma_VEC</t>
         </is>
       </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>bulk_modulus</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>sigma_bulk_modulus</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>51.98555612171399</v>
+      </c>
+      <c r="C2" t="n">
+        <v>31.29049408631733</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.851446254970497</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.601017748048015</v>
+      </c>
+      <c r="F2" t="n">
         <v>10.27148578895017</v>
       </c>
-      <c r="B2" t="n">
-        <v>31.29049408631733</v>
-      </c>
-      <c r="C2" t="n">
-        <v>51.98555612171399</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -613,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.601017748048015</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -622,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>4.851446254970497</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -637,51 +682,78 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>1.247959070019651</v>
+      </c>
+      <c r="Z2" t="n">
         <v>0.007567560866934837</v>
       </c>
-      <c r="V2" t="n">
+      <c r="AA2" t="n">
         <v>1898.775788633536</v>
       </c>
-      <c r="W2" t="n">
+      <c r="AB2" t="n">
         <v>210.08295698605</v>
       </c>
-      <c r="X2" t="n">
+      <c r="AC2" t="n">
         <v>-6.271298853023574</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="AD2" t="n">
         <v>2.111357319910797</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="AE2" t="n">
+        <v>1.16144713884791</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>1.811169618281065</v>
+      </c>
+      <c r="AG2" t="n">
         <v>0.1156826189583638</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AH2" t="n">
         <v>8.311398201392562</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AI2" t="n">
         <v>1.854883648133144</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>171875584492.886</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>9.283271601110226</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>47.58971794791144</v>
+      </c>
+      <c r="C3" t="n">
+        <v>32.94577234077189</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.634907242416435</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2.334196184849361</v>
+      </c>
+      <c r="F3" t="n">
         <v>10.49540628405087</v>
       </c>
-      <c r="B3" t="n">
-        <v>32.94577234077189</v>
-      </c>
-      <c r="C3" t="n">
-        <v>47.58971794791144</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -699,7 +771,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>2.334196184849361</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -708,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>6.634907242416435</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -723,51 +795,78 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>1.248642154084849</v>
+      </c>
+      <c r="Z3" t="n">
         <v>0.008981693372021508</v>
       </c>
-      <c r="V3" t="n">
+      <c r="AA3" t="n">
         <v>1910.795152973678</v>
       </c>
-      <c r="W3" t="n">
+      <c r="AB3" t="n">
         <v>212.1178454432332</v>
       </c>
-      <c r="X3" t="n">
+      <c r="AC3" t="n">
         <v>-6.468448355120914</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="AD3" t="n">
         <v>2.332729780166001</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="AE3" t="n">
+        <v>1.23068215020564</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>1.804098223473393</v>
+      </c>
+      <c r="AG3" t="n">
         <v>0.1167603319357038</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AH3" t="n">
         <v>8.184012913062192</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AI3" t="n">
         <v>1.86699756583838</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>171362340615.556</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>9.362121143894344</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>43.56230343162476</v>
+      </c>
+      <c r="C4" t="n">
+        <v>32.81214789008236</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9.234028458733178</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3.278592219785826</v>
+      </c>
+      <c r="F4" t="n">
         <v>11.11292799977388</v>
       </c>
-      <c r="B4" t="n">
-        <v>32.81214789008236</v>
-      </c>
-      <c r="C4" t="n">
-        <v>43.56230343162476</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -785,7 +884,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>3.278592219785826</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -794,7 +893,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>9.234028458733178</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -809,51 +908,78 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>1.249449931532419</v>
+      </c>
+      <c r="Z4" t="n">
         <v>0.01049891504989097</v>
       </c>
-      <c r="V4" t="n">
+      <c r="AA4" t="n">
         <v>1916.090626733144</v>
       </c>
-      <c r="W4" t="n">
+      <c r="AB4" t="n">
         <v>211.7767346850572</v>
       </c>
-      <c r="X4" t="n">
+      <c r="AC4" t="n">
         <v>-6.589870748179617</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="AD4" t="n">
         <v>2.581555258790369</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="AE4" t="n">
+        <v>1.308998560539242</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>1.800479130239174</v>
+      </c>
+      <c r="AG4" t="n">
         <v>0.1166235588699299</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AH4" t="n">
         <v>8.103673917714687</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AI4" t="n">
         <v>1.860835719820994</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>171134680994.3825</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>9.36033455292384</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>39.22125295817604</v>
+      </c>
+      <c r="C5" t="n">
+        <v>32.22397566351926</v>
+      </c>
+      <c r="D5" t="n">
+        <v>12.59780165650682</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4.621174438767964</v>
+      </c>
+      <c r="F5" t="n">
         <v>11.33579528302992</v>
       </c>
-      <c r="B5" t="n">
-        <v>32.22397566351926</v>
-      </c>
-      <c r="C5" t="n">
-        <v>39.22125295817604</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -871,7 +997,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>4.621174438767964</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -880,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>12.59780165650682</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -895,51 +1021,78 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>1.250602255981958</v>
+      </c>
+      <c r="Z5" t="n">
         <v>0.01226566696882826</v>
       </c>
-      <c r="V5" t="n">
+      <c r="AA5" t="n">
         <v>1921.152628589558</v>
       </c>
-      <c r="W5" t="n">
+      <c r="AB5" t="n">
         <v>211.2849915172502</v>
       </c>
-      <c r="X5" t="n">
+      <c r="AC5" t="n">
         <v>-6.791480312375179</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="AD5" t="n">
         <v>2.858632230826806</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="AE5" t="n">
+        <v>1.385670837671999</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>1.796943750382024</v>
+      </c>
+      <c r="AG5" t="n">
         <v>0.1165478370541643</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AH5" t="n">
         <v>8.021515930217278</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AI5" t="n">
         <v>1.855466976740344</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>170955498840.3819</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>9.369172840484115</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>34.88574415625551</v>
+      </c>
+      <c r="C6" t="n">
+        <v>30.53157810614559</v>
+      </c>
+      <c r="D6" t="n">
+        <v>16.72038857511217</v>
+      </c>
+      <c r="E6" t="n">
+        <v>6.330070586728944</v>
+      </c>
+      <c r="F6" t="n">
         <v>11.53221857575777</v>
       </c>
-      <c r="B6" t="n">
-        <v>30.53157810614559</v>
-      </c>
-      <c r="C6" t="n">
-        <v>34.88574415625551</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -957,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>6.330070586728944</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -966,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>16.72038857511217</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -981,51 +1134,78 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>1.252038733277358</v>
+      </c>
+      <c r="Z6" t="n">
         <v>0.01411476619079386</v>
       </c>
-      <c r="V6" t="n">
+      <c r="AA6" t="n">
         <v>1923.115521791667</v>
       </c>
-      <c r="W6" t="n">
+      <c r="AB6" t="n">
         <v>209.9806668056275</v>
       </c>
-      <c r="X6" t="n">
+      <c r="AC6" t="n">
         <v>-7.047384736419096</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="AD6" t="n">
         <v>3.152087504220492</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="AE6" t="n">
+        <v>1.456467899937655</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>1.794957295220654</v>
+      </c>
+      <c r="AG6" t="n">
         <v>0.1161926678246368</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AH6" t="n">
         <v>7.958413700411956</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AI6" t="n">
         <v>1.846723059137253</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>170927835447.7218</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>9.361701035338234</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>61.37440160498019</v>
+      </c>
+      <c r="C7" t="n">
+        <v>22.86895992276621</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.758549106266543</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.259725905661516</v>
+      </c>
+      <c r="F7" t="n">
         <v>11.73836346032553</v>
       </c>
-      <c r="B7" t="n">
-        <v>22.86895992276621</v>
-      </c>
-      <c r="C7" t="n">
-        <v>61.37440160498019</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1043,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1.259725905661516</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -1052,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.758549106266543</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1067,51 +1247,78 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>1.247263854360029</v>
+      </c>
+      <c r="Z7" t="n">
         <v>0.006842825225855346</v>
       </c>
-      <c r="V7" t="n">
+      <c r="AA7" t="n">
         <v>1857.789691124599</v>
       </c>
-      <c r="W7" t="n">
+      <c r="AB7" t="n">
         <v>194.3177838840969</v>
       </c>
-      <c r="X7" t="n">
+      <c r="AC7" t="n">
         <v>-5.614142960297702</v>
       </c>
-      <c r="Y7" t="n">
+      <c r="AD7" t="n">
         <v>1.937899557480049</v>
       </c>
-      <c r="Z7" t="n">
+      <c r="AE7" t="n">
+        <v>1.065785388729541</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>1.833553476547966</v>
+      </c>
+      <c r="AG7" t="n">
         <v>0.107669417748325</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AH7" t="n">
         <v>8.670169506141644</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AI7" t="n">
         <v>1.750890315651342</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>173553244759.3428</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>8.687948591532869</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>56.71556632861048</v>
+      </c>
+      <c r="C8" t="n">
+        <v>24.98368892830287</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4.190052116414273</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.634808196102548</v>
+      </c>
+      <c r="F8" t="n">
         <v>12.47588443056982</v>
       </c>
-      <c r="B8" t="n">
-        <v>24.98368892830287</v>
-      </c>
-      <c r="C8" t="n">
-        <v>56.71556632861048</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1129,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1.634808196102548</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -1138,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>4.190052116414273</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -1153,51 +1360,78 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>1.247650152401431</v>
+      </c>
+      <c r="Z8" t="n">
         <v>0.007710236189675343</v>
       </c>
-      <c r="V8" t="n">
+      <c r="AA8" t="n">
         <v>1870.760523351667</v>
       </c>
-      <c r="W8" t="n">
+      <c r="AB8" t="n">
         <v>199.1305171658607</v>
       </c>
-      <c r="X8" t="n">
+      <c r="AC8" t="n">
         <v>-5.867117265857988</v>
       </c>
-      <c r="Y8" t="n">
+      <c r="AD8" t="n">
         <v>2.123633445264106</v>
       </c>
-      <c r="Z8" t="n">
+      <c r="AE8" t="n">
+        <v>1.147190803921175</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>1.825916077423172</v>
+      </c>
+      <c r="AG8" t="n">
         <v>0.1101136944012719</v>
       </c>
-      <c r="AA8" t="n">
+      <c r="AH8" t="n">
         <v>8.533698013821583</v>
       </c>
-      <c r="AB8" t="n">
+      <c r="AI8" t="n">
         <v>1.783668816170993</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>172959429812.3239</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>8.868164736259724</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>52.00259710594798</v>
+      </c>
+      <c r="C9" t="n">
+        <v>26.54966770489246</v>
+      </c>
+      <c r="D9" t="n">
+        <v>5.714279441599858</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2.419855387591513</v>
+      </c>
+      <c r="F9" t="n">
         <v>13.31360035996819</v>
       </c>
-      <c r="B9" t="n">
-        <v>26.54966770489246</v>
-      </c>
-      <c r="C9" t="n">
-        <v>52.00259710594798</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1215,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>2.419855387591513</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -1224,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>5.714279441599858</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -1239,51 +1473,78 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>1.24833200831911</v>
+      </c>
+      <c r="Z9" t="n">
         <v>0.009226486237911845</v>
       </c>
-      <c r="V9" t="n">
+      <c r="AA9" t="n">
         <v>1883.143030122693</v>
       </c>
-      <c r="W9" t="n">
+      <c r="AB9" t="n">
         <v>202.7080861624065</v>
       </c>
-      <c r="X9" t="n">
+      <c r="AC9" t="n">
         <v>-6.166938979389202</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="AD9" t="n">
         <v>2.381082478348045</v>
       </c>
-      <c r="Z9" t="n">
+      <c r="AE9" t="n">
+        <v>1.230025197229785</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>1.818437585169879</v>
+      </c>
+      <c r="AG9" t="n">
         <v>0.1120245704843556</v>
       </c>
-      <c r="AA9" t="n">
+      <c r="AH9" t="n">
         <v>8.396325744972188</v>
       </c>
-      <c r="AB9" t="n">
+      <c r="AI9" t="n">
         <v>1.810259609945069</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>172387544736.0179</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>8.994573861004989</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>46.90426102417226</v>
+      </c>
+      <c r="C10" t="n">
+        <v>26.99036608992429</v>
+      </c>
+      <c r="D10" t="n">
+        <v>8.452002448961867</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3.607507573809785</v>
+      </c>
+      <c r="F10" t="n">
         <v>14.04586286313179</v>
       </c>
-      <c r="B10" t="n">
-        <v>26.99036608992429</v>
-      </c>
-      <c r="C10" t="n">
-        <v>46.90426102417226</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1301,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>3.607507573809785</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -1310,7 +1571,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>8.452002448961867</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1325,51 +1586,78 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>1.249348628746768</v>
+      </c>
+      <c r="Z10" t="n">
         <v>0.01107494595998307</v>
       </c>
-      <c r="V10" t="n">
+      <c r="AA10" t="n">
         <v>1892.497595706803</v>
       </c>
-      <c r="W10" t="n">
+      <c r="AB10" t="n">
         <v>204.2175852139688</v>
       </c>
-      <c r="X10" t="n">
+      <c r="AC10" t="n">
         <v>-6.446623242846035</v>
       </c>
-      <c r="Y10" t="n">
+      <c r="AD10" t="n">
         <v>2.695215082590741</v>
       </c>
-      <c r="Z10" t="n">
+      <c r="AE10" t="n">
+        <v>1.325885917589205</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>1.812452038400135</v>
+      </c>
+      <c r="AG10" t="n">
         <v>0.1129461844622978</v>
       </c>
-      <c r="AA10" t="n">
+      <c r="AH10" t="n">
         <v>8.275277740967283</v>
       </c>
-      <c r="AB10" t="n">
+      <c r="AI10" t="n">
         <v>1.821423299585024</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>171976824777.6247</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>9.055032804750661</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>42.00036448179262</v>
+      </c>
+      <c r="C11" t="n">
+        <v>27.06870998804106</v>
+      </c>
+      <c r="D11" t="n">
+        <v>10.8592435623326</v>
+      </c>
+      <c r="E11" t="n">
+        <v>5.28571231605495</v>
+      </c>
+      <c r="F11" t="n">
         <v>14.78596965177877</v>
       </c>
-      <c r="B11" t="n">
-        <v>27.06870998804106</v>
-      </c>
-      <c r="C11" t="n">
-        <v>42.00036448179262</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1387,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>5.28571231605495</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -1396,7 +1684,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>10.8592435623326</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -1411,51 +1699,78 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>1.250707949040909</v>
+      </c>
+      <c r="Z11" t="n">
         <v>0.01316040153308272</v>
       </c>
-      <c r="V11" t="n">
+      <c r="AA11" t="n">
         <v>1902.325520402011</v>
       </c>
-      <c r="W11" t="n">
+      <c r="AB11" t="n">
         <v>205.5594757974689</v>
       </c>
-      <c r="X11" t="n">
+      <c r="AC11" t="n">
         <v>-6.825920157494785</v>
       </c>
-      <c r="Y11" t="n">
+      <c r="AD11" t="n">
         <v>3.019598288428964</v>
       </c>
-      <c r="Z11" t="n">
+      <c r="AE11" t="n">
+        <v>1.407759936192101</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>1.806080301773217</v>
+      </c>
+      <c r="AG11" t="n">
         <v>0.1139088323443737</v>
       </c>
-      <c r="AA11" t="n">
+      <c r="AH11" t="n">
         <v>8.147005641274992</v>
       </c>
-      <c r="AB11" t="n">
+      <c r="AI11" t="n">
         <v>1.835044455810978</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>171540023173.286</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>9.101009220346745</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>37.75047907645035</v>
+      </c>
+      <c r="C12" t="n">
+        <v>25.99044553565464</v>
+      </c>
+      <c r="D12" t="n">
+        <v>14.35939719454503</v>
+      </c>
+      <c r="E12" t="n">
+        <v>7.292177963267194</v>
+      </c>
+      <c r="F12" t="n">
         <v>14.60750023008277</v>
       </c>
-      <c r="B12" t="n">
-        <v>25.99044553565464</v>
-      </c>
-      <c r="C12" t="n">
-        <v>37.75047907645035</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1473,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>7.292177963267194</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -1482,7 +1797,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>14.35939719454503</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -1497,51 +1812,78 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>1.252380570740279</v>
+      </c>
+      <c r="Z12" t="n">
         <v>0.01515838317678847</v>
       </c>
-      <c r="V12" t="n">
+      <c r="AA12" t="n">
         <v>1908.03799361034</v>
       </c>
-      <c r="W12" t="n">
+      <c r="AB12" t="n">
         <v>205.813236893549</v>
       </c>
-      <c r="X12" t="n">
+      <c r="AC12" t="n">
         <v>-7.253456385052127</v>
       </c>
-      <c r="Y12" t="n">
+      <c r="AD12" t="n">
         <v>3.349368283476078</v>
       </c>
-      <c r="Z12" t="n">
+      <c r="AE12" t="n">
+        <v>1.478137834799072</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>1.802107533445231</v>
+      </c>
+      <c r="AG12" t="n">
         <v>0.1145428712332797</v>
       </c>
-      <c r="AA12" t="n">
+      <c r="AH12" t="n">
         <v>8.056311680113808</v>
       </c>
-      <c r="AB12" t="n">
+      <c r="AI12" t="n">
         <v>1.845065614118694</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>171361160065.5832</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>9.140339995938829</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>32.8770530221699</v>
+      </c>
+      <c r="C13" t="n">
+        <v>24.36465676002593</v>
+      </c>
+      <c r="D13" t="n">
+        <v>18.30432307571014</v>
+      </c>
+      <c r="E13" t="n">
+        <v>10.51764696301523</v>
+      </c>
+      <c r="F13" t="n">
         <v>13.93632017907879</v>
       </c>
-      <c r="B13" t="n">
-        <v>24.36465676002593</v>
-      </c>
-      <c r="C13" t="n">
-        <v>32.8770530221699</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1559,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>10.51764696301523</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -1568,7 +1910,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>18.30432307571014</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -1583,51 +1925,78 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>1.25500290899419</v>
+      </c>
+      <c r="Z13" t="n">
         <v>0.01768471927353749</v>
       </c>
-      <c r="V13" t="n">
+      <c r="AA13" t="n">
         <v>1916.753430268094</v>
       </c>
-      <c r="W13" t="n">
+      <c r="AB13" t="n">
         <v>206.7304620179058</v>
       </c>
-      <c r="X13" t="n">
+      <c r="AC13" t="n">
         <v>-7.97594706331502</v>
       </c>
-      <c r="Y13" t="n">
+      <c r="AD13" t="n">
         <v>3.758173114708101</v>
       </c>
-      <c r="Z13" t="n">
+      <c r="AE13" t="n">
+        <v>1.540518340302766</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>1.796240361143014</v>
+      </c>
+      <c r="AG13" t="n">
         <v>0.1158984378599376</v>
       </c>
-      <c r="AA13" t="n">
+      <c r="AH13" t="n">
         <v>7.930006739875208</v>
       </c>
-      <c r="AB13" t="n">
+      <c r="AI13" t="n">
         <v>1.86951759811025</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>171090025896.3692</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>9.214763392995696</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>69.29549240142492</v>
+      </c>
+      <c r="C14" t="n">
+        <v>15.02832349645654</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1.672358510290382</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.7977467951202381</v>
+      </c>
+      <c r="F14" t="n">
         <v>13.2060787967079</v>
       </c>
-      <c r="B14" t="n">
-        <v>15.02832349645654</v>
-      </c>
-      <c r="C14" t="n">
-        <v>69.29549240142492</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1645,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0.7977467951202381</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -1654,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>1.672358510290382</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -1669,51 +2038,78 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>1.246527245698123</v>
+      </c>
+      <c r="Z14" t="n">
         <v>0.005606114639837781</v>
       </c>
-      <c r="V14" t="n">
+      <c r="AA14" t="n">
         <v>1818.578263959326</v>
       </c>
-      <c r="W14" t="n">
+      <c r="AB14" t="n">
         <v>168.3561060540251</v>
       </c>
-      <c r="X14" t="n">
+      <c r="AC14" t="n">
         <v>-4.477646392720541</v>
       </c>
-      <c r="Y14" t="n">
+      <c r="AD14" t="n">
         <v>1.708256677610854</v>
       </c>
-      <c r="Z14" t="n">
+      <c r="AE14" t="n">
+        <v>0.9424521453437276</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>1.854913636643924</v>
+      </c>
+      <c r="AG14" t="n">
         <v>0.09416825360061813</v>
       </c>
-      <c r="AA14" t="n">
+      <c r="AH14" t="n">
         <v>9.008251048490905</v>
       </c>
-      <c r="AB14" t="n">
+      <c r="AI14" t="n">
         <v>1.561750253790709</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>175167062391.103</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>7.732393644614645</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>64.41049102823393</v>
+      </c>
+      <c r="C15" t="n">
+        <v>17.46573593468872</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2.47707526499368</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1.20945092086888</v>
+      </c>
+      <c r="F15" t="n">
         <v>14.43724685121477</v>
       </c>
-      <c r="B15" t="n">
-        <v>17.46573593468872</v>
-      </c>
-      <c r="C15" t="n">
-        <v>64.41049102823393</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1731,7 +2127,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1.20945092086888</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -1740,7 +2136,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>2.47707526499368</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -1755,51 +2151,78 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>1.246903029592192</v>
+      </c>
+      <c r="Z15" t="n">
         <v>0.006775170565409099</v>
       </c>
-      <c r="V15" t="n">
+      <c r="AA15" t="n">
         <v>1833.694548174602</v>
       </c>
-      <c r="W15" t="n">
+      <c r="AB15" t="n">
         <v>178.1069290323834</v>
       </c>
-      <c r="X15" t="n">
+      <c r="AC15" t="n">
         <v>-4.977123927951482</v>
       </c>
-      <c r="Y15" t="n">
+      <c r="AD15" t="n">
         <v>1.914281381179299</v>
       </c>
-      <c r="Z15" t="n">
+      <c r="AE15" t="n">
+        <v>1.039704352570093</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>1.84595480555118</v>
+      </c>
+      <c r="AG15" t="n">
         <v>0.09932146237195352</v>
       </c>
-      <c r="AA15" t="n">
+      <c r="AH15" t="n">
         <v>8.84991430272982</v>
       </c>
-      <c r="AB15" t="n">
+      <c r="AI15" t="n">
         <v>1.638625076837699</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>174436682277.9358</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>8.099820437157872</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>59.47972292144197</v>
+      </c>
+      <c r="C16" t="n">
+        <v>19.46141471946138</v>
+      </c>
+      <c r="D16" t="n">
+        <v>3.547976256045292</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1.735788529393408</v>
+      </c>
+      <c r="F16" t="n">
         <v>15.77509757365795</v>
       </c>
-      <c r="B16" t="n">
-        <v>19.46141471946138</v>
-      </c>
-      <c r="C16" t="n">
-        <v>59.47972292144197</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1817,7 +2240,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>1.735788529393408</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -1826,7 +2249,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>3.547976256045292</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -1841,51 +2264,78 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>1.247358297331388</v>
+      </c>
+      <c r="Z16" t="n">
         <v>0.007998684130288678</v>
       </c>
-      <c r="V16" t="n">
+      <c r="AA16" t="n">
         <v>1847.320697703437</v>
       </c>
-      <c r="W16" t="n">
+      <c r="AB16" t="n">
         <v>185.0846877967935</v>
       </c>
-      <c r="X16" t="n">
+      <c r="AC16" t="n">
         <v>-5.375273100435933</v>
       </c>
-      <c r="Y16" t="n">
+      <c r="AD16" t="n">
         <v>2.139010897796586</v>
       </c>
-      <c r="Z16" t="n">
+      <c r="AE16" t="n">
+        <v>1.132175045230079</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>1.837729887530382</v>
+      </c>
+      <c r="AG16" t="n">
         <v>0.1029770967576714</v>
       </c>
-      <c r="AA16" t="n">
+      <c r="AH16" t="n">
         <v>8.700625057938989</v>
       </c>
-      <c r="AB16" t="n">
+      <c r="AI16" t="n">
         <v>1.692022026540553</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>173770283534.0762</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>8.353168409117655</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>53.96503504675589</v>
+      </c>
+      <c r="C17" t="n">
+        <v>21.27838133381189</v>
+      </c>
+      <c r="D17" t="n">
+        <v>4.96959892072887</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2.770549678121697</v>
+      </c>
+      <c r="F17" t="n">
         <v>17.01643502058164</v>
       </c>
-      <c r="B17" t="n">
-        <v>21.27838133381189</v>
-      </c>
-      <c r="C17" t="n">
-        <v>53.96503504675589</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1903,7 +2353,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>2.770549678121697</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -1912,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>4.96959892072887</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -1927,51 +2377,78 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>1.248219306281269</v>
+      </c>
+      <c r="Z17" t="n">
         <v>0.009910355224525562</v>
       </c>
-      <c r="V17" t="n">
+      <c r="AA17" t="n">
         <v>1862.519712760652</v>
       </c>
-      <c r="W17" t="n">
+      <c r="AB17" t="n">
         <v>191.5692950747122</v>
       </c>
-      <c r="X17" t="n">
+      <c r="AC17" t="n">
         <v>-5.868722452599634</v>
       </c>
-      <c r="Y17" t="n">
+      <c r="AD17" t="n">
         <v>2.462800168495763</v>
       </c>
-      <c r="Z17" t="n">
+      <c r="AE17" t="n">
+        <v>1.233453638152048</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>1.828490726039773</v>
+      </c>
+      <c r="AG17" t="n">
         <v>0.1064838084249622</v>
       </c>
-      <c r="AA17" t="n">
+      <c r="AH17" t="n">
         <v>8.53134573047033</v>
       </c>
-      <c r="AB17" t="n">
+      <c r="AI17" t="n">
         <v>1.743724699764247</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>173048108291.5711</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>8.574045576795379</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>50.2956906832617</v>
+      </c>
+      <c r="C18" t="n">
+        <v>21.9085475462501</v>
+      </c>
+      <c r="D18" t="n">
+        <v>6.527412612375554</v>
+      </c>
+      <c r="E18" t="n">
+        <v>3.69510141148884</v>
+      </c>
+      <c r="F18" t="n">
         <v>17.57324774662381</v>
       </c>
-      <c r="B18" t="n">
-        <v>21.9085475462501</v>
-      </c>
-      <c r="C18" t="n">
-        <v>50.2956906832617</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1989,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>3.69510141148884</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -1998,7 +2475,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>6.527412612375554</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -2013,51 +2490,78 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>1.248996159871531</v>
+      </c>
+      <c r="Z18" t="n">
         <v>0.01130136048272857</v>
       </c>
-      <c r="V18" t="n">
+      <c r="AA18" t="n">
         <v>1870.999245485742</v>
       </c>
-      <c r="W18" t="n">
+      <c r="AB18" t="n">
         <v>194.3943070618537</v>
       </c>
-      <c r="X18" t="n">
+      <c r="AC18" t="n">
         <v>-6.178137385674443</v>
       </c>
-      <c r="Y18" t="n">
+      <c r="AD18" t="n">
         <v>2.700707230990515</v>
       </c>
-      <c r="Z18" t="n">
+      <c r="AE18" t="n">
+        <v>1.303195752176327</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>1.823219185311804</v>
+      </c>
+      <c r="AG18" t="n">
         <v>0.1081036941567561</v>
       </c>
-      <c r="AA18" t="n">
+      <c r="AH18" t="n">
         <v>8.430292685673122</v>
       </c>
-      <c r="AB18" t="n">
+      <c r="AI18" t="n">
         <v>1.76729345111992</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>172667424067.2321</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>8.670003674982787</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>44.49254902780563</v>
+      </c>
+      <c r="C19" t="n">
+        <v>22.25825438399324</v>
+      </c>
+      <c r="D19" t="n">
+        <v>9.124043858346317</v>
+      </c>
+      <c r="E19" t="n">
+        <v>5.896923790443918</v>
+      </c>
+      <c r="F19" t="n">
         <v>18.2282289394109</v>
       </c>
-      <c r="B19" t="n">
-        <v>22.25825438399324</v>
-      </c>
-      <c r="C19" t="n">
-        <v>44.49254902780563</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2075,7 +2579,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>5.896923790443918</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -2084,7 +2588,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>9.124043858346317</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -2099,51 +2603,78 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>1.25078337879285</v>
+      </c>
+      <c r="Z19" t="n">
         <v>0.01394268369701949</v>
       </c>
-      <c r="V19" t="n">
+      <c r="AA19" t="n">
         <v>1884.717007471835</v>
       </c>
-      <c r="W19" t="n">
+      <c r="AB19" t="n">
         <v>198.3108264298762</v>
       </c>
-      <c r="X19" t="n">
+      <c r="AC19" t="n">
         <v>-6.813358329002254</v>
       </c>
-      <c r="Y19" t="n">
+      <c r="AD19" t="n">
         <v>3.132689075639008</v>
       </c>
-      <c r="Z19" t="n">
+      <c r="AE19" t="n">
+        <v>1.406716508907441</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>1.814555689377204</v>
+      </c>
+      <c r="AG19" t="n">
         <v>0.1106082616356001</v>
       </c>
-      <c r="AA19" t="n">
+      <c r="AH19" t="n">
         <v>8.262184722714837</v>
       </c>
-      <c r="AB19" t="n">
+      <c r="AI19" t="n">
         <v>1.806421150658787</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>172069645980.8044</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>8.798359147633185</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>40.14606294301679</v>
+      </c>
+      <c r="C20" t="n">
+        <v>21.54337168332784</v>
+      </c>
+      <c r="D20" t="n">
+        <v>11.99826141379916</v>
+      </c>
+      <c r="E20" t="n">
+        <v>8.2606171846714</v>
+      </c>
+      <c r="F20" t="n">
         <v>18.05168677518481</v>
       </c>
-      <c r="B20" t="n">
-        <v>21.54337168332784</v>
-      </c>
-      <c r="C20" t="n">
-        <v>40.14606294301679</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2161,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>8.2606171846714</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -2170,7 +2701,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>11.99826141379916</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -2185,51 +2716,78 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>1.252711555178088</v>
+      </c>
+      <c r="Z20" t="n">
         <v>0.01614337594564339</v>
       </c>
-      <c r="V20" t="n">
+      <c r="AA20" t="n">
         <v>1893.627935215775</v>
       </c>
-      <c r="W20" t="n">
+      <c r="AB20" t="n">
         <v>200.3466927595986</v>
       </c>
-      <c r="X20" t="n">
+      <c r="AC20" t="n">
         <v>-7.416595367999558</v>
       </c>
-      <c r="Y20" t="n">
+      <c r="AD20" t="n">
         <v>3.504752859306902</v>
       </c>
-      <c r="Z20" t="n">
+      <c r="AE20" t="n">
+        <v>1.480913566410248</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>1.808757351318198</v>
+      </c>
+      <c r="AG20" t="n">
         <v>0.1122998910665736</v>
       </c>
-      <c r="AA20" t="n">
+      <c r="AH20" t="n">
         <v>8.143491897434147</v>
       </c>
-      <c r="AB20" t="n">
+      <c r="AI20" t="n">
         <v>1.835182866771414</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>171740634275.9438</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>8.881705909877013</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>35.00489144090659</v>
+      </c>
+      <c r="C21" t="n">
+        <v>20.30123682150807</v>
+      </c>
+      <c r="D21" t="n">
+        <v>15.62123977056628</v>
+      </c>
+      <c r="E21" t="n">
+        <v>11.76946366999297</v>
+      </c>
+      <c r="F21" t="n">
         <v>17.30316829702608</v>
       </c>
-      <c r="B21" t="n">
-        <v>20.30123682150807</v>
-      </c>
-      <c r="C21" t="n">
-        <v>35.00489144090659</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2247,7 +2805,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>11.76946366999297</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -2256,7 +2814,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>15.62123977056628</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -2271,51 +2829,78 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>1.255549349693432</v>
+      </c>
+      <c r="Z21" t="n">
         <v>0.01868295615421885</v>
       </c>
-      <c r="V21" t="n">
+      <c r="AA21" t="n">
         <v>1905.332029117198</v>
       </c>
-      <c r="W21" t="n">
+      <c r="AB21" t="n">
         <v>202.8634158510409</v>
       </c>
-      <c r="X21" t="n">
+      <c r="AC21" t="n">
         <v>-8.258354018609531</v>
       </c>
-      <c r="Y21" t="n">
+      <c r="AD21" t="n">
         <v>3.932584226342296</v>
       </c>
-      <c r="Z21" t="n">
+      <c r="AE21" t="n">
+        <v>1.548159679258181</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>1.801209195270497</v>
+      </c>
+      <c r="AG21" t="n">
         <v>0.1145360131513712</v>
       </c>
-      <c r="AA21" t="n">
+      <c r="AH21" t="n">
         <v>7.991016495067599</v>
       </c>
-      <c r="AB21" t="n">
+      <c r="AI21" t="n">
         <v>1.87334037985938</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>171338690568.26</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>8.995844309497645</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>30.19464676324015</v>
+      </c>
+      <c r="C22" t="n">
+        <v>18.70576258983613</v>
+      </c>
+      <c r="D22" t="n">
+        <v>18.55116765235202</v>
+      </c>
+      <c r="E22" t="n">
+        <v>16.67699386151701</v>
+      </c>
+      <c r="F22" t="n">
         <v>15.87142913305469</v>
       </c>
-      <c r="B22" t="n">
-        <v>18.70576258983613</v>
-      </c>
-      <c r="C22" t="n">
-        <v>30.19464676324015</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2333,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>16.67699386151701</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -2342,7 +2927,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>18.55116765235202</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -2357,51 +2942,78 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>1.259411457310692</v>
+      </c>
+      <c r="Z22" t="n">
         <v>0.02132280954649748</v>
       </c>
-      <c r="V22" t="n">
+      <c r="AA22" t="n">
         <v>1921.130125222988</v>
       </c>
-      <c r="W22" t="n">
+      <c r="AB22" t="n">
         <v>206.2241599538678</v>
       </c>
-      <c r="X22" t="n">
+      <c r="AC22" t="n">
         <v>-9.369037117508064</v>
       </c>
-      <c r="Y22" t="n">
+      <c r="AD22" t="n">
         <v>4.357480023472855</v>
       </c>
-      <c r="Z22" t="n">
+      <c r="AE22" t="n">
+        <v>1.58594283012711</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>1.791269199811804</v>
+      </c>
+      <c r="AG22" t="n">
         <v>0.1175264069897883</v>
       </c>
-      <c r="AA22" t="n">
+      <c r="AH22" t="n">
         <v>7.801207389430617</v>
       </c>
-      <c r="AB22" t="n">
+      <c r="AI22" t="n">
         <v>1.927101311134161</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>170789243832.3699</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>9.142914580202811</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>69.68900737564974</v>
+      </c>
+      <c r="C23" t="n">
+        <v>11.62108928220617</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1.584693834292852</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.8209931388708622</v>
+      </c>
+      <c r="F23" t="n">
         <v>16.2842163689804</v>
       </c>
-      <c r="B23" t="n">
-        <v>11.62108928220617</v>
-      </c>
-      <c r="C23" t="n">
-        <v>69.68900737564974</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2419,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0.8209931388708622</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -2428,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>1.584693834292852</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -2443,51 +3055,78 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>1.246272193804929</v>
+      </c>
+      <c r="Z23" t="n">
         <v>0.005723659448972996</v>
       </c>
-      <c r="V23" t="n">
+      <c r="AA23" t="n">
         <v>1804.560680786897</v>
       </c>
-      <c r="W23" t="n">
+      <c r="AB23" t="n">
         <v>152.9249193397706</v>
       </c>
-      <c r="X23" t="n">
+      <c r="AC23" t="n">
         <v>-3.988340565739932</v>
       </c>
-      <c r="Y23" t="n">
+      <c r="AD23" t="n">
         <v>1.698850637275885</v>
       </c>
-      <c r="Z23" t="n">
+      <c r="AE23" t="n">
+        <v>0.9317611338239404</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>1.861575878842987</v>
+      </c>
+      <c r="AG23" t="n">
         <v>0.08640015880863641</v>
       </c>
-      <c r="AA23" t="n">
+      <c r="AH23" t="n">
         <v>9.092117900529091</v>
       </c>
-      <c r="AB23" t="n">
+      <c r="AI23" t="n">
         <v>1.462526570850697</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>175583784041.5738</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>7.219089592153912</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>65.18010332095461</v>
+      </c>
+      <c r="C24" t="n">
+        <v>13.66150507969354</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1.981966441603931</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1.177828825037154</v>
+      </c>
+      <c r="F24" t="n">
         <v>17.99859633271077</v>
       </c>
-      <c r="B24" t="n">
-        <v>13.66150507969354</v>
-      </c>
-      <c r="C24" t="n">
-        <v>65.18010332095461</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2505,7 +3144,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1.177828825037154</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -2514,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>1.981966441603931</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -2529,51 +3168,78 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>1.246549769425735</v>
+      </c>
+      <c r="Z24" t="n">
         <v>0.006749019107849593</v>
       </c>
-      <c r="V24" t="n">
+      <c r="AA24" t="n">
         <v>1817.809745225328</v>
       </c>
-      <c r="W24" t="n">
+      <c r="AB24" t="n">
         <v>163.0853992397982</v>
       </c>
-      <c r="X24" t="n">
+      <c r="AC24" t="n">
         <v>-4.463667374112369</v>
       </c>
-      <c r="Y24" t="n">
+      <c r="AD24" t="n">
         <v>1.875574231757871</v>
       </c>
-      <c r="Z24" t="n">
+      <c r="AE24" t="n">
+        <v>1.017973018925822</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>1.853530804799454</v>
+      </c>
+      <c r="AG24" t="n">
         <v>0.09171317174128543</v>
       </c>
-      <c r="AA24" t="n">
+      <c r="AH24" t="n">
         <v>8.947225319860511</v>
       </c>
-      <c r="AB24" t="n">
+      <c r="AI24" t="n">
         <v>1.541251999619234</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>174898060452.5486</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>7.59054959938967</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>60.56757689120469</v>
+      </c>
+      <c r="C25" t="n">
+        <v>15.08229893964224</v>
+      </c>
+      <c r="D25" t="n">
+        <v>3.004480415155629</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1.808989009252903</v>
+      </c>
+      <c r="F25" t="n">
         <v>19.53665474474453</v>
       </c>
-      <c r="B25" t="n">
-        <v>15.08229893964224</v>
-      </c>
-      <c r="C25" t="n">
-        <v>60.56757689120469</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2591,7 +3257,7 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>1.808989009252903</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -2600,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>3.004480415155629</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -2615,51 +3281,78 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>1.247058770957622</v>
+      </c>
+      <c r="Z25" t="n">
         <v>0.00821773094061517</v>
       </c>
-      <c r="V25" t="n">
+      <c r="AA25" t="n">
         <v>1829.427349919213</v>
       </c>
-      <c r="W25" t="n">
+      <c r="AB25" t="n">
         <v>170.3345833808895</v>
       </c>
-      <c r="X25" t="n">
+      <c r="AC25" t="n">
         <v>-4.901209198758062</v>
       </c>
-      <c r="Y25" t="n">
+      <c r="AD25" t="n">
         <v>2.130049961671903</v>
       </c>
-      <c r="Z25" t="n">
+      <c r="AE25" t="n">
+        <v>1.112757044466318</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>1.846316975131115</v>
+      </c>
+      <c r="AG25" t="n">
         <v>0.09559112743688601</v>
       </c>
-      <c r="AA25" t="n">
+      <c r="AH25" t="n">
         <v>8.812242166582951</v>
       </c>
-      <c r="AB25" t="n">
+      <c r="AI25" t="n">
         <v>1.599506567855235</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>174307159638.6331</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>7.845536119176609</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>55.49755604733809</v>
+      </c>
+      <c r="C26" t="n">
+        <v>16.41888276730987</v>
+      </c>
+      <c r="D26" t="n">
+        <v>4.116930505690866</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2.78582109936913</v>
+      </c>
+      <c r="F26" t="n">
         <v>21.18080958029204</v>
       </c>
-      <c r="B26" t="n">
-        <v>16.41888276730987</v>
-      </c>
-      <c r="C26" t="n">
-        <v>55.49755604733809</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2677,7 +3370,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>2.78582109936913</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -2686,7 +3379,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>4.116930505690866</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -2701,51 +3394,78 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>1.2478288756548</v>
+      </c>
+      <c r="Z26" t="n">
         <v>0.01002327231053391</v>
       </c>
-      <c r="V26" t="n">
+      <c r="AA26" t="n">
         <v>1842.372971012488</v>
       </c>
-      <c r="W26" t="n">
+      <c r="AB26" t="n">
         <v>177.2699889808056</v>
       </c>
-      <c r="X26" t="n">
+      <c r="AC26" t="n">
         <v>-5.399374730227284</v>
       </c>
-      <c r="Y26" t="n">
+      <c r="AD26" t="n">
         <v>2.433698483509787</v>
       </c>
-      <c r="Z26" t="n">
+      <c r="AE26" t="n">
+        <v>1.208112216833691</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>1.838225328989577</v>
+      </c>
+      <c r="AG26" t="n">
         <v>0.09934216885025565</v>
       </c>
-      <c r="AA26" t="n">
+      <c r="AH26" t="n">
         <v>8.660208966637217</v>
       </c>
-      <c r="AB26" t="n">
+      <c r="AI26" t="n">
         <v>1.655542093125456</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>173653830337.7454</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>8.072328996601982</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>50.01949321582786</v>
+      </c>
+      <c r="C27" t="n">
+        <v>17.68792718760798</v>
+      </c>
+      <c r="D27" t="n">
+        <v>5.680183840744505</v>
+      </c>
+      <c r="E27" t="n">
+        <v>4.251063367731021</v>
+      </c>
+      <c r="F27" t="n">
         <v>22.36133238808863</v>
       </c>
-      <c r="B27" t="n">
-        <v>17.68792718760798</v>
-      </c>
-      <c r="C27" t="n">
-        <v>50.01949321582786</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0</v>
-      </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2763,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>4.251063367731021</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -2772,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>5.680183840744505</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -2787,51 +3507,78 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>1.24901345242326</v>
+      </c>
+      <c r="Z27" t="n">
         <v>0.01215074305096257</v>
       </c>
-      <c r="V27" t="n">
+      <c r="AA27" t="n">
         <v>1857.083503674675</v>
       </c>
-      <c r="W27" t="n">
+      <c r="AB27" t="n">
         <v>184.2095798401118</v>
       </c>
-      <c r="X27" t="n">
+      <c r="AC27" t="n">
         <v>-5.984408774734399</v>
       </c>
-      <c r="Y27" t="n">
+      <c r="AD27" t="n">
         <v>2.786560182923776</v>
       </c>
-      <c r="Z27" t="n">
+      <c r="AE27" t="n">
+        <v>1.3071367010798</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>1.829140724304632</v>
+      </c>
+      <c r="AG27" t="n">
         <v>0.1031558043979282</v>
       </c>
-      <c r="AA27" t="n">
+      <c r="AH27" t="n">
         <v>8.490860210984831</v>
       </c>
-      <c r="AB27" t="n">
+      <c r="AI27" t="n">
         <v>1.711073414995902</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>172961543506.6572</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>8.284963869614053</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>45.94547501288871</v>
+      </c>
+      <c r="C28" t="n">
+        <v>18.13124569257213</v>
+      </c>
+      <c r="D28" t="n">
+        <v>7.55952687847443</v>
+      </c>
+      <c r="E28" t="n">
+        <v>6.108469737958585</v>
+      </c>
+      <c r="F28" t="n">
         <v>22.25528267810615</v>
       </c>
-      <c r="B28" t="n">
-        <v>18.13124569257213</v>
-      </c>
-      <c r="C28" t="n">
-        <v>45.94547501288871</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2849,7 +3596,7 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>6.108469737958585</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -2858,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>7.55952687847443</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -2873,51 +3620,78 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>1.250548716836175</v>
+      </c>
+      <c r="Z28" t="n">
         <v>0.01427997797680656</v>
       </c>
-      <c r="V28" t="n">
+      <c r="AA28" t="n">
         <v>1868.804889673751</v>
       </c>
-      <c r="W28" t="n">
+      <c r="AB28" t="n">
         <v>189.3599180710088</v>
       </c>
-      <c r="X28" t="n">
+      <c r="AC28" t="n">
         <v>-6.611892994554888</v>
       </c>
-      <c r="Y28" t="n">
+      <c r="AD28" t="n">
         <v>3.144570772142395</v>
       </c>
-      <c r="Z28" t="n">
+      <c r="AE28" t="n">
+        <v>1.387347485810025</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>1.822001330491989</v>
+      </c>
+      <c r="AG28" t="n">
         <v>0.1062935803509471</v>
       </c>
-      <c r="AA28" t="n">
+      <c r="AH28" t="n">
         <v>8.358085298794862</v>
       </c>
-      <c r="AB28" t="n">
+      <c r="AI28" t="n">
         <v>1.75956979738066</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>172488270214.1548</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>8.449696242728455</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>41.15294747467846</v>
+      </c>
+      <c r="C29" t="n">
+        <v>17.71834953868881</v>
+      </c>
+      <c r="D29" t="n">
+        <v>9.830809665687847</v>
+      </c>
+      <c r="E29" t="n">
+        <v>9.179356354015789</v>
+      </c>
+      <c r="F29" t="n">
         <v>22.11853696692908</v>
       </c>
-      <c r="B29" t="n">
-        <v>17.71834953868881</v>
-      </c>
-      <c r="C29" t="n">
-        <v>41.15294747467846</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2935,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>9.179356354015789</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -2944,7 +3718,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>9.830809665687847</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -2959,51 +3733,78 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>1.252996918875767</v>
+      </c>
+      <c r="Z29" t="n">
         <v>0.01702922256247048</v>
       </c>
-      <c r="V29" t="n">
+      <c r="AA29" t="n">
         <v>1882.375210236956</v>
       </c>
-      <c r="W29" t="n">
+      <c r="AB29" t="n">
         <v>194.2879178623252</v>
       </c>
-      <c r="X29" t="n">
+      <c r="AC29" t="n">
         <v>-7.499450700016688</v>
       </c>
-      <c r="Y29" t="n">
+      <c r="AD29" t="n">
         <v>3.600336999345563</v>
       </c>
-      <c r="Z29" t="n">
+      <c r="AE29" t="n">
+        <v>1.47025962167911</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>1.813453657248491</v>
+      </c>
+      <c r="AG29" t="n">
         <v>0.1096762510355988</v>
       </c>
-      <c r="AA29" t="n">
+      <c r="AH29" t="n">
         <v>8.194409991601907</v>
       </c>
-      <c r="AB29" t="n">
+      <c r="AI29" t="n">
         <v>1.816323965305568</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>171944057001.0225</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>8.604172382662973</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>36.11077555188695</v>
+      </c>
+      <c r="C30" t="n">
+        <v>17.34750983028886</v>
+      </c>
+      <c r="D30" t="n">
+        <v>12.15653535835572</v>
+      </c>
+      <c r="E30" t="n">
+        <v>13.24930686414909</v>
+      </c>
+      <c r="F30" t="n">
         <v>21.13587239531939</v>
       </c>
-      <c r="B30" t="n">
-        <v>17.34750983028886</v>
-      </c>
-      <c r="C30" t="n">
-        <v>36.11077555188695</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0</v>
-      </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -3021,7 +3822,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>13.24930686414909</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -3030,7 +3831,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>12.15653535835572</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -3045,51 +3846,78 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
+        <v>0</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>1.256227888438959</v>
+      </c>
+      <c r="Z30" t="n">
         <v>0.01975233339717399</v>
       </c>
-      <c r="V30" t="n">
+      <c r="AA30" t="n">
         <v>1900.159295131961</v>
       </c>
-      <c r="W30" t="n">
+      <c r="AB30" t="n">
         <v>200.0440324943598</v>
       </c>
-      <c r="X30" t="n">
+      <c r="AC30" t="n">
         <v>-8.548720746551373</v>
       </c>
-      <c r="Y30" t="n">
+      <c r="AD30" t="n">
         <v>4.045895082346354</v>
       </c>
-      <c r="Z30" t="n">
+      <c r="AE30" t="n">
+        <v>1.53688760035679</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>1.802570445725707</v>
+      </c>
+      <c r="AG30" t="n">
         <v>0.1136031273724941</v>
       </c>
-      <c r="AA30" t="n">
+      <c r="AH30" t="n">
         <v>7.994008236918264</v>
       </c>
-      <c r="AB30" t="n">
+      <c r="AI30" t="n">
         <v>1.880414202539238</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>171270032414.911</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>8.791305051399847</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>31.05738066946694</v>
+      </c>
+      <c r="C31" t="n">
+        <v>15.3476838701526</v>
+      </c>
+      <c r="D31" t="n">
+        <v>15.27387627557495</v>
+      </c>
+      <c r="E31" t="n">
+        <v>18.52044105582995</v>
+      </c>
+      <c r="F31" t="n">
         <v>19.80061812897557</v>
       </c>
-      <c r="B31" t="n">
-        <v>15.3476838701526</v>
-      </c>
-      <c r="C31" t="n">
-        <v>31.05738066946694</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3107,7 +3935,7 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>18.52044105582995</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -3116,7 +3944,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>15.27387627557495</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -3131,51 +3959,78 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>1.260352504827815</v>
+      </c>
+      <c r="Z31" t="n">
         <v>0.02234030920231088</v>
       </c>
-      <c r="V31" t="n">
+      <c r="AA31" t="n">
         <v>1915.960217012119</v>
       </c>
-      <c r="W31" t="n">
+      <c r="AB31" t="n">
         <v>203.730676930795</v>
       </c>
-      <c r="X31" t="n">
+      <c r="AC31" t="n">
         <v>-9.698632590650735</v>
       </c>
-      <c r="Y31" t="n">
+      <c r="AD31" t="n">
         <v>4.468587469008692</v>
       </c>
-      <c r="Z31" t="n">
+      <c r="AE31" t="n">
+        <v>1.578019965073713</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>1.792478037786467</v>
+      </c>
+      <c r="AG31" t="n">
         <v>0.1167826777879098</v>
       </c>
-      <c r="AA31" t="n">
+      <c r="AH31" t="n">
         <v>7.798211181117483</v>
       </c>
-      <c r="AB31" t="n">
+      <c r="AI31" t="n">
         <v>1.93635772262265</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>170719317149.7076</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>8.933211615752658</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>68.38272010981913</v>
+      </c>
+      <c r="C32" t="n">
+        <v>8.905594154233439</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1.284840459392553</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.8751622996720143</v>
+      </c>
+      <c r="F32" t="n">
         <v>20.55168297688286</v>
       </c>
-      <c r="B32" t="n">
-        <v>8.905594154233439</v>
-      </c>
-      <c r="C32" t="n">
-        <v>68.38272010981913</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3193,7 +4048,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0.8751622996720143</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -3202,7 +4057,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>1.284840459392553</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -3217,51 +4072,78 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>1.245991590053667</v>
+      </c>
+      <c r="Z32" t="n">
         <v>0.005939052764408702</v>
       </c>
-      <c r="V32" t="n">
+      <c r="AA32" t="n">
         <v>1794.910990541605</v>
       </c>
-      <c r="W32" t="n">
+      <c r="AB32" t="n">
         <v>138.2348367575917</v>
       </c>
-      <c r="X32" t="n">
+      <c r="AC32" t="n">
         <v>-3.627212047565354</v>
       </c>
-      <c r="Y32" t="n">
+      <c r="AD32" t="n">
         <v>1.670883424475983</v>
       </c>
-      <c r="Z32" t="n">
+      <c r="AE32" t="n">
+        <v>0.9259573183687129</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>1.865417124634289</v>
+      </c>
+      <c r="AG32" t="n">
         <v>0.07929342216726326</v>
       </c>
-      <c r="AA32" t="n">
+      <c r="AH32" t="n">
         <v>9.123059177693213</v>
       </c>
-      <c r="AB32" t="n">
+      <c r="AI32" t="n">
         <v>1.380621884400646</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>175727095195.4889</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>6.78903376319307</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>63.38271594806355</v>
+      </c>
+      <c r="C33" t="n">
+        <v>10.46562148344112</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1.836009670914067</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1.346310053130341</v>
+      </c>
+      <c r="F33" t="n">
         <v>22.96934284445093</v>
       </c>
-      <c r="B33" t="n">
-        <v>10.46562148344112</v>
-      </c>
-      <c r="C33" t="n">
-        <v>63.38271594806355</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0</v>
-      </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3279,7 +4161,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1.346310053130341</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -3288,7 +4170,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>1.836009670914067</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -3303,51 +4185,78 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
+        <v>0</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>1.246316020539121</v>
+      </c>
+      <c r="Z33" t="n">
         <v>0.007232515461184539</v>
       </c>
-      <c r="V33" t="n">
+      <c r="AA33" t="n">
         <v>1807.075101769982</v>
       </c>
-      <c r="W33" t="n">
+      <c r="AB33" t="n">
         <v>148.3855837262215</v>
       </c>
-      <c r="X33" t="n">
+      <c r="AC33" t="n">
         <v>-4.104196058986292</v>
       </c>
-      <c r="Y33" t="n">
+      <c r="AD33" t="n">
         <v>1.89372165719222</v>
       </c>
-      <c r="Z33" t="n">
+      <c r="AE33" t="n">
+        <v>1.022008622744069</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>1.857682978309955</v>
+      </c>
+      <c r="AG33" t="n">
         <v>0.08458864201437863</v>
       </c>
-      <c r="AA33" t="n">
+      <c r="AH33" t="n">
         <v>8.976601894533291</v>
       </c>
-      <c r="AB33" t="n">
+      <c r="AI33" t="n">
         <v>1.458855759405878</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>175047524479.3506</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>7.142845857605876</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>59.44757449331301</v>
+      </c>
+      <c r="C34" t="n">
+        <v>11.68287684138104</v>
+      </c>
+      <c r="D34" t="n">
+        <v>2.493128426868182</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1.967267730406504</v>
+      </c>
+      <c r="F34" t="n">
         <v>24.40915250803127</v>
       </c>
-      <c r="B34" t="n">
-        <v>11.68287684138104</v>
-      </c>
-      <c r="C34" t="n">
-        <v>59.44757449331301</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3365,7 +4274,7 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>1.967267730406504</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -3374,7 +4283,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>2.493128426868182</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -3389,51 +4298,78 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>1.246799402515352</v>
+      </c>
+      <c r="Z34" t="n">
         <v>0.008605828672474754</v>
       </c>
-      <c r="V34" t="n">
+      <c r="AA34" t="n">
         <v>1817.487709649119</v>
       </c>
-      <c r="W34" t="n">
+      <c r="AB34" t="n">
         <v>156.3584478113895</v>
       </c>
-      <c r="X34" t="n">
+      <c r="AC34" t="n">
         <v>-4.536849753213489</v>
       </c>
-      <c r="Y34" t="n">
+      <c r="AD34" t="n">
         <v>2.128933800335837</v>
       </c>
-      <c r="Z34" t="n">
+      <c r="AE34" t="n">
+        <v>1.100358636035494</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>1.851203111593157</v>
+      </c>
+      <c r="AG34" t="n">
         <v>0.08877970234386724</v>
       </c>
-      <c r="AA34" t="n">
+      <c r="AH34" t="n">
         <v>8.856019026166464</v>
       </c>
-      <c r="AB34" t="n">
+      <c r="AI34" t="n">
         <v>1.519549263520379</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>174510570090.4047</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>7.399820663932485</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>54.71950275831595</v>
+      </c>
+      <c r="C35" t="n">
+        <v>12.82909461563154</v>
+      </c>
+      <c r="D35" t="n">
+        <v>3.479369552294848</v>
+      </c>
+      <c r="E35" t="n">
+        <v>2.890844974398167</v>
+      </c>
+      <c r="F35" t="n">
         <v>26.0811880993595</v>
       </c>
-      <c r="B35" t="n">
-        <v>12.82909461563154</v>
-      </c>
-      <c r="C35" t="n">
-        <v>54.71950275831595</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3451,7 +4387,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>2.890844974398167</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -3460,7 +4396,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>3.479369552294848</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -3475,51 +4411,78 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>1.247516928365219</v>
+      </c>
+      <c r="Z35" t="n">
         <v>0.01027318847935016</v>
       </c>
-      <c r="V35" t="n">
+      <c r="AA35" t="n">
         <v>1829.296006250463</v>
       </c>
-      <c r="W35" t="n">
+      <c r="AB35" t="n">
         <v>164.0063235286174</v>
       </c>
-      <c r="X35" t="n">
+      <c r="AC35" t="n">
         <v>-5.018933291525662</v>
       </c>
-      <c r="Y35" t="n">
+      <c r="AD35" t="n">
         <v>2.407808995713729</v>
       </c>
-      <c r="Z35" t="n">
+      <c r="AE35" t="n">
+        <v>1.188491738419887</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>1.843759384706322</v>
+      </c>
+      <c r="AG35" t="n">
         <v>0.09282595544178017</v>
       </c>
-      <c r="AA35" t="n">
+      <c r="AH35" t="n">
         <v>8.715119611231668</v>
       </c>
-      <c r="AB35" t="n">
+      <c r="AI35" t="n">
         <v>1.577594998629744</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>173904193885.4013</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>7.632130244793979</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>50.26300520655828</v>
+      </c>
+      <c r="C36" t="n">
+        <v>13.98389582130604</v>
+      </c>
+      <c r="D36" t="n">
+        <v>4.577589996120354</v>
+      </c>
+      <c r="E36" t="n">
+        <v>4.299361166965641</v>
+      </c>
+      <c r="F36" t="n">
         <v>26.87614780904968</v>
       </c>
-      <c r="B36" t="n">
-        <v>13.98389582130604</v>
-      </c>
-      <c r="C36" t="n">
-        <v>50.26300520655828</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0</v>
-      </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3537,7 +4500,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>4.299361166965641</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -3546,7 +4509,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>4.577589996120354</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -3561,51 +4524,78 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
+        <v>0</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>1.248655522020915</v>
+      </c>
+      <c r="Z36" t="n">
         <v>0.012304053703362</v>
       </c>
-      <c r="V36" t="n">
+      <c r="AA36" t="n">
         <v>1842.784974665828</v>
       </c>
-      <c r="W36" t="n">
+      <c r="AB36" t="n">
         <v>172.3796481356425</v>
       </c>
-      <c r="X36" t="n">
+      <c r="AC36" t="n">
         <v>-5.638283745874877</v>
       </c>
-      <c r="Y36" t="n">
+      <c r="AD36" t="n">
         <v>2.742104947225994</v>
       </c>
-      <c r="Z36" t="n">
+      <c r="AE36" t="n">
+        <v>1.274179105804671</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>1.835537505531732</v>
+      </c>
+      <c r="AG36" t="n">
         <v>0.09737182311067256</v>
       </c>
-      <c r="AA36" t="n">
+      <c r="AH36" t="n">
         <v>8.565031665175551</v>
       </c>
-      <c r="AB36" t="n">
+      <c r="AI36" t="n">
         <v>1.642908185162571</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>173283337826.0369</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>7.874572583367613</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>45.95401605145616</v>
+      </c>
+      <c r="C37" t="n">
+        <v>14.12400345615574</v>
+      </c>
+      <c r="D37" t="n">
+        <v>6.361473799504655</v>
+      </c>
+      <c r="E37" t="n">
+        <v>6.394207957975715</v>
+      </c>
+      <c r="F37" t="n">
         <v>27.16629873490772</v>
       </c>
-      <c r="B37" t="n">
-        <v>14.12400345615574</v>
-      </c>
-      <c r="C37" t="n">
-        <v>45.95401605145616</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3623,7 +4613,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>6.394207957975715</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -3632,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>6.361473799504655</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -3647,51 +4637,78 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>1.25034411304456</v>
+      </c>
+      <c r="Z37" t="n">
         <v>0.01469244808544889</v>
       </c>
-      <c r="V37" t="n">
+      <c r="AA37" t="n">
         <v>1854.561268107208</v>
       </c>
-      <c r="W37" t="n">
+      <c r="AB37" t="n">
         <v>178.5666106502817</v>
       </c>
-      <c r="X37" t="n">
+      <c r="AC37" t="n">
         <v>-6.359945988637914</v>
       </c>
-      <c r="Y37" t="n">
+      <c r="AD37" t="n">
         <v>3.137295511079061</v>
       </c>
-      <c r="Z37" t="n">
+      <c r="AE37" t="n">
+        <v>1.360743070986924</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>1.828169418679199</v>
+      </c>
+      <c r="AG37" t="n">
         <v>0.1011228801640802</v>
       </c>
-      <c r="AA37" t="n">
+      <c r="AH37" t="n">
         <v>8.424918856387032</v>
       </c>
-      <c r="AB37" t="n">
+      <c r="AI37" t="n">
         <v>1.701199642985428</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>172782418010.0126</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>8.05260918176281</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>40.35557986617545</v>
+      </c>
+      <c r="C38" t="n">
+        <v>14.63372456545034</v>
+      </c>
+      <c r="D38" t="n">
+        <v>8.408491410253575</v>
+      </c>
+      <c r="E38" t="n">
+        <v>9.346219422510915</v>
+      </c>
+      <c r="F38" t="n">
         <v>27.25598473560972</v>
       </c>
-      <c r="B38" t="n">
-        <v>14.63372456545034</v>
-      </c>
-      <c r="C38" t="n">
-        <v>40.35557986617545</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3709,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>9.346219422510915</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -3718,7 +4735,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>8.408491410253575</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -3733,51 +4750,78 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>1.252707039500056</v>
+      </c>
+      <c r="Z38" t="n">
         <v>0.01729539590075853</v>
       </c>
-      <c r="V38" t="n">
+      <c r="AA38" t="n">
         <v>1872.067925524716</v>
       </c>
-      <c r="W38" t="n">
+      <c r="AB38" t="n">
         <v>186.5540617936104</v>
       </c>
-      <c r="X38" t="n">
+      <c r="AC38" t="n">
         <v>-7.246248283020125</v>
       </c>
-      <c r="Y38" t="n">
+      <c r="AD38" t="n">
         <v>3.551442337604172</v>
       </c>
-      <c r="Z38" t="n">
+      <c r="AE38" t="n">
+        <v>1.44954007854931</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>1.817439202023036</v>
+      </c>
+      <c r="AG38" t="n">
         <v>0.1057665398151225</v>
       </c>
-      <c r="AA38" t="n">
+      <c r="AH38" t="n">
         <v>8.226857706546527</v>
       </c>
-      <c r="AB38" t="n">
+      <c r="AI38" t="n">
         <v>1.76865331408857</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>172048775782.9243</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>8.272404563561329</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>36.0083723955829</v>
+      </c>
+      <c r="C39" t="n">
+        <v>13.61795025241505</v>
+      </c>
+      <c r="D39" t="n">
+        <v>10.25459236048089</v>
+      </c>
+      <c r="E39" t="n">
+        <v>14.07280166252771</v>
+      </c>
+      <c r="F39" t="n">
         <v>26.04628332899345</v>
       </c>
-      <c r="B39" t="n">
-        <v>13.61795025241505</v>
-      </c>
-      <c r="C39" t="n">
-        <v>36.0083723955829</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0</v>
-      </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3795,7 +4839,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>14.07280166252771</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -3804,7 +4848,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>10.25459236048089</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -3819,51 +4863,78 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
+        <v>0</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>1.256413296877605</v>
+      </c>
+      <c r="Z39" t="n">
         <v>0.02040341691168338</v>
       </c>
-      <c r="V39" t="n">
+      <c r="AA39" t="n">
         <v>1889.682944261102</v>
       </c>
-      <c r="W39" t="n">
+      <c r="AB39" t="n">
         <v>193.8519895500959</v>
       </c>
-      <c r="X39" t="n">
+      <c r="AC39" t="n">
         <v>-8.535413313873866</v>
       </c>
-      <c r="Y39" t="n">
+      <c r="AD39" t="n">
         <v>4.057449977785367</v>
       </c>
-      <c r="Z39" t="n">
+      <c r="AE39" t="n">
+        <v>1.51303287594958</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>1.80656703384294</v>
+      </c>
+      <c r="AG39" t="n">
         <v>0.1107897469695056</v>
       </c>
-      <c r="AA39" t="n">
+      <c r="AH39" t="n">
         <v>8.027035640431178</v>
       </c>
-      <c r="AB39" t="n">
+      <c r="AI39" t="n">
         <v>1.854103709551148</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>171391425509.9269</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>8.487516579223421</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>31.11999433631694</v>
+      </c>
+      <c r="C40" t="n">
+        <v>13.40941150587545</v>
+      </c>
+      <c r="D40" t="n">
+        <v>12.11619659847759</v>
+      </c>
+      <c r="E40" t="n">
+        <v>19.38461120783668</v>
+      </c>
+      <c r="F40" t="n">
         <v>23.96978635149335</v>
       </c>
-      <c r="B40" t="n">
-        <v>13.40941150587545</v>
-      </c>
-      <c r="C40" t="n">
-        <v>31.11999433631694</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3881,7 +4952,7 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>19.38461120783668</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -3890,7 +4961,7 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>12.11619659847759</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -3905,51 +4976,78 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>1.260578852828473</v>
+      </c>
+      <c r="Z40" t="n">
         <v>0.0228740882022304</v>
       </c>
-      <c r="V40" t="n">
+      <c r="AA40" t="n">
         <v>1912.95414360032</v>
       </c>
-      <c r="W40" t="n">
+      <c r="AB40" t="n">
         <v>201.2742052269745</v>
       </c>
-      <c r="X40" t="n">
+      <c r="AC40" t="n">
         <v>-9.70337650788205</v>
       </c>
-      <c r="Y40" t="n">
+      <c r="AD40" t="n">
         <v>4.432880616201109</v>
       </c>
-      <c r="Z40" t="n">
+      <c r="AE40" t="n">
+        <v>1.555526378037122</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>1.792710535479074</v>
+      </c>
+      <c r="AG40" t="n">
         <v>0.1155367071833451</v>
       </c>
-      <c r="AA40" t="n">
+      <c r="AH40" t="n">
         <v>7.783009715263461</v>
       </c>
-      <c r="AB40" t="n">
+      <c r="AI40" t="n">
         <v>1.92714942623951</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>170540037883.9187</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>8.712540618374421</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>65.5039258201722</v>
+      </c>
+      <c r="C41" t="n">
+        <v>6.891003169588367</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1.120167929281824</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.8732193156344137</v>
+      </c>
+      <c r="F41" t="n">
         <v>25.6116837653232</v>
       </c>
-      <c r="B41" t="n">
-        <v>6.891003169588367</v>
-      </c>
-      <c r="C41" t="n">
-        <v>65.5039258201722</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3967,7 +5065,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0.8732193156344137</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -3976,7 +5074,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>1.120167929281824</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -3991,51 +5089,78 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>1.245655502190032</v>
+      </c>
+      <c r="Z41" t="n">
         <v>0.005985722554952947</v>
       </c>
-      <c r="V41" t="n">
+      <c r="AA41" t="n">
         <v>1789.105901200297</v>
       </c>
-      <c r="W41" t="n">
+      <c r="AB41" t="n">
         <v>125.1504573882852</v>
       </c>
-      <c r="X41" t="n">
+      <c r="AC41" t="n">
         <v>-3.352284094386424</v>
       </c>
-      <c r="Y41" t="n">
+      <c r="AD41" t="n">
         <v>1.599777915149974</v>
       </c>
-      <c r="Z41" t="n">
+      <c r="AE41" t="n">
+        <v>0.9274131516531071</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>1.866869135406154</v>
+      </c>
+      <c r="AG41" t="n">
         <v>0.073180109810408</v>
       </c>
-      <c r="AA41" t="n">
+      <c r="AH41" t="n">
         <v>9.10971344775762</v>
       </c>
-      <c r="AB41" t="n">
+      <c r="AI41" t="n">
         <v>1.316324609641298</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>175652244291.8241</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>6.461048492986389</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>60.64305460692668</v>
+      </c>
+      <c r="C42" t="n">
+        <v>8.044857591939921</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1.627870886700589</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1.27353852194787</v>
+      </c>
+      <c r="F42" t="n">
         <v>28.41067839248494</v>
       </c>
-      <c r="B42" t="n">
-        <v>8.044857591939921</v>
-      </c>
-      <c r="C42" t="n">
-        <v>60.64305460692668</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" t="n">
-        <v>0</v>
-      </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -4053,7 +5178,7 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>1.27353852194787</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -4062,7 +5187,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>1.627870886700589</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -4077,51 +5202,78 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
+        <v>0</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="n">
+        <v>0</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>1.245890556795715</v>
+      </c>
+      <c r="Z42" t="n">
         <v>0.007110329218215425</v>
       </c>
-      <c r="V42" t="n">
+      <c r="AA42" t="n">
         <v>1799.250473681775</v>
       </c>
-      <c r="W42" t="n">
+      <c r="AB42" t="n">
         <v>134.0924614145673</v>
       </c>
-      <c r="X42" t="n">
+      <c r="AC42" t="n">
         <v>-3.727425762119625</v>
       </c>
-      <c r="Y42" t="n">
+      <c r="AD42" t="n">
         <v>1.79411551312567</v>
       </c>
-      <c r="Z42" t="n">
+      <c r="AE42" t="n">
+        <v>1.010905472988587</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>1.860147110764234</v>
+      </c>
+      <c r="AG42" t="n">
         <v>0.07770798014440843</v>
       </c>
-      <c r="AA42" t="n">
+      <c r="AH42" t="n">
         <v>8.977317779911283</v>
       </c>
-      <c r="AB42" t="n">
+      <c r="AI42" t="n">
         <v>1.380448262440932</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>175036997342.4168</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>6.748794354291358</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>56.45497452822937</v>
+      </c>
+      <c r="C43" t="n">
+        <v>8.898314990229773</v>
+      </c>
+      <c r="D43" t="n">
+        <v>2.017091271534639</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1.949218890633843</v>
+      </c>
+      <c r="F43" t="n">
         <v>30.68040031937237</v>
       </c>
-      <c r="B43" t="n">
-        <v>8.898314990229773</v>
-      </c>
-      <c r="C43" t="n">
-        <v>56.45497452822937</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0</v>
-      </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -4139,7 +5291,7 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>1.949218890633843</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -4148,7 +5300,7 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>2.017091271534639</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -4163,51 +5315,78 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>1.246351054493832</v>
+      </c>
+      <c r="Z43" t="n">
         <v>0.00863808033441326</v>
       </c>
-      <c r="V43" t="n">
+      <c r="AA43" t="n">
         <v>1808.76384067771</v>
       </c>
-      <c r="W43" t="n">
+      <c r="AB43" t="n">
         <v>141.7838651296247</v>
       </c>
-      <c r="X43" t="n">
+      <c r="AC43" t="n">
         <v>-4.138784153391218</v>
       </c>
-      <c r="Y43" t="n">
+      <c r="AD43" t="n">
         <v>2.041999223562375</v>
       </c>
-      <c r="Z43" t="n">
+      <c r="AE43" t="n">
+        <v>1.080342891675505</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>1.853884998119784</v>
+      </c>
+      <c r="AG43" t="n">
         <v>0.08171077151635865</v>
       </c>
-      <c r="AA43" t="n">
+      <c r="AH43" t="n">
         <v>8.855275619814973</v>
       </c>
-      <c r="AB43" t="n">
+      <c r="AI43" t="n">
         <v>1.437625352181259</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>174482917571.2287</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>6.971176723553749</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>52.0813212558916</v>
+      </c>
+      <c r="C44" t="n">
+        <v>9.978366632442803</v>
+      </c>
+      <c r="D44" t="n">
+        <v>2.749581596154719</v>
+      </c>
+      <c r="E44" t="n">
+        <v>2.843106837929702</v>
+      </c>
+      <c r="F44" t="n">
         <v>32.34762367758118</v>
       </c>
-      <c r="B44" t="n">
-        <v>9.978366632442803</v>
-      </c>
-      <c r="C44" t="n">
-        <v>52.0813212558916</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4225,7 +5404,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>2.843106837929702</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -4234,7 +5413,7 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>2.749581596154719</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -4249,51 +5428,78 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>1.247033268751263</v>
+      </c>
+      <c r="Z44" t="n">
         <v>0.01027236935138879</v>
       </c>
-      <c r="V44" t="n">
+      <c r="AA44" t="n">
         <v>1820.039738440432</v>
       </c>
-      <c r="W44" t="n">
+      <c r="AB44" t="n">
         <v>150.5424983548378</v>
       </c>
-      <c r="X44" t="n">
+      <c r="AC44" t="n">
         <v>-4.604448383643675</v>
       </c>
-      <c r="Y44" t="n">
+      <c r="AD44" t="n">
         <v>2.307721894239452</v>
       </c>
-      <c r="Z44" t="n">
+      <c r="AE44" t="n">
+        <v>1.158255150577069</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>1.846771891091806</v>
+      </c>
+      <c r="AG44" t="n">
         <v>0.08618063524205122</v>
       </c>
-      <c r="AA44" t="n">
+      <c r="AH44" t="n">
         <v>8.721260727460336</v>
       </c>
-      <c r="AB44" t="n">
+      <c r="AI44" t="n">
         <v>1.497675826014134</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>173897242923.9612</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>7.205427530532082</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>48.0364962515561</v>
+      </c>
+      <c r="C45" t="n">
+        <v>10.66178261003462</v>
+      </c>
+      <c r="D45" t="n">
+        <v>3.802353389590545</v>
+      </c>
+      <c r="E45" t="n">
+        <v>4.232243536462632</v>
+      </c>
+      <c r="F45" t="n">
         <v>33.26712421235609</v>
       </c>
-      <c r="B45" t="n">
-        <v>10.66178261003462</v>
-      </c>
-      <c r="C45" t="n">
-        <v>48.0364962515561</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" t="n">
-        <v>0</v>
-      </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4311,7 +5517,7 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>4.232243536462632</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -4320,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>3.802353389590545</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -4335,51 +5541,78 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
+        <v>0</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0</v>
+      </c>
+      <c r="X45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>1.248136530410203</v>
+      </c>
+      <c r="Z45" t="n">
         <v>0.01231428695863964</v>
       </c>
-      <c r="V45" t="n">
+      <c r="AA45" t="n">
         <v>1831.299239219373</v>
       </c>
-      <c r="W45" t="n">
+      <c r="AB45" t="n">
         <v>158.6078760156398</v>
       </c>
-      <c r="X45" t="n">
+      <c r="AC45" t="n">
         <v>-5.180514748106642</v>
       </c>
-      <c r="Y45" t="n">
+      <c r="AD45" t="n">
         <v>2.633986523217033</v>
       </c>
-      <c r="Z45" t="n">
+      <c r="AE45" t="n">
+        <v>1.237607347534624</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>1.839750153401621</v>
+      </c>
+      <c r="AG45" t="n">
         <v>0.09053128741869934</v>
       </c>
-      <c r="AA45" t="n">
+      <c r="AH45" t="n">
         <v>8.589800428198293</v>
       </c>
-      <c r="AB45" t="n">
+      <c r="AI45" t="n">
         <v>1.558533015770604</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>173366707468.586</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>7.412726947557799</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>43.85245562775339</v>
+      </c>
+      <c r="C46" t="n">
+        <v>11.35006727185082</v>
+      </c>
+      <c r="D46" t="n">
+        <v>4.85287476521403</v>
+      </c>
+      <c r="E46" t="n">
+        <v>6.545349612862421</v>
+      </c>
+      <c r="F46" t="n">
         <v>33.39925272231932</v>
       </c>
-      <c r="B46" t="n">
-        <v>11.35006727185082</v>
-      </c>
-      <c r="C46" t="n">
-        <v>43.85245562775339</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4397,7 +5630,7 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>6.545349612862421</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -4406,7 +5639,7 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>4.85287476521403</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -4421,51 +5654,78 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
+        <v>0</v>
+      </c>
+      <c r="X46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>1.249984738370608</v>
+      </c>
+      <c r="Z46" t="n">
         <v>0.01495916889405634</v>
       </c>
-      <c r="V46" t="n">
+      <c r="AA46" t="n">
         <v>1846.388177677795</v>
       </c>
-      <c r="W46" t="n">
+      <c r="AB46" t="n">
         <v>168.8383196541722</v>
       </c>
-      <c r="X46" t="n">
+      <c r="AC46" t="n">
         <v>-6.044121021597624</v>
       </c>
-      <c r="Y46" t="n">
+      <c r="AD46" t="n">
         <v>3.049405535777334</v>
       </c>
-      <c r="Z46" t="n">
+      <c r="AE46" t="n">
+        <v>1.321138445804351</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>1.830610452069429</v>
+      </c>
+      <c r="AG46" t="n">
         <v>0.09624216603254504</v>
       </c>
-      <c r="AA46" t="n">
+      <c r="AH46" t="n">
         <v>8.425291436723283</v>
       </c>
-      <c r="AB46" t="n">
+      <c r="AI46" t="n">
         <v>1.641249905139774</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>172720571030.3567</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>7.674101424132123</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>39.84170193873135</v>
+      </c>
+      <c r="C47" t="n">
+        <v>11.48725055530047</v>
+      </c>
+      <c r="D47" t="n">
+        <v>6.488893749085666</v>
+      </c>
+      <c r="E47" t="n">
+        <v>9.348298941709157</v>
+      </c>
+      <c r="F47" t="n">
         <v>32.83385481517335</v>
       </c>
-      <c r="B47" t="n">
-        <v>11.48725055530047</v>
-      </c>
-      <c r="C47" t="n">
-        <v>39.84170193873135</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
-        <v>0</v>
-      </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -4483,7 +5743,7 @@
         <v>0</v>
       </c>
       <c r="M47" t="n">
-        <v>9.348298941709157</v>
+        <v>0</v>
       </c>
       <c r="N47" t="n">
         <v>0</v>
@@ -4492,7 +5752,7 @@
         <v>0</v>
       </c>
       <c r="P47" t="n">
-        <v>6.488893749085666</v>
+        <v>0</v>
       </c>
       <c r="Q47" t="n">
         <v>0</v>
@@ -4507,51 +5767,78 @@
         <v>0</v>
       </c>
       <c r="U47" t="n">
+        <v>0</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="n">
+        <v>0</v>
+      </c>
+      <c r="X47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>1.252242166995823</v>
+      </c>
+      <c r="Z47" t="n">
         <v>0.01743629115340805</v>
       </c>
-      <c r="V47" t="n">
+      <c r="AA47" t="n">
         <v>1860.800965761505</v>
       </c>
-      <c r="W47" t="n">
+      <c r="AB47" t="n">
         <v>177.2088662756244</v>
       </c>
-      <c r="X47" t="n">
+      <c r="AC47" t="n">
         <v>-6.935138924654915</v>
       </c>
-      <c r="Y47" t="n">
+      <c r="AD47" t="n">
         <v>3.443682539669018</v>
       </c>
-      <c r="Z47" t="n">
+      <c r="AE47" t="n">
+        <v>1.398595255162761</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>1.821888761922085</v>
+      </c>
+      <c r="AG47" t="n">
         <v>0.1011569661869414</v>
       </c>
-      <c r="AA47" t="n">
+      <c r="AH47" t="n">
         <v>8.266860634374265</v>
       </c>
-      <c r="AB47" t="n">
+      <c r="AI47" t="n">
         <v>1.714113191631074</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>172158461445.4207</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>7.895220268443979</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>34.92232354679246</v>
+      </c>
+      <c r="C48" t="n">
+        <v>11.3685841516441</v>
+      </c>
+      <c r="D48" t="n">
+        <v>8.058586414222969</v>
+      </c>
+      <c r="E48" t="n">
+        <v>14.42462712929108</v>
+      </c>
+      <c r="F48" t="n">
         <v>31.22587875804939</v>
       </c>
-      <c r="B48" t="n">
-        <v>11.3685841516441</v>
-      </c>
-      <c r="C48" t="n">
-        <v>34.92232354679246</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" t="n">
-        <v>0</v>
-      </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -4569,7 +5856,7 @@
         <v>0</v>
       </c>
       <c r="M48" t="n">
-        <v>14.42462712929108</v>
+        <v>0</v>
       </c>
       <c r="N48" t="n">
         <v>0</v>
@@ -4578,7 +5865,7 @@
         <v>0</v>
       </c>
       <c r="P48" t="n">
-        <v>8.058586414222969</v>
+        <v>0</v>
       </c>
       <c r="Q48" t="n">
         <v>0</v>
@@ -4593,51 +5880,78 @@
         <v>0</v>
       </c>
       <c r="U48" t="n">
+        <v>0</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="n">
+        <v>0</v>
+      </c>
+      <c r="X48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>1.256244309160384</v>
+      </c>
+      <c r="Z48" t="n">
         <v>0.02075494273154538</v>
       </c>
-      <c r="V48" t="n">
+      <c r="AA48" t="n">
         <v>1883.934472518733</v>
       </c>
-      <c r="W48" t="n">
+      <c r="AB48" t="n">
         <v>188.6070784106394</v>
       </c>
-      <c r="X48" t="n">
+      <c r="AC48" t="n">
         <v>-8.340592916218087</v>
       </c>
-      <c r="Y48" t="n">
+      <c r="AD48" t="n">
         <v>3.955150496361188</v>
       </c>
-      <c r="Z48" t="n">
+      <c r="AE48" t="n">
+        <v>1.473846296818674</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>1.808042059443345</v>
+      </c>
+      <c r="AG48" t="n">
         <v>0.1080532242687294</v>
       </c>
-      <c r="AA48" t="n">
+      <c r="AH48" t="n">
         <v>8.022301996617198</v>
       </c>
-      <c r="AB48" t="n">
+      <c r="AI48" t="n">
         <v>1.820110306355468</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>171282649778.7812</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>8.195376516670242</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>31.12242471676077</v>
+      </c>
+      <c r="C49" t="n">
+        <v>11.25353181117791</v>
+      </c>
+      <c r="D49" t="n">
+        <v>9.502390962398529</v>
+      </c>
+      <c r="E49" t="n">
+        <v>20.12114404994593</v>
+      </c>
+      <c r="F49" t="n">
         <v>28.00050845971687</v>
       </c>
-      <c r="B49" t="n">
-        <v>11.25353181117791</v>
-      </c>
-      <c r="C49" t="n">
-        <v>31.12242471676077</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" t="n">
-        <v>0</v>
-      </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -4655,7 +5969,7 @@
         <v>0</v>
       </c>
       <c r="M49" t="n">
-        <v>20.12114404994593</v>
+        <v>0</v>
       </c>
       <c r="N49" t="n">
         <v>0</v>
@@ -4664,7 +5978,7 @@
         <v>0</v>
       </c>
       <c r="P49" t="n">
-        <v>9.502390962398529</v>
+        <v>0</v>
       </c>
       <c r="Q49" t="n">
         <v>0</v>
@@ -4679,51 +5993,78 @@
         <v>0</v>
       </c>
       <c r="U49" t="n">
+        <v>0</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="n">
+        <v>0</v>
+      </c>
+      <c r="X49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>1.260740952594144</v>
+      </c>
+      <c r="Z49" t="n">
         <v>0.02333668515548367</v>
       </c>
-      <c r="V49" t="n">
+      <c r="AA49" t="n">
         <v>1908.461926194631</v>
       </c>
-      <c r="W49" t="n">
+      <c r="AB49" t="n">
         <v>198.2863400414355</v>
       </c>
-      <c r="X49" t="n">
+      <c r="AC49" t="n">
         <v>-9.685545383428858</v>
       </c>
-      <c r="Y49" t="n">
+      <c r="AD49" t="n">
         <v>4.367806736618214</v>
       </c>
-      <c r="Z49" t="n">
+      <c r="AE49" t="n">
+        <v>1.518468794192877</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>1.793805032019792</v>
+      </c>
+      <c r="AG49" t="n">
         <v>0.1140930570564763</v>
       </c>
-      <c r="AA49" t="n">
+      <c r="AH49" t="n">
         <v>7.780497813745046</v>
       </c>
-      <c r="AB49" t="n">
+      <c r="AI49" t="n">
         <v>1.914868691477184</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>170443861641.2711</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>8.486112464276259</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>59.73922474830303</v>
+      </c>
+      <c r="C50" t="n">
+        <v>5.573665496030907</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1.039158233047526</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.8893515950869282</v>
+      </c>
+      <c r="F50" t="n">
         <v>32.75859992753161</v>
       </c>
-      <c r="B50" t="n">
-        <v>5.573665496030907</v>
-      </c>
-      <c r="C50" t="n">
-        <v>59.73922474830303</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" t="n">
-        <v>0</v>
-      </c>
       <c r="G50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4741,7 +6082,7 @@
         <v>0</v>
       </c>
       <c r="M50" t="n">
-        <v>0.8893515950869282</v>
+        <v>0</v>
       </c>
       <c r="N50" t="n">
         <v>0</v>
@@ -4750,7 +6091,7 @@
         <v>0</v>
       </c>
       <c r="P50" t="n">
-        <v>1.039158233047526</v>
+        <v>0</v>
       </c>
       <c r="Q50" t="n">
         <v>0</v>
@@ -4765,51 +6106,78 @@
         <v>0</v>
       </c>
       <c r="U50" t="n">
+        <v>0</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="n">
+        <v>0</v>
+      </c>
+      <c r="X50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>1.24525506892386</v>
+      </c>
+      <c r="Z50" t="n">
         <v>0.006095786288845258</v>
       </c>
-      <c r="V50" t="n">
+      <c r="AA50" t="n">
         <v>1788.564284731499</v>
       </c>
-      <c r="W50" t="n">
+      <c r="AB50" t="n">
         <v>115.1903414599131</v>
       </c>
-      <c r="X50" t="n">
+      <c r="AC50" t="n">
         <v>-3.196618219872452</v>
       </c>
-      <c r="Y50" t="n">
+      <c r="AD50" t="n">
         <v>1.520305149933684</v>
       </c>
-      <c r="Z50" t="n">
+      <c r="AE50" t="n">
+        <v>0.9448412094328298</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>1.864689833974114</v>
+      </c>
+      <c r="AG50" t="n">
         <v>0.06873545438315187</v>
       </c>
-      <c r="AA50" t="n">
+      <c r="AH50" t="n">
         <v>9.022792524285752</v>
       </c>
-      <c r="AB50" t="n">
+      <c r="AI50" t="n">
         <v>1.276817161411238</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>175214411505.1251</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>6.263133264965003</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>55.41123198552285</v>
+      </c>
+      <c r="C51" t="n">
+        <v>6.384230536662519</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1.341904702114899</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1.258086825061164</v>
+      </c>
+      <c r="F51" t="n">
         <v>35.60454595063857</v>
       </c>
-      <c r="B51" t="n">
-        <v>6.384230536662519</v>
-      </c>
-      <c r="C51" t="n">
-        <v>55.41123198552285</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0</v>
-      </c>
-      <c r="E51" t="n">
-        <v>0</v>
-      </c>
-      <c r="F51" t="n">
-        <v>0</v>
-      </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4827,7 +6195,7 @@
         <v>0</v>
       </c>
       <c r="M51" t="n">
-        <v>1.258086825061164</v>
+        <v>0</v>
       </c>
       <c r="N51" t="n">
         <v>0</v>
@@ -4836,7 +6204,7 @@
         <v>0</v>
       </c>
       <c r="P51" t="n">
-        <v>1.341904702114899</v>
+        <v>0</v>
       </c>
       <c r="Q51" t="n">
         <v>0</v>
@@ -4851,51 +6219,78 @@
         <v>0</v>
       </c>
       <c r="U51" t="n">
+        <v>0</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="n">
+        <v>0</v>
+      </c>
+      <c r="X51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>1.245442404282362</v>
+      </c>
+      <c r="Z51" t="n">
         <v>0.007128359451633718</v>
       </c>
-      <c r="V51" t="n">
+      <c r="AA51" t="n">
         <v>1796.818681683573</v>
       </c>
-      <c r="W51" t="n">
+      <c r="AB51" t="n">
         <v>122.5933166383642</v>
       </c>
-      <c r="X51" t="n">
+      <c r="AC51" t="n">
         <v>-3.470766706101379</v>
       </c>
-      <c r="Y51" t="n">
+      <c r="AD51" t="n">
         <v>1.68934706564176</v>
       </c>
-      <c r="Z51" t="n">
+      <c r="AE51" t="n">
+        <v>1.00383874328843</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>1.859027386626211</v>
+      </c>
+      <c r="AG51" t="n">
         <v>0.0723061979511995</v>
       </c>
-      <c r="AA51" t="n">
+      <c r="AH51" t="n">
         <v>8.908322494404782</v>
       </c>
-      <c r="AB51" t="n">
+      <c r="AI51" t="n">
         <v>1.323155177163384</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>174677084188.5663</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>6.460053835945564</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>51.41799930683538</v>
+      </c>
+      <c r="C52" t="n">
+        <v>6.901093732753926</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1.78990513097912</v>
+      </c>
+      <c r="E52" t="n">
+        <v>1.752883934036925</v>
+      </c>
+      <c r="F52" t="n">
         <v>38.13811789539464</v>
       </c>
-      <c r="B52" t="n">
-        <v>6.901093732753926</v>
-      </c>
-      <c r="C52" t="n">
-        <v>51.41799930683538</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F52" t="n">
-        <v>0</v>
-      </c>
       <c r="G52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4913,7 +6308,7 @@
         <v>0</v>
       </c>
       <c r="M52" t="n">
-        <v>1.752883934036925</v>
+        <v>0</v>
       </c>
       <c r="N52" t="n">
         <v>0</v>
@@ -4922,7 +6317,7 @@
         <v>0</v>
       </c>
       <c r="P52" t="n">
-        <v>1.78990513097912</v>
+        <v>0</v>
       </c>
       <c r="Q52" t="n">
         <v>0</v>
@@ -4937,51 +6332,78 @@
         <v>0</v>
       </c>
       <c r="U52" t="n">
+        <v>0</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="n">
+        <v>0</v>
+      </c>
+      <c r="X52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>1.245740417631656</v>
+      </c>
+      <c r="Z52" t="n">
         <v>0.008294079547027725</v>
       </c>
-      <c r="V52" t="n">
+      <c r="AA52" t="n">
         <v>1804.029908247308</v>
       </c>
-      <c r="W52" t="n">
+      <c r="AB52" t="n">
         <v>128.1360299999582</v>
       </c>
-      <c r="X52" t="n">
+      <c r="AC52" t="n">
         <v>-3.719434506810907</v>
       </c>
-      <c r="Y52" t="n">
+      <c r="AD52" t="n">
         <v>1.86547272251768</v>
       </c>
-      <c r="Z52" t="n">
+      <c r="AE52" t="n">
+        <v>1.056614511962275</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>1.854001204720749</v>
+      </c>
+      <c r="AG52" t="n">
         <v>0.07501018829817835</v>
       </c>
-      <c r="AA52" t="n">
+      <c r="AH52" t="n">
         <v>8.804901937406056</v>
       </c>
-      <c r="AB52" t="n">
+      <c r="AI52" t="n">
         <v>1.357568245523672</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>174208915903.5884</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>6.588216566499123</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>48.26557354651341</v>
+      </c>
+      <c r="C53" t="n">
+        <v>7.636039101874935</v>
+      </c>
+      <c r="D53" t="n">
+        <v>2.314167207697084</v>
+      </c>
+      <c r="E53" t="n">
+        <v>2.646214637996664</v>
+      </c>
+      <c r="F53" t="n">
         <v>39.1380055059179</v>
       </c>
-      <c r="B53" t="n">
-        <v>7.636039101874935</v>
-      </c>
-      <c r="C53" t="n">
-        <v>48.26557354651341</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0</v>
-      </c>
-      <c r="E53" t="n">
-        <v>0</v>
-      </c>
-      <c r="F53" t="n">
-        <v>0</v>
-      </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4999,7 +6421,7 @@
         <v>0</v>
       </c>
       <c r="M53" t="n">
-        <v>2.646214637996664</v>
+        <v>0</v>
       </c>
       <c r="N53" t="n">
         <v>0</v>
@@ -5008,7 +6430,7 @@
         <v>0</v>
       </c>
       <c r="P53" t="n">
-        <v>2.314167207697084</v>
+        <v>0</v>
       </c>
       <c r="Q53" t="n">
         <v>0</v>
@@ -5023,51 +6445,78 @@
         <v>0</v>
       </c>
       <c r="U53" t="n">
+        <v>0</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="n">
+        <v>0</v>
+      </c>
+      <c r="X53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>1.246436591561592</v>
+      </c>
+      <c r="Z53" t="n">
         <v>0.01000720715854496</v>
       </c>
-      <c r="V53" t="n">
+      <c r="AA53" t="n">
         <v>1813.027975527215</v>
       </c>
-      <c r="W53" t="n">
+      <c r="AB53" t="n">
         <v>136.7064244342563</v>
       </c>
-      <c r="X53" t="n">
+      <c r="AC53" t="n">
         <v>-4.151003253594608</v>
       </c>
-      <c r="Y53" t="n">
+      <c r="AD53" t="n">
         <v>2.141067640128211</v>
       </c>
-      <c r="Z53" t="n">
+      <c r="AE53" t="n">
+        <v>1.118163879032658</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>1.848393550379453</v>
+      </c>
+      <c r="AG53" t="n">
         <v>0.07934200511986528</v>
       </c>
-      <c r="AA53" t="n">
+      <c r="AH53" t="n">
         <v>8.700864600145554</v>
       </c>
-      <c r="AB53" t="n">
+      <c r="AI53" t="n">
         <v>1.413398103016241</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>173763268973.1132</v>
+      </c>
+      <c r="AK53" t="n">
+        <v>6.785711939452129</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>44.39734559290023</v>
+      </c>
+      <c r="C54" t="n">
+        <v>8.270604400236421</v>
+      </c>
+      <c r="D54" t="n">
+        <v>3.020511654710611</v>
+      </c>
+      <c r="E54" t="n">
+        <v>4.141460551104069</v>
+      </c>
+      <c r="F54" t="n">
         <v>40.17007780104868</v>
       </c>
-      <c r="B54" t="n">
-        <v>8.270604400236421</v>
-      </c>
-      <c r="C54" t="n">
-        <v>44.39734559290023</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0</v>
-      </c>
-      <c r="E54" t="n">
-        <v>0</v>
-      </c>
-      <c r="F54" t="n">
-        <v>0</v>
-      </c>
       <c r="G54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -5085,7 +6534,7 @@
         <v>0</v>
       </c>
       <c r="M54" t="n">
-        <v>4.141460551104069</v>
+        <v>0</v>
       </c>
       <c r="N54" t="n">
         <v>0</v>
@@ -5094,7 +6543,7 @@
         <v>0</v>
       </c>
       <c r="P54" t="n">
-        <v>3.020511654710611</v>
+        <v>0</v>
       </c>
       <c r="Q54" t="n">
         <v>0</v>
@@ -5109,51 +6558,78 @@
         <v>0</v>
       </c>
       <c r="U54" t="n">
+        <v>0</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="n">
+        <v>0</v>
+      </c>
+      <c r="X54" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>1.247599964693244</v>
+      </c>
+      <c r="Z54" t="n">
         <v>0.01227551845386234</v>
       </c>
-      <c r="V54" t="n">
+      <c r="AA54" t="n">
         <v>1824.550618061278</v>
       </c>
-      <c r="W54" t="n">
+      <c r="AB54" t="n">
         <v>146.4191650147858</v>
       </c>
-      <c r="X54" t="n">
+      <c r="AC54" t="n">
         <v>-4.757179788436318</v>
       </c>
-      <c r="Y54" t="n">
+      <c r="AD54" t="n">
         <v>2.485238178044922</v>
       </c>
-      <c r="Z54" t="n">
+      <c r="AE54" t="n">
+        <v>1.19010999302559</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>1.841190264698068</v>
+      </c>
+      <c r="AG54" t="n">
         <v>0.08442431196365888</v>
       </c>
-      <c r="AA54" t="n">
+      <c r="AH54" t="n">
         <v>8.567005346020188</v>
       </c>
-      <c r="AB54" t="n">
+      <c r="AI54" t="n">
         <v>1.481049154564836</v>
+      </c>
+      <c r="AJ54" t="n">
+        <v>173210023483.2144</v>
+      </c>
+      <c r="AK54" t="n">
+        <v>6.999704038215758</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>40.91661268027966</v>
+      </c>
+      <c r="C55" t="n">
+        <v>8.64227767036617</v>
+      </c>
+      <c r="D55" t="n">
+        <v>3.951556572806229</v>
+      </c>
+      <c r="E55" t="n">
+        <v>6.171777873210093</v>
+      </c>
+      <c r="F55" t="n">
         <v>40.31777520333784</v>
       </c>
-      <c r="B55" t="n">
-        <v>8.64227767036617</v>
-      </c>
-      <c r="C55" t="n">
-        <v>40.91661268027966</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0</v>
-      </c>
-      <c r="E55" t="n">
-        <v>0</v>
-      </c>
-      <c r="F55" t="n">
-        <v>0</v>
-      </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -5171,7 +6647,7 @@
         <v>0</v>
       </c>
       <c r="M55" t="n">
-        <v>6.171777873210093</v>
+        <v>0</v>
       </c>
       <c r="N55" t="n">
         <v>0</v>
@@ -5180,7 +6656,7 @@
         <v>0</v>
       </c>
       <c r="P55" t="n">
-        <v>3.951556572806229</v>
+        <v>0</v>
       </c>
       <c r="Q55" t="n">
         <v>0</v>
@@ -5195,51 +6671,78 @@
         <v>0</v>
       </c>
       <c r="U55" t="n">
+        <v>0</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="n">
+        <v>0</v>
+      </c>
+      <c r="X55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>1.249216689913992</v>
+      </c>
+      <c r="Z55" t="n">
         <v>0.01468111055202743</v>
       </c>
-      <c r="V55" t="n">
+      <c r="AA55" t="n">
         <v>1836.743187122582</v>
       </c>
-      <c r="W55" t="n">
+      <c r="AB55" t="n">
         <v>155.9787304874811</v>
       </c>
-      <c r="X55" t="n">
+      <c r="AC55" t="n">
         <v>-5.49034804907873</v>
       </c>
-      <c r="Y55" t="n">
+      <c r="AD55" t="n">
         <v>2.845935735902519</v>
       </c>
-      <c r="Z55" t="n">
+      <c r="AE55" t="n">
+        <v>1.261928835435443</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>1.833742057929748</v>
+      </c>
+      <c r="AG55" t="n">
         <v>0.08965051680342165</v>
       </c>
-      <c r="AA55" t="n">
+      <c r="AH55" t="n">
         <v>8.431592381459648</v>
       </c>
-      <c r="AB55" t="n">
+      <c r="AI55" t="n">
         <v>1.553559684143321</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>172688563514.7172</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>7.215509246985831</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>37.8452547701464</v>
+      </c>
+      <c r="C56" t="n">
+        <v>9.076333403675443</v>
+      </c>
+      <c r="D56" t="n">
+        <v>4.839194406156778</v>
+      </c>
+      <c r="E56" t="n">
+        <v>9.345930521434173</v>
+      </c>
+      <c r="F56" t="n">
         <v>38.89328689858721</v>
       </c>
-      <c r="B56" t="n">
-        <v>9.076333403675443</v>
-      </c>
-      <c r="C56" t="n">
-        <v>37.8452547701464</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0</v>
-      </c>
-      <c r="E56" t="n">
-        <v>0</v>
-      </c>
-      <c r="F56" t="n">
-        <v>0</v>
-      </c>
       <c r="G56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -5257,7 +6760,7 @@
         <v>0</v>
       </c>
       <c r="M56" t="n">
-        <v>9.345930521434173</v>
+        <v>0</v>
       </c>
       <c r="N56" t="n">
         <v>0</v>
@@ -5266,7 +6769,7 @@
         <v>0</v>
       </c>
       <c r="P56" t="n">
-        <v>4.839194406156778</v>
+        <v>0</v>
       </c>
       <c r="Q56" t="n">
         <v>0</v>
@@ -5281,51 +6784,78 @@
         <v>0</v>
       </c>
       <c r="U56" t="n">
+        <v>0</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="n">
+        <v>0</v>
+      </c>
+      <c r="X56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>1.251778842410567</v>
+      </c>
+      <c r="Z56" t="n">
         <v>0.01755786066840242</v>
       </c>
-      <c r="V56" t="n">
+      <c r="AA56" t="n">
         <v>1853.44487441358</v>
       </c>
-      <c r="W56" t="n">
+      <c r="AB56" t="n">
         <v>168.4388771926217</v>
       </c>
-      <c r="X56" t="n">
+      <c r="AC56" t="n">
         <v>-6.580870574065616</v>
       </c>
-      <c r="Y56" t="n">
+      <c r="AD56" t="n">
         <v>3.290003139873237</v>
       </c>
-      <c r="Z56" t="n">
+      <c r="AE56" t="n">
+        <v>1.338566411978428</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>1.82400597677583</v>
+      </c>
+      <c r="AG56" t="n">
         <v>0.09668168763662011</v>
       </c>
-      <c r="AA56" t="n">
+      <c r="AH56" t="n">
         <v>8.265080646042307</v>
       </c>
-      <c r="AB56" t="n">
+      <c r="AI56" t="n">
         <v>1.656063968330844</v>
+      </c>
+      <c r="AJ56" t="n">
+        <v>172070822407.6116</v>
+      </c>
+      <c r="AK56" t="n">
+        <v>7.524338406527496</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>34.0855927676545</v>
+      </c>
+      <c r="C57" t="n">
+        <v>9.599410586395605</v>
+      </c>
+      <c r="D57" t="n">
+        <v>6.401293592862622</v>
+      </c>
+      <c r="E57" t="n">
+        <v>13.87879910761875</v>
+      </c>
+      <c r="F57" t="n">
         <v>36.03490394546852</v>
       </c>
-      <c r="B57" t="n">
-        <v>9.599410586395605</v>
-      </c>
-      <c r="C57" t="n">
-        <v>34.0855927676545</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0</v>
-      </c>
-      <c r="E57" t="n">
-        <v>0</v>
-      </c>
-      <c r="F57" t="n">
-        <v>0</v>
-      </c>
       <c r="G57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -5343,7 +6873,7 @@
         <v>0</v>
       </c>
       <c r="M57" t="n">
-        <v>13.87879910761875</v>
+        <v>0</v>
       </c>
       <c r="N57" t="n">
         <v>0</v>
@@ -5352,7 +6882,7 @@
         <v>0</v>
       </c>
       <c r="P57" t="n">
-        <v>6.401293592862622</v>
+        <v>0</v>
       </c>
       <c r="Q57" t="n">
         <v>0</v>
@@ -5367,51 +6897,78 @@
         <v>0</v>
       </c>
       <c r="U57" t="n">
+        <v>0</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="n">
+        <v>0</v>
+      </c>
+      <c r="X57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>1.255455669784387</v>
+      </c>
+      <c r="Z57" t="n">
         <v>0.02057324753993761</v>
       </c>
-      <c r="V57" t="n">
+      <c r="AA57" t="n">
         <v>1876.078506741097</v>
       </c>
-      <c r="W57" t="n">
+      <c r="AB57" t="n">
         <v>182.160898661698</v>
       </c>
-      <c r="X57" t="n">
+      <c r="AC57" t="n">
         <v>-7.928390226228701</v>
       </c>
-      <c r="Y57" t="n">
+      <c r="AD57" t="n">
         <v>3.772239757434389</v>
       </c>
-      <c r="Z57" t="n">
+      <c r="AE57" t="n">
+        <v>1.423474927358381</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>1.811032871841229</v>
+      </c>
+      <c r="AG57" t="n">
         <v>0.104529959423726</v>
       </c>
-      <c r="AA57" t="n">
+      <c r="AH57" t="n">
         <v>8.046627103903885</v>
       </c>
-      <c r="AB57" t="n">
+      <c r="AI57" t="n">
         <v>1.770783550118297</v>
+      </c>
+      <c r="AJ57" t="n">
+        <v>171296552454.5485</v>
+      </c>
+      <c r="AK57" t="n">
+        <v>7.893324959191014</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>30.17438283411464</v>
+      </c>
+      <c r="C58" t="n">
+        <v>9.210570393729387</v>
+      </c>
+      <c r="D58" t="n">
+        <v>7.632859385176974</v>
+      </c>
+      <c r="E58" t="n">
+        <v>19.9404856197561</v>
+      </c>
+      <c r="F58" t="n">
         <v>33.0417017672229</v>
       </c>
-      <c r="B58" t="n">
-        <v>9.210570393729387</v>
-      </c>
-      <c r="C58" t="n">
-        <v>30.17438283411464</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0</v>
-      </c>
-      <c r="E58" t="n">
-        <v>0</v>
-      </c>
-      <c r="F58" t="n">
-        <v>0</v>
-      </c>
       <c r="G58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -5429,7 +6986,7 @@
         <v>0</v>
       </c>
       <c r="M58" t="n">
-        <v>19.9404856197561</v>
+        <v>0</v>
       </c>
       <c r="N58" t="n">
         <v>0</v>
@@ -5438,7 +6995,7 @@
         <v>0</v>
       </c>
       <c r="P58" t="n">
-        <v>7.632859385176974</v>
+        <v>0</v>
       </c>
       <c r="Q58" t="n">
         <v>0</v>
@@ -5453,51 +7010,78 @@
         <v>0</v>
       </c>
       <c r="U58" t="n">
+        <v>0</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="n">
+        <v>0</v>
+      </c>
+      <c r="X58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>1.26020345145703</v>
+      </c>
+      <c r="Z58" t="n">
         <v>0.02343822468082491</v>
       </c>
-      <c r="V58" t="n">
+      <c r="AA58" t="n">
         <v>1901.216516047982</v>
       </c>
-      <c r="W58" t="n">
+      <c r="AB58" t="n">
         <v>193.2800712147922</v>
       </c>
-      <c r="X58" t="n">
+      <c r="AC58" t="n">
         <v>-9.356054516221842</v>
       </c>
-      <c r="Y58" t="n">
+      <c r="AD58" t="n">
         <v>4.19591724725608</v>
       </c>
-      <c r="Z58" t="n">
+      <c r="AE58" t="n">
+        <v>1.471940377951642</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>1.796296549296851</v>
+      </c>
+      <c r="AG58" t="n">
         <v>0.111290116753855</v>
       </c>
-      <c r="AA58" t="n">
+      <c r="AH58" t="n">
         <v>7.794409896784925</v>
       </c>
-      <c r="AB58" t="n">
+      <c r="AI58" t="n">
         <v>1.874919214437808</v>
+      </c>
+      <c r="AJ58" t="n">
+        <v>170416038832.6851</v>
+      </c>
+      <c r="AK58" t="n">
+        <v>8.186996502518813</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>48.80542061907139</v>
+      </c>
+      <c r="C59" t="n">
+        <v>4.861815003956776</v>
+      </c>
+      <c r="D59" t="n">
+        <v>1.147577378114605</v>
+      </c>
+      <c r="E59" t="n">
+        <v>1.197504012874014</v>
+      </c>
+      <c r="F59" t="n">
         <v>43.98768298598323</v>
       </c>
-      <c r="B59" t="n">
-        <v>4.861815003956776</v>
-      </c>
-      <c r="C59" t="n">
-        <v>48.80542061907139</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0</v>
-      </c>
-      <c r="E59" t="n">
-        <v>0</v>
-      </c>
-      <c r="F59" t="n">
-        <v>0</v>
-      </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -5515,7 +7099,7 @@
         <v>0</v>
       </c>
       <c r="M59" t="n">
-        <v>1.197504012874014</v>
+        <v>0</v>
       </c>
       <c r="N59" t="n">
         <v>0</v>
@@ -5524,7 +7108,7 @@
         <v>0</v>
       </c>
       <c r="P59" t="n">
-        <v>1.147577378114605</v>
+        <v>0</v>
       </c>
       <c r="Q59" t="n">
         <v>0</v>
@@ -5539,51 +7123,78 @@
         <v>0</v>
       </c>
       <c r="U59" t="n">
+        <v>0</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="n">
+        <v>0</v>
+      </c>
+      <c r="X59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>1.244909267179054</v>
+      </c>
+      <c r="Z59" t="n">
         <v>0.007020681420399731</v>
       </c>
-      <c r="V59" t="n">
+      <c r="AA59" t="n">
         <v>1795.845093220265</v>
       </c>
-      <c r="W59" t="n">
+      <c r="AB59" t="n">
         <v>110.2634744151601</v>
       </c>
-      <c r="X59" t="n">
+      <c r="AC59" t="n">
         <v>-3.169877969441686</v>
       </c>
-      <c r="Y59" t="n">
+      <c r="AD59" t="n">
         <v>1.533346063754177</v>
       </c>
-      <c r="Z59" t="n">
+      <c r="AE59" t="n">
+        <v>0.9774224263206003</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>1.856712811541142</v>
+      </c>
+      <c r="AG59" t="n">
         <v>0.06648338701479102</v>
       </c>
-      <c r="AA59" t="n">
+      <c r="AH59" t="n">
         <v>8.811654728110417</v>
       </c>
-      <c r="AB59" t="n">
+      <c r="AI59" t="n">
         <v>1.257111884835559</v>
+      </c>
+      <c r="AJ59" t="n">
+        <v>174180674670.2687</v>
+      </c>
+      <c r="AK59" t="n">
+        <v>6.136610962002402</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>45.86244388137209</v>
+      </c>
+      <c r="C60" t="n">
+        <v>5.261669557711915</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1.400158731838864</v>
+      </c>
+      <c r="E60" t="n">
+        <v>1.775096118004433</v>
+      </c>
+      <c r="F60" t="n">
         <v>45.7006317110727</v>
       </c>
-      <c r="B60" t="n">
-        <v>5.261669557711915</v>
-      </c>
-      <c r="C60" t="n">
-        <v>45.86244388137209</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0</v>
-      </c>
-      <c r="E60" t="n">
-        <v>0</v>
-      </c>
-      <c r="F60" t="n">
-        <v>0</v>
-      </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -5601,7 +7212,7 @@
         <v>0</v>
       </c>
       <c r="M60" t="n">
-        <v>1.775096118004433</v>
+        <v>0</v>
       </c>
       <c r="N60" t="n">
         <v>0</v>
@@ -5610,7 +7221,7 @@
         <v>0</v>
       </c>
       <c r="P60" t="n">
-        <v>1.400158731838864</v>
+        <v>0</v>
       </c>
       <c r="Q60" t="n">
         <v>0</v>
@@ -5625,51 +7236,78 @@
         <v>0</v>
       </c>
       <c r="U60" t="n">
+        <v>0</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="n">
+        <v>0</v>
+      </c>
+      <c r="X60" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>1.245300848954856</v>
+      </c>
+      <c r="Z60" t="n">
         <v>0.008384986032816942</v>
       </c>
-      <c r="V60" t="n">
+      <c r="AA60" t="n">
         <v>1802.148573118088</v>
       </c>
-      <c r="W60" t="n">
+      <c r="AB60" t="n">
         <v>116.5216306197396</v>
       </c>
-      <c r="X60" t="n">
+      <c r="AC60" t="n">
         <v>-3.427202865796386</v>
       </c>
-      <c r="Y60" t="n">
+      <c r="AD60" t="n">
         <v>1.740534888920838</v>
       </c>
-      <c r="Z60" t="n">
+      <c r="AE60" t="n">
+        <v>1.016552130412386</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>1.852464688984428</v>
+      </c>
+      <c r="AG60" t="n">
         <v>0.06946583971910668</v>
       </c>
-      <c r="AA60" t="n">
+      <c r="AH60" t="n">
         <v>8.727249723932941</v>
       </c>
-      <c r="AB60" t="n">
+      <c r="AI60" t="n">
         <v>1.291995277657361</v>
+      </c>
+      <c r="AJ60" t="n">
+        <v>173802780464.3768</v>
+      </c>
+      <c r="AK60" t="n">
+        <v>6.247375108333035</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>42.95387824215434</v>
+      </c>
+      <c r="C61" t="n">
+        <v>5.9600395804174</v>
+      </c>
+      <c r="D61" t="n">
+        <v>1.756346788972866</v>
+      </c>
+      <c r="E61" t="n">
+        <v>2.650078640641265</v>
+      </c>
+      <c r="F61" t="n">
         <v>46.67965674781412</v>
       </c>
-      <c r="B61" t="n">
-        <v>5.9600395804174</v>
-      </c>
-      <c r="C61" t="n">
-        <v>42.95387824215434</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0</v>
-      </c>
-      <c r="E61" t="n">
-        <v>0</v>
-      </c>
-      <c r="F61" t="n">
-        <v>0</v>
-      </c>
       <c r="G61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -5687,7 +7325,7 @@
         <v>0</v>
       </c>
       <c r="M61" t="n">
-        <v>2.650078640641265</v>
+        <v>0</v>
       </c>
       <c r="N61" t="n">
         <v>0</v>
@@ -5696,7 +7334,7 @@
         <v>0</v>
       </c>
       <c r="P61" t="n">
-        <v>1.756346788972866</v>
+        <v>0</v>
       </c>
       <c r="Q61" t="n">
         <v>0</v>
@@ -5711,51 +7349,78 @@
         <v>0</v>
       </c>
       <c r="U61" t="n">
+        <v>0</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="n">
+        <v>0</v>
+      </c>
+      <c r="X61" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>1.24597449037868</v>
+      </c>
+      <c r="Z61" t="n">
         <v>0.01006730639377948</v>
       </c>
-      <c r="V61" t="n">
+      <c r="AA61" t="n">
         <v>1810.787089402293</v>
       </c>
-      <c r="W61" t="n">
+      <c r="AB61" t="n">
         <v>125.7638995629434</v>
       </c>
-      <c r="X61" t="n">
+      <c r="AC61" t="n">
         <v>-3.815018955229054</v>
       </c>
-      <c r="Y61" t="n">
+      <c r="AD61" t="n">
         <v>1.99785389706251</v>
       </c>
-      <c r="Z61" t="n">
+      <c r="AE61" t="n">
+        <v>1.069385526390425</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>1.8470883820476</v>
+      </c>
+      <c r="AG61" t="n">
         <v>0.07390825546166216</v>
       </c>
-      <c r="AA61" t="n">
+      <c r="AH61" t="n">
         <v>8.628153340593789</v>
       </c>
-      <c r="AB61" t="n">
+      <c r="AI61" t="n">
         <v>1.344226957979696</v>
+      </c>
+      <c r="AJ61" t="n">
+        <v>173372671875.4399</v>
+      </c>
+      <c r="AK61" t="n">
+        <v>6.422161863396839</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>39.99189540478646</v>
+      </c>
+      <c r="C62" t="n">
+        <v>6.459960652427106</v>
+      </c>
+      <c r="D62" t="n">
+        <v>2.294580088479436</v>
+      </c>
+      <c r="E62" t="n">
+        <v>3.714419367589803</v>
+      </c>
+      <c r="F62" t="n">
         <v>47.53914448671719</v>
       </c>
-      <c r="B62" t="n">
-        <v>6.459960652427106</v>
-      </c>
-      <c r="C62" t="n">
-        <v>39.99189540478646</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0</v>
-      </c>
-      <c r="E62" t="n">
-        <v>0</v>
-      </c>
-      <c r="F62" t="n">
-        <v>0</v>
-      </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -5773,7 +7438,7 @@
         <v>0</v>
       </c>
       <c r="M62" t="n">
-        <v>3.714419367589803</v>
+        <v>0</v>
       </c>
       <c r="N62" t="n">
         <v>0</v>
@@ -5782,7 +7447,7 @@
         <v>0</v>
       </c>
       <c r="P62" t="n">
-        <v>2.294580088479436</v>
+        <v>0</v>
       </c>
       <c r="Q62" t="n">
         <v>0</v>
@@ -5797,51 +7462,78 @@
         <v>0</v>
       </c>
       <c r="U62" t="n">
+        <v>0</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="n">
+        <v>0</v>
+      </c>
+      <c r="X62" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>1.246800050244797</v>
+      </c>
+      <c r="Z62" t="n">
         <v>0.01174873452414173</v>
       </c>
-      <c r="V62" t="n">
+      <c r="AA62" t="n">
         <v>1819.333862307396</v>
       </c>
-      <c r="W62" t="n">
+      <c r="AB62" t="n">
         <v>133.768939192973</v>
       </c>
-      <c r="X62" t="n">
+      <c r="AC62" t="n">
         <v>-4.216226695607757</v>
       </c>
-      <c r="Y62" t="n">
+      <c r="AD62" t="n">
         <v>2.236641780729235</v>
       </c>
-      <c r="Z62" t="n">
+      <c r="AE62" t="n">
+        <v>1.121444521975912</v>
+      </c>
+      <c r="AF62" t="n">
+        <v>1.841733280172975</v>
+      </c>
+      <c r="AG62" t="n">
         <v>0.07785768910493723</v>
       </c>
-      <c r="AA62" t="n">
+      <c r="AH62" t="n">
         <v>8.528321940023906</v>
       </c>
-      <c r="AB62" t="n">
+      <c r="AI62" t="n">
         <v>1.39133283844068</v>
+      </c>
+      <c r="AJ62" t="n">
+        <v>172957796645.933</v>
+      </c>
+      <c r="AK62" t="n">
+        <v>6.566785747972003</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>37.18219308233689</v>
+      </c>
+      <c r="C63" t="n">
+        <v>6.707840058122374</v>
+      </c>
+      <c r="D63" t="n">
+        <v>3.126851493690946</v>
+      </c>
+      <c r="E63" t="n">
+        <v>5.911898848075174</v>
+      </c>
+      <c r="F63" t="n">
         <v>47.07121651777462</v>
       </c>
-      <c r="B63" t="n">
-        <v>6.707840058122374</v>
-      </c>
-      <c r="C63" t="n">
-        <v>37.18219308233689</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0</v>
-      </c>
-      <c r="E63" t="n">
-        <v>0</v>
-      </c>
-      <c r="F63" t="n">
-        <v>0</v>
-      </c>
       <c r="G63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -5859,7 +7551,7 @@
         <v>0</v>
       </c>
       <c r="M63" t="n">
-        <v>5.911898848075174</v>
+        <v>0</v>
       </c>
       <c r="N63" t="n">
         <v>0</v>
@@ -5868,7 +7560,7 @@
         <v>0</v>
       </c>
       <c r="P63" t="n">
-        <v>3.126851493690946</v>
+        <v>0</v>
       </c>
       <c r="Q63" t="n">
         <v>0</v>
@@ -5883,51 +7575,78 @@
         <v>0</v>
       </c>
       <c r="U63" t="n">
+        <v>0</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="n">
+        <v>0</v>
+      </c>
+      <c r="X63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>1.248570550522498</v>
+      </c>
+      <c r="Z63" t="n">
         <v>0.0144858494561258</v>
       </c>
-      <c r="V63" t="n">
+      <c r="AA63" t="n">
         <v>1831.237971787176</v>
       </c>
-      <c r="W63" t="n">
+      <c r="AB63" t="n">
         <v>145.1006768504383</v>
       </c>
-      <c r="X63" t="n">
+      <c r="AC63" t="n">
         <v>-5.011414499462786</v>
       </c>
-      <c r="Y63" t="n">
+      <c r="AD63" t="n">
         <v>2.637752997236562</v>
       </c>
-      <c r="Z63" t="n">
+      <c r="AE63" t="n">
+        <v>1.195208744125504</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>1.834616290338422</v>
+      </c>
+      <c r="AG63" t="n">
         <v>0.08399553639921081</v>
       </c>
-      <c r="AA63" t="n">
+      <c r="AH63" t="n">
         <v>8.402305735263715</v>
       </c>
-      <c r="AB63" t="n">
+      <c r="AI63" t="n">
         <v>1.47494070944119</v>
+      </c>
+      <c r="AJ63" t="n">
+        <v>172488024546.7152</v>
+      </c>
+      <c r="AK63" t="n">
+        <v>6.805132296511828</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>34.1968373589592</v>
+      </c>
+      <c r="C64" t="n">
+        <v>7.420825315198804</v>
+      </c>
+      <c r="D64" t="n">
+        <v>4.042669157301349</v>
+      </c>
+      <c r="E64" t="n">
+        <v>8.668102187239116</v>
+      </c>
+      <c r="F64" t="n">
         <v>45.67156598130153</v>
       </c>
-      <c r="B64" t="n">
-        <v>7.420825315198804</v>
-      </c>
-      <c r="C64" t="n">
-        <v>34.1968373589592</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0</v>
-      </c>
-      <c r="E64" t="n">
-        <v>0</v>
-      </c>
-      <c r="F64" t="n">
-        <v>0</v>
-      </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5945,7 +7664,7 @@
         <v>0</v>
       </c>
       <c r="M64" t="n">
-        <v>8.668102187239116</v>
+        <v>0</v>
       </c>
       <c r="N64" t="n">
         <v>0</v>
@@ -5954,7 +7673,7 @@
         <v>0</v>
       </c>
       <c r="P64" t="n">
-        <v>4.042669157301349</v>
+        <v>0</v>
       </c>
       <c r="Q64" t="n">
         <v>0</v>
@@ -5969,51 +7688,78 @@
         <v>0</v>
       </c>
       <c r="U64" t="n">
+        <v>0</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="n">
+        <v>0</v>
+      </c>
+      <c r="X64" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>1.250822245654376</v>
+      </c>
+      <c r="Z64" t="n">
         <v>0.0171057748099153</v>
       </c>
-      <c r="V64" t="n">
+      <c r="AA64" t="n">
         <v>1847.282242523307</v>
       </c>
-      <c r="W64" t="n">
+      <c r="AB64" t="n">
         <v>158.5146067313444</v>
       </c>
-      <c r="X64" t="n">
+      <c r="AC64" t="n">
         <v>-5.942931048174591</v>
       </c>
-      <c r="Y64" t="n">
+      <c r="AD64" t="n">
         <v>3.015554825671705</v>
       </c>
-      <c r="Z64" t="n">
+      <c r="AE64" t="n">
+        <v>1.274819096646062</v>
+      </c>
+      <c r="AF64" t="n">
+        <v>1.825368809375473</v>
+      </c>
+      <c r="AG64" t="n">
         <v>0.09111327542057475</v>
       </c>
-      <c r="AA64" t="n">
+      <c r="AH64" t="n">
         <v>8.245782027590725</v>
       </c>
-      <c r="AB64" t="n">
+      <c r="AI64" t="n">
         <v>1.57026622705338</v>
+      </c>
+      <c r="AJ64" t="n">
+        <v>171898837490.3</v>
+      </c>
+      <c r="AK64" t="n">
+        <v>7.106269911164209</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>31.85374036730268</v>
+      </c>
+      <c r="C65" t="n">
+        <v>7.292241982690449</v>
+      </c>
+      <c r="D65" t="n">
+        <v>5.203960699488528</v>
+      </c>
+      <c r="E65" t="n">
+        <v>13.13901354135515</v>
+      </c>
+      <c r="F65" t="n">
         <v>42.51104340916319</v>
       </c>
-      <c r="B65" t="n">
-        <v>7.292241982690449</v>
-      </c>
-      <c r="C65" t="n">
-        <v>31.85374036730268</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0</v>
-      </c>
-      <c r="E65" t="n">
-        <v>0</v>
-      </c>
-      <c r="F65" t="n">
-        <v>0</v>
-      </c>
       <c r="G65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -6031,7 +7777,7 @@
         <v>0</v>
       </c>
       <c r="M65" t="n">
-        <v>13.13901354135515</v>
+        <v>0</v>
       </c>
       <c r="N65" t="n">
         <v>0</v>
@@ -6040,7 +7786,7 @@
         <v>0</v>
       </c>
       <c r="P65" t="n">
-        <v>5.203960699488528</v>
+        <v>0</v>
       </c>
       <c r="Q65" t="n">
         <v>0</v>
@@ -6055,51 +7801,78 @@
         <v>0</v>
       </c>
       <c r="U65" t="n">
+        <v>0</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="n">
+        <v>0</v>
+      </c>
+      <c r="X65" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>1.254439670613674</v>
+      </c>
+      <c r="Z65" t="n">
         <v>0.02028029107249054</v>
       </c>
-      <c r="V65" t="n">
+      <c r="AA65" t="n">
         <v>1866.213199387029</v>
       </c>
-      <c r="W65" t="n">
+      <c r="AB65" t="n">
         <v>172.428688213657</v>
       </c>
-      <c r="X65" t="n">
+      <c r="AC65" t="n">
         <v>-7.32186796334867</v>
       </c>
-      <c r="Y65" t="n">
+      <c r="AD65" t="n">
         <v>3.505362499811748</v>
       </c>
-      <c r="Z65" t="n">
+      <c r="AE65" t="n">
+        <v>1.352481687933465</v>
+      </c>
+      <c r="AF65" t="n">
+        <v>1.81458826994419</v>
+      </c>
+      <c r="AG65" t="n">
         <v>0.09925616978069154</v>
       </c>
-      <c r="AA65" t="n">
+      <c r="AH65" t="n">
         <v>8.066734709252797</v>
       </c>
-      <c r="AB65" t="n">
+      <c r="AI65" t="n">
         <v>1.693277583234823</v>
+      </c>
+      <c r="AJ65" t="n">
+        <v>171300552455.3383</v>
+      </c>
+      <c r="AK65" t="n">
+        <v>7.469376856799902</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>38.51361416459901</v>
+      </c>
+      <c r="C66" t="n">
+        <v>4.163980532700686</v>
+      </c>
+      <c r="D66" t="n">
+        <v>1.320214011864745</v>
+      </c>
+      <c r="E66" t="n">
+        <v>1.626418744769528</v>
+      </c>
+      <c r="F66" t="n">
         <v>54.37577254606605</v>
       </c>
-      <c r="B66" t="n">
-        <v>4.163980532700686</v>
-      </c>
-      <c r="C66" t="n">
-        <v>38.51361416459901</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0</v>
-      </c>
-      <c r="E66" t="n">
-        <v>0</v>
-      </c>
-      <c r="F66" t="n">
-        <v>0</v>
-      </c>
       <c r="G66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -6117,7 +7890,7 @@
         <v>0</v>
       </c>
       <c r="M66" t="n">
-        <v>1.626418744769528</v>
+        <v>0</v>
       </c>
       <c r="N66" t="n">
         <v>0</v>
@@ -6126,7 +7899,7 @@
         <v>0</v>
       </c>
       <c r="P66" t="n">
-        <v>1.320214011864745</v>
+        <v>0</v>
       </c>
       <c r="Q66" t="n">
         <v>0</v>
@@ -6141,51 +7914,78 @@
         <v>0</v>
       </c>
       <c r="U66" t="n">
+        <v>0</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="n">
+        <v>0</v>
+      </c>
+      <c r="X66" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>1.244706949597675</v>
+      </c>
+      <c r="Z66" t="n">
         <v>0.008094941929136089</v>
       </c>
-      <c r="V66" t="n">
+      <c r="AA66" t="n">
         <v>1803.065062095973</v>
       </c>
-      <c r="W66" t="n">
+      <c r="AB66" t="n">
         <v>105.865055616446</v>
       </c>
-      <c r="X66" t="n">
+      <c r="AC66" t="n">
         <v>-3.035920942155328</v>
       </c>
-      <c r="Y66" t="n">
+      <c r="AD66" t="n">
         <v>1.534616405860436</v>
       </c>
-      <c r="Z66" t="n">
+      <c r="AE66" t="n">
+        <v>0.9643180572234812</v>
+      </c>
+      <c r="AF66" t="n">
+        <v>1.849053366248629</v>
+      </c>
+      <c r="AG66" t="n">
         <v>0.06391158313549025</v>
       </c>
-      <c r="AA66" t="n">
+      <c r="AH66" t="n">
         <v>8.611481637450535</v>
       </c>
-      <c r="AB66" t="n">
+      <c r="AI66" t="n">
         <v>1.212817224831085</v>
+      </c>
+      <c r="AJ66" t="n">
+        <v>173211376128.9651</v>
+      </c>
+      <c r="AK66" t="n">
+        <v>5.873519903279812</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>36.40809164276832</v>
+      </c>
+      <c r="C67" t="n">
+        <v>4.548597416346031</v>
+      </c>
+      <c r="D67" t="n">
+        <v>1.478932745842804</v>
+      </c>
+      <c r="E67" t="n">
+        <v>2.493750665872093</v>
+      </c>
+      <c r="F67" t="n">
         <v>55.07062752917076</v>
       </c>
-      <c r="B67" t="n">
-        <v>4.548597416346031</v>
-      </c>
-      <c r="C67" t="n">
-        <v>36.40809164276832</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0</v>
-      </c>
-      <c r="E67" t="n">
-        <v>0</v>
-      </c>
-      <c r="F67" t="n">
-        <v>0</v>
-      </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -6203,7 +8003,7 @@
         <v>0</v>
       </c>
       <c r="M67" t="n">
-        <v>2.493750665872093</v>
+        <v>0</v>
       </c>
       <c r="N67" t="n">
         <v>0</v>
@@ -6212,7 +8012,7 @@
         <v>0</v>
       </c>
       <c r="P67" t="n">
-        <v>1.478932745842804</v>
+        <v>0</v>
       </c>
       <c r="Q67" t="n">
         <v>0</v>
@@ -6227,51 +8027,78 @@
         <v>0</v>
       </c>
       <c r="U67" t="n">
+        <v>0</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="n">
+        <v>0</v>
+      </c>
+      <c r="X67" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>1.245368735158611</v>
+      </c>
+      <c r="Z67" t="n">
         <v>0.009835056787021469</v>
       </c>
-      <c r="V67" t="n">
+      <c r="AA67" t="n">
         <v>1809.826507441956</v>
       </c>
-      <c r="W67" t="n">
+      <c r="AB67" t="n">
         <v>114.0652537013903</v>
       </c>
-      <c r="X67" t="n">
+      <c r="AC67" t="n">
         <v>-3.369887366306302</v>
       </c>
-      <c r="Y67" t="n">
+      <c r="AD67" t="n">
         <v>1.783872531566455</v>
       </c>
-      <c r="Z67" t="n">
+      <c r="AE67" t="n">
+        <v>1.001561807587708</v>
+      </c>
+      <c r="AF67" t="n">
+        <v>1.844829265001076</v>
+      </c>
+      <c r="AG67" t="n">
         <v>0.06781306660551203</v>
       </c>
-      <c r="AA67" t="n">
+      <c r="AH67" t="n">
         <v>8.533890670384872</v>
       </c>
-      <c r="AB67" t="n">
+      <c r="AI67" t="n">
         <v>1.256868418005553</v>
+      </c>
+      <c r="AJ67" t="n">
+        <v>172878867762.8279</v>
+      </c>
+      <c r="AK67" t="n">
+        <v>5.994543769261927</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>34.63480630646283</v>
+      </c>
+      <c r="C68" t="n">
+        <v>4.911082626026415</v>
+      </c>
+      <c r="D68" t="n">
+        <v>1.973783959743264</v>
+      </c>
+      <c r="E68" t="n">
+        <v>3.655998540179822</v>
+      </c>
+      <c r="F68" t="n">
         <v>54.82432856758766</v>
       </c>
-      <c r="B68" t="n">
-        <v>4.911082626026415</v>
-      </c>
-      <c r="C68" t="n">
-        <v>34.63480630646283</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0</v>
-      </c>
-      <c r="E68" t="n">
-        <v>0</v>
-      </c>
-      <c r="F68" t="n">
-        <v>0</v>
-      </c>
       <c r="G68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -6289,7 +8116,7 @@
         <v>0</v>
       </c>
       <c r="M68" t="n">
-        <v>3.655998540179822</v>
+        <v>0</v>
       </c>
       <c r="N68" t="n">
         <v>0</v>
@@ -6298,7 +8125,7 @@
         <v>0</v>
       </c>
       <c r="P68" t="n">
-        <v>1.973783959743264</v>
+        <v>0</v>
       </c>
       <c r="Q68" t="n">
         <v>0</v>
@@ -6313,51 +8140,78 @@
         <v>0</v>
       </c>
       <c r="U68" t="n">
+        <v>0</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="n">
+        <v>0</v>
+      </c>
+      <c r="X68" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>1.246319467691301</v>
+      </c>
+      <c r="Z68" t="n">
         <v>0.01171591481623785</v>
       </c>
-      <c r="V68" t="n">
+      <c r="AA68" t="n">
         <v>1817.28357425396</v>
       </c>
-      <c r="W68" t="n">
+      <c r="AB68" t="n">
         <v>123.1094484623871</v>
       </c>
-      <c r="X68" t="n">
+      <c r="AC68" t="n">
         <v>-3.81061272426053</v>
       </c>
-      <c r="Y68" t="n">
+      <c r="AD68" t="n">
         <v>2.055573873248151</v>
       </c>
-      <c r="Z68" t="n">
+      <c r="AE68" t="n">
+        <v>1.054507806173289</v>
+      </c>
+      <c r="AF68" t="n">
+        <v>1.840427351247978</v>
+      </c>
+      <c r="AG68" t="n">
         <v>0.07233037751903099</v>
       </c>
-      <c r="AA68" t="n">
+      <c r="AH68" t="n">
         <v>8.456941706699954</v>
       </c>
-      <c r="AB68" t="n">
+      <c r="AI68" t="n">
         <v>1.311634526868541</v>
+      </c>
+      <c r="AJ68" t="n">
+        <v>172581795085.3334</v>
+      </c>
+      <c r="AK68" t="n">
+        <v>6.157744603251786</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>32.54375236898584</v>
+      </c>
+      <c r="C69" t="n">
+        <v>5.396440362725046</v>
+      </c>
+      <c r="D69" t="n">
+        <v>2.440271990231944</v>
+      </c>
+      <c r="E69" t="n">
+        <v>5.431837183713921</v>
+      </c>
+      <c r="F69" t="n">
         <v>54.18769809434324</v>
       </c>
-      <c r="B69" t="n">
-        <v>5.396440362725046</v>
-      </c>
-      <c r="C69" t="n">
-        <v>32.54375236898584</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0</v>
-      </c>
-      <c r="E69" t="n">
-        <v>0</v>
-      </c>
-      <c r="F69" t="n">
-        <v>0</v>
-      </c>
       <c r="G69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -6375,7 +8229,7 @@
         <v>0</v>
       </c>
       <c r="M69" t="n">
-        <v>5.431837183713921</v>
+        <v>0</v>
       </c>
       <c r="N69" t="n">
         <v>0</v>
@@ -6384,7 +8238,7 @@
         <v>0</v>
       </c>
       <c r="P69" t="n">
-        <v>2.440271990231944</v>
+        <v>0</v>
       </c>
       <c r="Q69" t="n">
         <v>0</v>
@@ -6399,51 +8253,78 @@
         <v>0</v>
       </c>
       <c r="U69" t="n">
+        <v>0</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="n">
+        <v>0</v>
+      </c>
+      <c r="X69" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>1.247762184861927</v>
+      </c>
+      <c r="Z69" t="n">
         <v>0.01401347287902438</v>
       </c>
-      <c r="V69" t="n">
+      <c r="AA69" t="n">
         <v>1827.976410804391</v>
       </c>
-      <c r="W69" t="n">
+      <c r="AB69" t="n">
         <v>134.7759155198548</v>
       </c>
-      <c r="X69" t="n">
+      <c r="AC69" t="n">
         <v>-4.447296024796836</v>
       </c>
-      <c r="Y69" t="n">
+      <c r="AD69" t="n">
         <v>2.370016088240881</v>
       </c>
-      <c r="Z69" t="n">
+      <c r="AE69" t="n">
+        <v>1.116119289866456</v>
+      </c>
+      <c r="AF69" t="n">
+        <v>1.834198521422695</v>
+      </c>
+      <c r="AG69" t="n">
         <v>0.07827521299886665</v>
       </c>
-      <c r="AA69" t="n">
+      <c r="AH69" t="n">
         <v>8.350610399426499</v>
       </c>
-      <c r="AB69" t="n">
+      <c r="AI69" t="n">
         <v>1.386573576065322</v>
+      </c>
+      <c r="AJ69" t="n">
+        <v>172169673351.7011</v>
+      </c>
+      <c r="AK69" t="n">
+        <v>6.377791370106144</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>31.58485426038688</v>
+      </c>
+      <c r="C70" t="n">
+        <v>5.827792524021215</v>
+      </c>
+      <c r="D70" t="n">
+        <v>3.097870305338082</v>
+      </c>
+      <c r="E70" t="n">
+        <v>8.142295094829825</v>
+      </c>
+      <c r="F70" t="n">
         <v>51.347187815424</v>
       </c>
-      <c r="B70" t="n">
-        <v>5.827792524021215</v>
-      </c>
-      <c r="C70" t="n">
-        <v>31.58485426038688</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0</v>
-      </c>
-      <c r="E70" t="n">
-        <v>0</v>
-      </c>
-      <c r="F70" t="n">
-        <v>0</v>
-      </c>
       <c r="G70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -6461,7 +8342,7 @@
         <v>0</v>
       </c>
       <c r="M70" t="n">
-        <v>8.142295094829825</v>
+        <v>0</v>
       </c>
       <c r="N70" t="n">
         <v>0</v>
@@ -6470,7 +8351,7 @@
         <v>0</v>
       </c>
       <c r="P70" t="n">
-        <v>3.097870305338082</v>
+        <v>0</v>
       </c>
       <c r="Q70" t="n">
         <v>0</v>
@@ -6485,28 +8366,55 @@
         <v>0</v>
       </c>
       <c r="U70" t="n">
+        <v>0</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="n">
+        <v>0</v>
+      </c>
+      <c r="X70" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>1.250034730020995</v>
+      </c>
+      <c r="Z70" t="n">
         <v>0.01673090512309462</v>
       </c>
-      <c r="V70" t="n">
+      <c r="AA70" t="n">
         <v>1841.240482974366</v>
       </c>
-      <c r="W70" t="n">
+      <c r="AB70" t="n">
         <v>148.9821337428867</v>
       </c>
-      <c r="X70" t="n">
+      <c r="AC70" t="n">
         <v>-5.43757601361474</v>
       </c>
-      <c r="Y70" t="n">
+      <c r="AD70" t="n">
         <v>2.782294078387221</v>
       </c>
-      <c r="Z70" t="n">
+      <c r="AE70" t="n">
+        <v>1.197209215181536</v>
+      </c>
+      <c r="AF70" t="n">
+        <v>1.827002623801314</v>
+      </c>
+      <c r="AG70" t="n">
         <v>0.08603840074667479</v>
       </c>
-      <c r="AA70" t="n">
+      <c r="AH70" t="n">
         <v>8.238582347543927</v>
       </c>
-      <c r="AB70" t="n">
+      <c r="AI70" t="n">
         <v>1.496411259435297</v>
+      </c>
+      <c r="AJ70" t="n">
+        <v>171788846968.1756</v>
+      </c>
+      <c r="AK70" t="n">
+        <v>6.723485183237753</v>
       </c>
     </row>
   </sheetData>

--- a/01_Dataset_Cleaned/MultiTaskModel_NiCrCoVFe_KW99_wt_pct_processed.xlsx
+++ b/01_Dataset_Cleaned/MultiTaskModel_NiCrCoVFe_KW99_wt_pct_processed.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
